--- a/scripts/Modelo_1section.xlsx
+++ b/scripts/Modelo_1section.xlsx
@@ -19,7 +19,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="GASESREFPROP">[1]LISTAS!$G$2:$G$195</definedName>
@@ -2962,19 +2961,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -3100,19 +3086,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3278,6 +3251,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3286,7 +3281,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="535">
+  <cellXfs count="533">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -3970,41 +3965,216 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="16" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="16" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="8" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4013,35 +4183,176 @@
     <xf numFmtId="164" fontId="9" fillId="8" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="23" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="23" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="23" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4055,6 +4366,54 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4064,633 +4423,261 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="16" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="16" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5140,7 +5127,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6102,7 +6088,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6765,10 +6750,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8943</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9911</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10418.636490360617</c:v>
@@ -6783,10 +6768,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>223.71</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213.53</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>205.78537918281884</c:v>
@@ -7265,10 +7250,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8943</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9911</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10418.636490360617</c:v>
@@ -7283,10 +7268,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.82199999999999995</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83299999999999996</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.84289488128800871</c:v>
@@ -13866,27 +13851,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DataSheet"/>
-      <sheetName val="Test Procedure Data"/>
-      <sheetName val="Actual Test Data"/>
-      <sheetName val="Tools"/>
-      <sheetName val="GRAF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -14153,8 +14117,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AX175"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AV32" sqref="AV32"/>
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AQ45" sqref="AQ45:AR45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14374,14 +14338,14 @@
         <v>7</v>
       </c>
       <c r="AC4" s="22"/>
-      <c r="AD4" s="311"/>
-      <c r="AE4" s="311"/>
-      <c r="AF4" s="311"/>
-      <c r="AG4" s="311"/>
-      <c r="AH4" s="311"/>
-      <c r="AI4" s="311"/>
-      <c r="AJ4" s="311"/>
-      <c r="AK4" s="311"/>
+      <c r="AD4" s="437"/>
+      <c r="AE4" s="437"/>
+      <c r="AF4" s="437"/>
+      <c r="AG4" s="437"/>
+      <c r="AH4" s="437"/>
+      <c r="AI4" s="437"/>
+      <c r="AJ4" s="437"/>
+      <c r="AK4" s="437"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="20"/>
       <c r="AN4" s="10"/>
@@ -14594,22 +14558,22 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="32"/>
-      <c r="E8" s="312"/>
-      <c r="F8" s="312"/>
-      <c r="G8" s="312"/>
-      <c r="H8" s="312"/>
-      <c r="I8" s="312"/>
-      <c r="J8" s="312"/>
-      <c r="K8" s="312"/>
-      <c r="L8" s="312"/>
-      <c r="M8" s="312"/>
-      <c r="N8" s="312"/>
-      <c r="O8" s="312"/>
-      <c r="P8" s="312"/>
-      <c r="Q8" s="312"/>
-      <c r="R8" s="312"/>
-      <c r="S8" s="312"/>
-      <c r="T8" s="312"/>
+      <c r="E8" s="438"/>
+      <c r="F8" s="438"/>
+      <c r="G8" s="438"/>
+      <c r="H8" s="438"/>
+      <c r="I8" s="438"/>
+      <c r="J8" s="438"/>
+      <c r="K8" s="438"/>
+      <c r="L8" s="438"/>
+      <c r="M8" s="438"/>
+      <c r="N8" s="438"/>
+      <c r="O8" s="438"/>
+      <c r="P8" s="438"/>
+      <c r="Q8" s="438"/>
+      <c r="R8" s="438"/>
+      <c r="S8" s="438"/>
+      <c r="T8" s="438"/>
       <c r="U8" s="32"/>
       <c r="V8" s="13" t="s">
         <v>18</v>
@@ -14653,22 +14617,22 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="311"/>
-      <c r="F9" s="311"/>
-      <c r="G9" s="311"/>
-      <c r="H9" s="311"/>
-      <c r="I9" s="311"/>
-      <c r="J9" s="311"/>
-      <c r="K9" s="311"/>
-      <c r="L9" s="311"/>
-      <c r="M9" s="311"/>
-      <c r="N9" s="311"/>
-      <c r="O9" s="311"/>
-      <c r="P9" s="311"/>
-      <c r="Q9" s="311"/>
-      <c r="R9" s="311"/>
-      <c r="S9" s="311"/>
-      <c r="T9" s="311"/>
+      <c r="E9" s="437"/>
+      <c r="F9" s="437"/>
+      <c r="G9" s="437"/>
+      <c r="H9" s="437"/>
+      <c r="I9" s="437"/>
+      <c r="J9" s="437"/>
+      <c r="K9" s="437"/>
+      <c r="L9" s="437"/>
+      <c r="M9" s="437"/>
+      <c r="N9" s="437"/>
+      <c r="O9" s="437"/>
+      <c r="P9" s="437"/>
+      <c r="Q9" s="437"/>
+      <c r="R9" s="437"/>
+      <c r="S9" s="437"/>
+      <c r="T9" s="437"/>
       <c r="U9" s="12"/>
       <c r="V9" s="13" t="s">
         <v>20</v>
@@ -14712,22 +14676,22 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="311"/>
-      <c r="F10" s="311"/>
-      <c r="G10" s="311"/>
-      <c r="H10" s="311"/>
-      <c r="I10" s="311"/>
-      <c r="J10" s="311"/>
-      <c r="K10" s="311"/>
-      <c r="L10" s="311"/>
-      <c r="M10" s="311"/>
-      <c r="N10" s="311"/>
-      <c r="O10" s="311"/>
-      <c r="P10" s="311"/>
-      <c r="Q10" s="311"/>
-      <c r="R10" s="311"/>
-      <c r="S10" s="311"/>
-      <c r="T10" s="311"/>
+      <c r="E10" s="437"/>
+      <c r="F10" s="437"/>
+      <c r="G10" s="437"/>
+      <c r="H10" s="437"/>
+      <c r="I10" s="437"/>
+      <c r="J10" s="437"/>
+      <c r="K10" s="437"/>
+      <c r="L10" s="437"/>
+      <c r="M10" s="437"/>
+      <c r="N10" s="437"/>
+      <c r="O10" s="437"/>
+      <c r="P10" s="437"/>
+      <c r="Q10" s="437"/>
+      <c r="R10" s="437"/>
+      <c r="S10" s="437"/>
+      <c r="T10" s="437"/>
       <c r="U10" s="12"/>
       <c r="V10" s="13" t="s">
         <v>22</v>
@@ -15002,46 +14966,46 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="308" t="s">
+      <c r="B15" s="434" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="309"/>
-      <c r="D15" s="309"/>
-      <c r="E15" s="309"/>
-      <c r="F15" s="309"/>
-      <c r="G15" s="309"/>
-      <c r="H15" s="309"/>
-      <c r="I15" s="309"/>
-      <c r="J15" s="309"/>
-      <c r="K15" s="309"/>
-      <c r="L15" s="309"/>
-      <c r="M15" s="309"/>
-      <c r="N15" s="309"/>
-      <c r="O15" s="309"/>
-      <c r="P15" s="309"/>
-      <c r="Q15" s="309"/>
-      <c r="R15" s="309"/>
-      <c r="S15" s="309"/>
-      <c r="T15" s="309"/>
-      <c r="U15" s="309"/>
-      <c r="V15" s="309"/>
-      <c r="W15" s="309"/>
-      <c r="X15" s="309"/>
-      <c r="Y15" s="309"/>
-      <c r="Z15" s="309"/>
-      <c r="AA15" s="309"/>
-      <c r="AB15" s="309"/>
-      <c r="AC15" s="309"/>
-      <c r="AD15" s="309"/>
-      <c r="AE15" s="309"/>
-      <c r="AF15" s="309"/>
-      <c r="AG15" s="309"/>
-      <c r="AH15" s="309"/>
-      <c r="AI15" s="309"/>
-      <c r="AJ15" s="309"/>
-      <c r="AK15" s="309"/>
-      <c r="AL15" s="309"/>
-      <c r="AM15" s="310"/>
+      <c r="C15" s="435"/>
+      <c r="D15" s="435"/>
+      <c r="E15" s="435"/>
+      <c r="F15" s="435"/>
+      <c r="G15" s="435"/>
+      <c r="H15" s="435"/>
+      <c r="I15" s="435"/>
+      <c r="J15" s="435"/>
+      <c r="K15" s="435"/>
+      <c r="L15" s="435"/>
+      <c r="M15" s="435"/>
+      <c r="N15" s="435"/>
+      <c r="O15" s="435"/>
+      <c r="P15" s="435"/>
+      <c r="Q15" s="435"/>
+      <c r="R15" s="435"/>
+      <c r="S15" s="435"/>
+      <c r="T15" s="435"/>
+      <c r="U15" s="435"/>
+      <c r="V15" s="435"/>
+      <c r="W15" s="435"/>
+      <c r="X15" s="435"/>
+      <c r="Y15" s="435"/>
+      <c r="Z15" s="435"/>
+      <c r="AA15" s="435"/>
+      <c r="AB15" s="435"/>
+      <c r="AC15" s="435"/>
+      <c r="AD15" s="435"/>
+      <c r="AE15" s="435"/>
+      <c r="AF15" s="435"/>
+      <c r="AG15" s="435"/>
+      <c r="AH15" s="435"/>
+      <c r="AI15" s="435"/>
+      <c r="AJ15" s="435"/>
+      <c r="AK15" s="435"/>
+      <c r="AL15" s="435"/>
+      <c r="AM15" s="436"/>
       <c r="AN15" s="10"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
@@ -15059,50 +15023,50 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="313" t="s">
+      <c r="B16" s="439" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="314"/>
-      <c r="D16" s="314"/>
-      <c r="E16" s="314"/>
-      <c r="F16" s="314"/>
-      <c r="G16" s="314"/>
-      <c r="H16" s="314"/>
-      <c r="I16" s="314"/>
-      <c r="J16" s="314"/>
-      <c r="K16" s="314"/>
-      <c r="L16" s="314"/>
-      <c r="M16" s="314"/>
-      <c r="N16" s="314"/>
-      <c r="O16" s="314"/>
-      <c r="P16" s="314"/>
-      <c r="Q16" s="314"/>
-      <c r="R16" s="314"/>
+      <c r="C16" s="440"/>
+      <c r="D16" s="440"/>
+      <c r="E16" s="440"/>
+      <c r="F16" s="440"/>
+      <c r="G16" s="440"/>
+      <c r="H16" s="440"/>
+      <c r="I16" s="440"/>
+      <c r="J16" s="440"/>
+      <c r="K16" s="440"/>
+      <c r="L16" s="440"/>
+      <c r="M16" s="440"/>
+      <c r="N16" s="440"/>
+      <c r="O16" s="440"/>
+      <c r="P16" s="440"/>
+      <c r="Q16" s="440"/>
+      <c r="R16" s="440"/>
       <c r="S16" s="13"/>
-      <c r="T16" s="308" t="s">
+      <c r="T16" s="434" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="309"/>
-      <c r="V16" s="309"/>
-      <c r="W16" s="309"/>
-      <c r="X16" s="309"/>
-      <c r="Y16" s="310"/>
-      <c r="Z16" s="308" t="s">
+      <c r="U16" s="435"/>
+      <c r="V16" s="435"/>
+      <c r="W16" s="435"/>
+      <c r="X16" s="435"/>
+      <c r="Y16" s="436"/>
+      <c r="Z16" s="434" t="s">
         <v>34</v>
       </c>
-      <c r="AA16" s="309"/>
-      <c r="AB16" s="309"/>
-      <c r="AC16" s="309"/>
-      <c r="AD16" s="309"/>
-      <c r="AE16" s="309"/>
-      <c r="AF16" s="309"/>
-      <c r="AG16" s="309"/>
-      <c r="AH16" s="309"/>
-      <c r="AI16" s="309"/>
-      <c r="AJ16" s="309"/>
-      <c r="AK16" s="309"/>
-      <c r="AL16" s="309"/>
-      <c r="AM16" s="310"/>
+      <c r="AA16" s="435"/>
+      <c r="AB16" s="435"/>
+      <c r="AC16" s="435"/>
+      <c r="AD16" s="435"/>
+      <c r="AE16" s="435"/>
+      <c r="AF16" s="435"/>
+      <c r="AG16" s="435"/>
+      <c r="AH16" s="435"/>
+      <c r="AI16" s="435"/>
+      <c r="AJ16" s="435"/>
+      <c r="AK16" s="435"/>
+      <c r="AL16" s="435"/>
+      <c r="AM16" s="436"/>
       <c r="AN16" s="10"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
@@ -15138,38 +15102,38 @@
       <c r="Q17" s="217"/>
       <c r="R17" s="217"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="308" t="s">
+      <c r="T17" s="434" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="309"/>
-      <c r="V17" s="310"/>
-      <c r="W17" s="308" t="s">
+      <c r="U17" s="435"/>
+      <c r="V17" s="436"/>
+      <c r="W17" s="434" t="s">
         <v>36</v>
       </c>
-      <c r="X17" s="309"/>
-      <c r="Y17" s="310"/>
-      <c r="Z17" s="308" t="s">
+      <c r="X17" s="435"/>
+      <c r="Y17" s="436"/>
+      <c r="Z17" s="434" t="s">
         <v>35</v>
       </c>
-      <c r="AA17" s="309"/>
-      <c r="AB17" s="310"/>
-      <c r="AC17" s="308" t="s">
+      <c r="AA17" s="435"/>
+      <c r="AB17" s="436"/>
+      <c r="AC17" s="434" t="s">
         <v>36</v>
       </c>
-      <c r="AD17" s="309"/>
-      <c r="AE17" s="310"/>
-      <c r="AF17" s="308" t="s">
+      <c r="AD17" s="435"/>
+      <c r="AE17" s="436"/>
+      <c r="AF17" s="434" t="s">
         <v>35</v>
       </c>
-      <c r="AG17" s="309"/>
-      <c r="AH17" s="310"/>
-      <c r="AI17" s="308" t="s">
+      <c r="AG17" s="435"/>
+      <c r="AH17" s="436"/>
+      <c r="AI17" s="434" t="s">
         <v>36</v>
       </c>
-      <c r="AJ17" s="309"/>
-      <c r="AK17" s="309"/>
-      <c r="AL17" s="309"/>
-      <c r="AM17" s="310"/>
+      <c r="AJ17" s="435"/>
+      <c r="AK17" s="435"/>
+      <c r="AL17" s="435"/>
+      <c r="AM17" s="436"/>
       <c r="AN17" s="10"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
@@ -15209,26 +15173,26 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="303"/>
-      <c r="U18" s="304"/>
-      <c r="V18" s="305"/>
-      <c r="W18" s="303"/>
-      <c r="X18" s="304"/>
-      <c r="Y18" s="305"/>
-      <c r="Z18" s="303"/>
-      <c r="AA18" s="304"/>
-      <c r="AB18" s="305"/>
-      <c r="AC18" s="303"/>
-      <c r="AD18" s="304"/>
-      <c r="AE18" s="305"/>
-      <c r="AF18" s="303"/>
-      <c r="AG18" s="304"/>
-      <c r="AH18" s="305"/>
-      <c r="AI18" s="303"/>
-      <c r="AJ18" s="304"/>
-      <c r="AK18" s="304"/>
-      <c r="AL18" s="304"/>
-      <c r="AM18" s="305"/>
+      <c r="T18" s="444"/>
+      <c r="U18" s="445"/>
+      <c r="V18" s="446"/>
+      <c r="W18" s="444"/>
+      <c r="X18" s="445"/>
+      <c r="Y18" s="446"/>
+      <c r="Z18" s="444"/>
+      <c r="AA18" s="445"/>
+      <c r="AB18" s="446"/>
+      <c r="AC18" s="444"/>
+      <c r="AD18" s="445"/>
+      <c r="AE18" s="446"/>
+      <c r="AF18" s="444"/>
+      <c r="AG18" s="445"/>
+      <c r="AH18" s="446"/>
+      <c r="AI18" s="444"/>
+      <c r="AJ18" s="445"/>
+      <c r="AK18" s="445"/>
+      <c r="AL18" s="445"/>
+      <c r="AM18" s="446"/>
       <c r="AN18" s="10"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
@@ -15266,21 +15230,21 @@
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
-      <c r="T19" s="303"/>
-      <c r="U19" s="304"/>
-      <c r="V19" s="305"/>
-      <c r="W19" s="303"/>
-      <c r="X19" s="304"/>
-      <c r="Y19" s="305"/>
-      <c r="Z19" s="303"/>
-      <c r="AA19" s="304"/>
-      <c r="AB19" s="305"/>
-      <c r="AC19" s="303"/>
-      <c r="AD19" s="304"/>
-      <c r="AE19" s="305"/>
-      <c r="AF19" s="303"/>
-      <c r="AG19" s="304"/>
-      <c r="AH19" s="305"/>
+      <c r="T19" s="444"/>
+      <c r="U19" s="445"/>
+      <c r="V19" s="446"/>
+      <c r="W19" s="444"/>
+      <c r="X19" s="445"/>
+      <c r="Y19" s="446"/>
+      <c r="Z19" s="444"/>
+      <c r="AA19" s="445"/>
+      <c r="AB19" s="446"/>
+      <c r="AC19" s="444"/>
+      <c r="AD19" s="445"/>
+      <c r="AE19" s="446"/>
+      <c r="AF19" s="444"/>
+      <c r="AG19" s="445"/>
+      <c r="AH19" s="446"/>
       <c r="AI19" s="47"/>
       <c r="AJ19" s="46"/>
       <c r="AK19" s="46"/>
@@ -15380,22 +15344,22 @@
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
-      <c r="T21" s="315">
+      <c r="T21" s="431">
         <v>223763</v>
       </c>
-      <c r="U21" s="316"/>
-      <c r="V21" s="317"/>
-      <c r="W21" s="318">
+      <c r="U21" s="432"/>
+      <c r="V21" s="433"/>
+      <c r="W21" s="422">
         <v>327439.09999999998</v>
       </c>
-      <c r="X21" s="319"/>
-      <c r="Y21" s="320"/>
-      <c r="Z21" s="321"/>
-      <c r="AA21" s="322"/>
-      <c r="AB21" s="323"/>
-      <c r="AC21" s="324"/>
-      <c r="AD21" s="325"/>
-      <c r="AE21" s="326"/>
+      <c r="X21" s="423"/>
+      <c r="Y21" s="424"/>
+      <c r="Z21" s="441"/>
+      <c r="AA21" s="442"/>
+      <c r="AB21" s="443"/>
+      <c r="AC21" s="404"/>
+      <c r="AD21" s="405"/>
+      <c r="AE21" s="406"/>
       <c r="AF21" s="38"/>
       <c r="AG21" s="38"/>
       <c r="AH21" s="38"/>
@@ -15498,22 +15462,22 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="327">
+      <c r="T23" s="401">
         <v>26.18</v>
       </c>
-      <c r="U23" s="328"/>
-      <c r="V23" s="329"/>
-      <c r="W23" s="318">
+      <c r="U23" s="402"/>
+      <c r="V23" s="403"/>
+      <c r="W23" s="422">
         <v>499.4</v>
       </c>
-      <c r="X23" s="319"/>
-      <c r="Y23" s="320"/>
-      <c r="Z23" s="330"/>
-      <c r="AA23" s="331"/>
-      <c r="AB23" s="332"/>
-      <c r="AC23" s="333"/>
-      <c r="AD23" s="334"/>
-      <c r="AE23" s="335"/>
+      <c r="X23" s="423"/>
+      <c r="Y23" s="424"/>
+      <c r="Z23" s="425"/>
+      <c r="AA23" s="426"/>
+      <c r="AB23" s="427"/>
+      <c r="AC23" s="410"/>
+      <c r="AD23" s="411"/>
+      <c r="AE23" s="412"/>
       <c r="AF23" s="46"/>
       <c r="AG23" s="46"/>
       <c r="AH23" s="46"/>
@@ -15559,22 +15523,22 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="327">
+      <c r="T24" s="401">
         <v>20.56</v>
       </c>
-      <c r="U24" s="328"/>
-      <c r="V24" s="329"/>
-      <c r="W24" s="318">
+      <c r="U24" s="402"/>
+      <c r="V24" s="403"/>
+      <c r="W24" s="422">
         <v>84.8</v>
       </c>
-      <c r="X24" s="319"/>
-      <c r="Y24" s="320"/>
-      <c r="Z24" s="330"/>
-      <c r="AA24" s="331"/>
-      <c r="AB24" s="332"/>
-      <c r="AC24" s="333"/>
-      <c r="AD24" s="334"/>
-      <c r="AE24" s="335"/>
+      <c r="X24" s="423"/>
+      <c r="Y24" s="424"/>
+      <c r="Z24" s="425"/>
+      <c r="AA24" s="426"/>
+      <c r="AB24" s="427"/>
+      <c r="AC24" s="410"/>
+      <c r="AD24" s="411"/>
+      <c r="AE24" s="412"/>
       <c r="AF24" s="46"/>
       <c r="AG24" s="46"/>
       <c r="AH24" s="46"/>
@@ -15586,11 +15550,11 @@
       <c r="AN24" s="10"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
-      <c r="AQ24" s="383" t="s">
+      <c r="AQ24" s="358" t="s">
         <v>314</v>
       </c>
-      <c r="AR24" s="384"/>
-      <c r="AS24" s="385"/>
+      <c r="AR24" s="359"/>
+      <c r="AS24" s="360"/>
       <c r="AT24" s="9"/>
       <c r="AU24" s="9"/>
       <c r="AV24" s="9"/>
@@ -15645,10 +15609,10 @@
       <c r="AN25" s="10"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="60"/>
-      <c r="AQ25" s="390" t="s">
+      <c r="AQ25" s="376" t="s">
         <v>315</v>
       </c>
-      <c r="AR25" s="391"/>
+      <c r="AR25" s="377"/>
       <c r="AS25" s="264">
         <v>0.55924644749270025</v>
       </c>
@@ -15706,10 +15670,10 @@
       <c r="AN26" s="10"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="60"/>
-      <c r="AQ26" s="386" t="s">
+      <c r="AQ26" s="361" t="s">
         <v>316</v>
       </c>
-      <c r="AR26" s="387"/>
+      <c r="AR26" s="362"/>
       <c r="AS26" s="259">
         <v>11571935.651680376</v>
       </c>
@@ -15753,9 +15717,9 @@
       <c r="Z27" s="55"/>
       <c r="AA27" s="61"/>
       <c r="AB27" s="57"/>
-      <c r="AC27" s="336"/>
-      <c r="AD27" s="337"/>
-      <c r="AE27" s="338"/>
+      <c r="AC27" s="428"/>
+      <c r="AD27" s="429"/>
+      <c r="AE27" s="430"/>
       <c r="AF27" s="46"/>
       <c r="AG27" s="46"/>
       <c r="AH27" s="46"/>
@@ -15767,10 +15731,10 @@
       <c r="AN27" s="10"/>
       <c r="AO27" s="9"/>
       <c r="AP27" s="60"/>
-      <c r="AQ27" s="386" t="s">
+      <c r="AQ27" s="361" t="s">
         <v>317</v>
       </c>
-      <c r="AR27" s="387"/>
+      <c r="AR27" s="362"/>
       <c r="AS27" s="263">
         <v>2.7877223340368249</v>
       </c>
@@ -15828,10 +15792,10 @@
       <c r="AN28" s="10"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="60"/>
-      <c r="AQ28" s="386" t="s">
+      <c r="AQ28" s="361" t="s">
         <v>318</v>
       </c>
-      <c r="AR28" s="387"/>
+      <c r="AR28" s="362"/>
       <c r="AS28" s="263">
         <v>8.2211350785256571E-2</v>
       </c>
@@ -15866,22 +15830,22 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
-      <c r="T29" s="315">
+      <c r="T29" s="431">
         <v>10407</v>
       </c>
-      <c r="U29" s="316"/>
-      <c r="V29" s="317"/>
-      <c r="W29" s="318">
+      <c r="U29" s="432"/>
+      <c r="V29" s="433"/>
+      <c r="W29" s="422">
         <v>0</v>
       </c>
-      <c r="X29" s="319"/>
-      <c r="Y29" s="320"/>
-      <c r="Z29" s="330"/>
-      <c r="AA29" s="331"/>
-      <c r="AB29" s="332"/>
-      <c r="AC29" s="333"/>
-      <c r="AD29" s="334"/>
-      <c r="AE29" s="335"/>
+      <c r="X29" s="423"/>
+      <c r="Y29" s="424"/>
+      <c r="Z29" s="425"/>
+      <c r="AA29" s="426"/>
+      <c r="AB29" s="427"/>
+      <c r="AC29" s="410"/>
+      <c r="AD29" s="411"/>
+      <c r="AE29" s="412"/>
       <c r="AF29" s="46"/>
       <c r="AG29" s="46"/>
       <c r="AH29" s="46"/>
@@ -15893,10 +15857,10 @@
       <c r="AN29" s="10"/>
       <c r="AO29" s="9"/>
       <c r="AP29" s="60"/>
-      <c r="AQ29" s="386" t="s">
+      <c r="AQ29" s="361" t="s">
         <v>319</v>
       </c>
-      <c r="AR29" s="387"/>
+      <c r="AR29" s="362"/>
       <c r="AS29" s="263">
         <v>8.4008093181763428</v>
       </c>
@@ -15954,10 +15918,10 @@
       <c r="AN30" s="10"/>
       <c r="AO30" s="9"/>
       <c r="AP30" s="60"/>
-      <c r="AQ30" s="386" t="s">
+      <c r="AQ30" s="361" t="s">
         <v>320</v>
       </c>
-      <c r="AR30" s="387"/>
+      <c r="AR30" s="362"/>
       <c r="AS30" s="263">
         <v>4.9833078267952313</v>
       </c>
@@ -15992,22 +15956,22 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="327">
+      <c r="T31" s="401">
         <v>105.923</v>
       </c>
-      <c r="U31" s="328"/>
-      <c r="V31" s="329"/>
-      <c r="W31" s="318">
+      <c r="U31" s="402"/>
+      <c r="V31" s="403"/>
+      <c r="W31" s="422">
         <v>499.5</v>
       </c>
-      <c r="X31" s="319"/>
-      <c r="Y31" s="320"/>
-      <c r="Z31" s="330"/>
-      <c r="AA31" s="331"/>
-      <c r="AB31" s="332"/>
-      <c r="AC31" s="333"/>
-      <c r="AD31" s="334"/>
-      <c r="AE31" s="335"/>
+      <c r="X31" s="423"/>
+      <c r="Y31" s="424"/>
+      <c r="Z31" s="425"/>
+      <c r="AA31" s="426"/>
+      <c r="AB31" s="427"/>
+      <c r="AC31" s="410"/>
+      <c r="AD31" s="411"/>
+      <c r="AE31" s="412"/>
       <c r="AF31" s="47"/>
       <c r="AG31" s="46"/>
       <c r="AH31" s="46"/>
@@ -16019,8 +15983,8 @@
       <c r="AN31" s="10"/>
       <c r="AO31" s="9"/>
       <c r="AP31" s="60"/>
-      <c r="AQ31" s="388"/>
-      <c r="AR31" s="389"/>
+      <c r="AQ31" s="363"/>
+      <c r="AR31" s="364"/>
       <c r="AS31" s="261"/>
       <c r="AT31" s="60"/>
       <c r="AU31" s="60"/>
@@ -16053,22 +16017,22 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="327">
+      <c r="T32" s="401">
         <v>143.01</v>
       </c>
-      <c r="U32" s="328"/>
-      <c r="V32" s="329"/>
-      <c r="W32" s="318">
+      <c r="U32" s="402"/>
+      <c r="V32" s="403"/>
+      <c r="W32" s="422">
         <v>84.899999999999991</v>
       </c>
-      <c r="X32" s="319"/>
-      <c r="Y32" s="320"/>
-      <c r="Z32" s="330"/>
-      <c r="AA32" s="331"/>
-      <c r="AB32" s="332"/>
-      <c r="AC32" s="333"/>
-      <c r="AD32" s="334"/>
-      <c r="AE32" s="335"/>
+      <c r="X32" s="423"/>
+      <c r="Y32" s="424"/>
+      <c r="Z32" s="425"/>
+      <c r="AA32" s="426"/>
+      <c r="AB32" s="427"/>
+      <c r="AC32" s="410"/>
+      <c r="AD32" s="411"/>
+      <c r="AE32" s="412"/>
       <c r="AF32" s="47"/>
       <c r="AG32" s="46"/>
       <c r="AH32" s="46"/>
@@ -16080,10 +16044,10 @@
       <c r="AN32" s="10"/>
       <c r="AO32" s="9"/>
       <c r="AP32" s="60"/>
-      <c r="AQ32" s="386" t="s">
+      <c r="AQ32" s="361" t="s">
         <v>321</v>
       </c>
-      <c r="AR32" s="387"/>
+      <c r="AR32" s="362"/>
       <c r="AS32" s="260">
         <v>0.84289488128800871</v>
       </c>
@@ -16141,10 +16105,10 @@
       <c r="AN33" s="10"/>
       <c r="AO33" s="9"/>
       <c r="AP33" s="60"/>
-      <c r="AQ33" s="306" t="s">
+      <c r="AQ33" s="365" t="s">
         <v>335</v>
       </c>
-      <c r="AR33" s="307"/>
+      <c r="AR33" s="366"/>
       <c r="AS33" s="262">
         <v>15174.936211012813</v>
       </c>
@@ -16204,10 +16168,10 @@
       <c r="AN34" s="10"/>
       <c r="AO34" s="9"/>
       <c r="AP34" s="60"/>
-      <c r="AQ34" s="306" t="s">
+      <c r="AQ34" s="365" t="s">
         <v>355</v>
       </c>
-      <c r="AR34" s="307"/>
+      <c r="AR34" s="366"/>
       <c r="AS34" s="262">
         <v>10418.636490360617</v>
       </c>
@@ -16244,22 +16208,22 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="327">
+      <c r="T35" s="401">
         <v>15500</v>
       </c>
-      <c r="U35" s="328"/>
-      <c r="V35" s="329"/>
-      <c r="W35" s="318">
+      <c r="U35" s="402"/>
+      <c r="V35" s="403"/>
+      <c r="W35" s="422">
         <v>0.1</v>
       </c>
-      <c r="X35" s="319"/>
-      <c r="Y35" s="320"/>
-      <c r="Z35" s="330"/>
-      <c r="AA35" s="331"/>
-      <c r="AB35" s="332"/>
-      <c r="AC35" s="333"/>
-      <c r="AD35" s="334"/>
-      <c r="AE35" s="335"/>
+      <c r="X35" s="423"/>
+      <c r="Y35" s="424"/>
+      <c r="Z35" s="425"/>
+      <c r="AA35" s="426"/>
+      <c r="AB35" s="427"/>
+      <c r="AC35" s="410"/>
+      <c r="AD35" s="411"/>
+      <c r="AE35" s="412"/>
       <c r="AF35" s="12"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
@@ -16305,14 +16269,14 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="339">
+      <c r="T36" s="419">
         <v>15610</v>
       </c>
-      <c r="U36" s="340"/>
-      <c r="V36" s="340"/>
-      <c r="W36" s="340"/>
-      <c r="X36" s="340"/>
-      <c r="Y36" s="341"/>
+      <c r="U36" s="420"/>
+      <c r="V36" s="420"/>
+      <c r="W36" s="420"/>
+      <c r="X36" s="420"/>
+      <c r="Y36" s="421"/>
       <c r="Z36" s="66"/>
       <c r="AA36" s="58"/>
       <c r="AB36" s="58"/>
@@ -16329,13 +16293,13 @@
       <c r="AM36" s="48"/>
       <c r="AN36" s="10"/>
       <c r="AO36" s="9"/>
-      <c r="AP36" s="297" t="s">
+      <c r="AP36" s="447" t="s">
         <v>364</v>
       </c>
-      <c r="AQ36" s="298"/>
-      <c r="AR36" s="298"/>
-      <c r="AS36" s="299"/>
-      <c r="AT36" s="300" t="s">
+      <c r="AQ36" s="448"/>
+      <c r="AR36" s="448"/>
+      <c r="AS36" s="449"/>
+      <c r="AT36" s="450" t="s">
         <v>365</v>
       </c>
       <c r="AU36" s="60"/>
@@ -16393,14 +16357,14 @@
       <c r="AP37" s="276" t="s">
         <v>366</v>
       </c>
-      <c r="AQ37" s="301" t="s">
+      <c r="AQ37" s="451" t="s">
         <v>367</v>
       </c>
-      <c r="AR37" s="301"/>
+      <c r="AR37" s="451"/>
       <c r="AS37" s="277" t="s">
         <v>368</v>
       </c>
-      <c r="AT37" s="300"/>
+      <c r="AT37" s="450"/>
       <c r="AU37" s="60"/>
       <c r="AV37" s="60"/>
       <c r="AW37" s="9"/>
@@ -16431,14 +16395,14 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
-      <c r="T38" s="327">
+      <c r="T38" s="401">
         <v>9394</v>
       </c>
-      <c r="U38" s="328"/>
-      <c r="V38" s="328"/>
-      <c r="W38" s="328"/>
-      <c r="X38" s="328"/>
-      <c r="Y38" s="329"/>
+      <c r="U38" s="402"/>
+      <c r="V38" s="402"/>
+      <c r="W38" s="402"/>
+      <c r="X38" s="402"/>
+      <c r="Y38" s="403"/>
       <c r="Z38" s="66"/>
       <c r="AA38" s="58"/>
       <c r="AB38" s="58"/>
@@ -16458,14 +16422,14 @@
       <c r="AP38" s="278" t="s">
         <v>326</v>
       </c>
-      <c r="AQ38" s="302" t="s">
+      <c r="AQ38" s="452" t="s">
         <v>369</v>
       </c>
-      <c r="AR38" s="302"/>
+      <c r="AR38" s="452"/>
       <c r="AS38" s="279" t="s">
         <v>67</v>
       </c>
-      <c r="AT38" s="300"/>
+      <c r="AT38" s="450"/>
       <c r="AU38" s="60"/>
       <c r="AV38" s="60"/>
       <c r="AW38" s="9"/>
@@ -16518,17 +16482,17 @@
       <c r="AM39" s="39"/>
       <c r="AN39" s="10"/>
       <c r="AO39" s="9"/>
-      <c r="AP39" s="479">
-        <v>8943</v>
-      </c>
-      <c r="AQ39" s="482">
-        <v>223.71</v>
-      </c>
-      <c r="AR39" s="482"/>
+      <c r="AP39" s="306">
+        <v>8000</v>
+      </c>
+      <c r="AQ39" s="454">
+        <v>230</v>
+      </c>
+      <c r="AR39" s="455"/>
       <c r="AS39" s="280">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="AT39" s="300"/>
+        <v>0.83</v>
+      </c>
+      <c r="AT39" s="450"/>
       <c r="AU39" s="9"/>
       <c r="AV39" s="9"/>
       <c r="AW39" s="9"/>
@@ -16559,22 +16523,22 @@
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="327">
+      <c r="T40" s="401">
         <v>205580</v>
       </c>
-      <c r="U40" s="328"/>
-      <c r="V40" s="329"/>
-      <c r="W40" s="324">
+      <c r="U40" s="402"/>
+      <c r="V40" s="403"/>
+      <c r="W40" s="404">
         <v>0</v>
       </c>
-      <c r="X40" s="325"/>
-      <c r="Y40" s="326"/>
-      <c r="Z40" s="348"/>
-      <c r="AA40" s="349"/>
-      <c r="AB40" s="350"/>
-      <c r="AC40" s="333"/>
-      <c r="AD40" s="334"/>
-      <c r="AE40" s="335"/>
+      <c r="X40" s="405"/>
+      <c r="Y40" s="406"/>
+      <c r="Z40" s="407"/>
+      <c r="AA40" s="408"/>
+      <c r="AB40" s="409"/>
+      <c r="AC40" s="410"/>
+      <c r="AD40" s="411"/>
+      <c r="AE40" s="412"/>
       <c r="AF40" s="46"/>
       <c r="AG40" s="46"/>
       <c r="AH40" s="46"/>
@@ -16585,17 +16549,17 @@
       <c r="AM40" s="48"/>
       <c r="AN40" s="10"/>
       <c r="AO40" s="9"/>
-      <c r="AP40" s="479">
-        <v>9911</v>
-      </c>
-      <c r="AQ40" s="482">
-        <v>213.53</v>
-      </c>
-      <c r="AR40" s="482"/>
+      <c r="AP40" s="306">
+        <v>9000</v>
+      </c>
+      <c r="AQ40" s="454">
+        <v>220</v>
+      </c>
+      <c r="AR40" s="455"/>
       <c r="AS40" s="280">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="AT40" s="300"/>
+        <v>0.82</v>
+      </c>
+      <c r="AT40" s="450"/>
       <c r="AU40" s="9"/>
       <c r="AV40" s="9"/>
       <c r="AW40" s="9"/>
@@ -16626,22 +16590,22 @@
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
-      <c r="T41" s="351">
+      <c r="T41" s="413">
         <v>0.83199999999999996</v>
       </c>
-      <c r="U41" s="352"/>
-      <c r="V41" s="353"/>
-      <c r="W41" s="324">
+      <c r="U41" s="414"/>
+      <c r="V41" s="415"/>
+      <c r="W41" s="404">
         <v>0</v>
       </c>
-      <c r="X41" s="325"/>
-      <c r="Y41" s="326"/>
-      <c r="Z41" s="354"/>
-      <c r="AA41" s="355"/>
-      <c r="AB41" s="356"/>
-      <c r="AC41" s="333"/>
-      <c r="AD41" s="334"/>
-      <c r="AE41" s="335"/>
+      <c r="X41" s="405"/>
+      <c r="Y41" s="406"/>
+      <c r="Z41" s="416"/>
+      <c r="AA41" s="417"/>
+      <c r="AB41" s="418"/>
+      <c r="AC41" s="410"/>
+      <c r="AD41" s="411"/>
+      <c r="AE41" s="412"/>
       <c r="AF41" s="46"/>
       <c r="AG41" s="46"/>
       <c r="AH41" s="46"/>
@@ -16652,17 +16616,17 @@
       <c r="AM41" s="48"/>
       <c r="AN41" s="10"/>
       <c r="AO41" s="9"/>
-      <c r="AP41" s="479">
+      <c r="AP41" s="306">
         <v>10418.636490360617</v>
       </c>
-      <c r="AQ41" s="480">
+      <c r="AQ41" s="454">
         <v>205.78537918281884</v>
       </c>
-      <c r="AR41" s="481"/>
+      <c r="AR41" s="455"/>
       <c r="AS41" s="280">
         <v>0.84289488128800871</v>
       </c>
-      <c r="AT41" s="300"/>
+      <c r="AT41" s="450"/>
       <c r="AU41" s="9"/>
       <c r="AV41" s="9"/>
       <c r="AW41" s="9"/>
@@ -16715,11 +16679,11 @@
       <c r="AM42" s="73"/>
       <c r="AN42" s="10"/>
       <c r="AO42" s="9"/>
-      <c r="AP42" s="479"/>
-      <c r="AQ42" s="482"/>
-      <c r="AR42" s="482"/>
+      <c r="AP42" s="306"/>
+      <c r="AQ42" s="453"/>
+      <c r="AR42" s="453"/>
       <c r="AS42" s="280"/>
-      <c r="AT42" s="300"/>
+      <c r="AT42" s="450"/>
       <c r="AU42" s="9"/>
       <c r="AV42" s="9"/>
       <c r="AW42" s="9"/>
@@ -16772,11 +16736,11 @@
       <c r="AM43" s="48"/>
       <c r="AN43" s="10"/>
       <c r="AO43" s="9"/>
-      <c r="AP43" s="479"/>
-      <c r="AQ43" s="482"/>
-      <c r="AR43" s="482"/>
+      <c r="AP43" s="306"/>
+      <c r="AQ43" s="453"/>
+      <c r="AR43" s="453"/>
       <c r="AS43" s="280"/>
-      <c r="AT43" s="300"/>
+      <c r="AT43" s="450"/>
       <c r="AU43" s="9"/>
       <c r="AV43" s="9"/>
       <c r="AW43" s="9"/>
@@ -16829,11 +16793,11 @@
       <c r="AM44" s="39"/>
       <c r="AN44" s="10"/>
       <c r="AO44" s="9"/>
-      <c r="AP44" s="479"/>
-      <c r="AQ44" s="482"/>
-      <c r="AR44" s="482"/>
+      <c r="AP44" s="306"/>
+      <c r="AQ44" s="453"/>
+      <c r="AR44" s="453"/>
       <c r="AS44" s="280"/>
-      <c r="AT44" s="300"/>
+      <c r="AT44" s="450"/>
       <c r="AU44" s="9"/>
       <c r="AV44" s="9"/>
       <c r="AW44" s="9"/>
@@ -16886,11 +16850,11 @@
       <c r="AM45" s="33"/>
       <c r="AN45" s="10"/>
       <c r="AO45" s="9"/>
-      <c r="AP45" s="479"/>
-      <c r="AQ45" s="482"/>
-      <c r="AR45" s="482"/>
+      <c r="AP45" s="306"/>
+      <c r="AQ45" s="453"/>
+      <c r="AR45" s="453"/>
       <c r="AS45" s="280"/>
-      <c r="AT45" s="300"/>
+      <c r="AT45" s="450"/>
       <c r="AU45" s="9"/>
       <c r="AV45" s="9"/>
       <c r="AW45" s="9"/>
@@ -16953,11 +16917,11 @@
       <c r="AM46" s="33"/>
       <c r="AN46" s="10"/>
       <c r="AO46" s="9"/>
-      <c r="AP46" s="483"/>
-      <c r="AQ46" s="484"/>
-      <c r="AR46" s="484"/>
-      <c r="AS46" s="485"/>
-      <c r="AT46" s="300"/>
+      <c r="AP46" s="307"/>
+      <c r="AQ46" s="456"/>
+      <c r="AR46" s="456"/>
+      <c r="AS46" s="308"/>
+      <c r="AT46" s="450"/>
       <c r="AU46" s="9"/>
       <c r="AV46" s="9"/>
       <c r="AW46" s="9"/>
@@ -17915,27 +17879,27 @@
       </c>
       <c r="U61" s="91"/>
       <c r="V61" s="91"/>
-      <c r="W61" s="342">
+      <c r="W61" s="395">
         <v>0</v>
       </c>
-      <c r="X61" s="342"/>
-      <c r="Y61" s="342"/>
-      <c r="Z61" s="342"/>
-      <c r="AA61" s="342"/>
+      <c r="X61" s="395"/>
+      <c r="Y61" s="395"/>
+      <c r="Z61" s="395"/>
+      <c r="AA61" s="395"/>
       <c r="AB61" s="92" t="s">
         <v>2</v>
       </c>
       <c r="AC61" s="92"/>
       <c r="AD61" s="92"/>
-      <c r="AE61" s="342" t="s">
+      <c r="AE61" s="395" t="s">
         <v>84</v>
       </c>
-      <c r="AF61" s="342"/>
-      <c r="AG61" s="342"/>
-      <c r="AH61" s="342"/>
-      <c r="AI61" s="342"/>
-      <c r="AJ61" s="342"/>
-      <c r="AK61" s="342"/>
+      <c r="AF61" s="395"/>
+      <c r="AG61" s="395"/>
+      <c r="AH61" s="395"/>
+      <c r="AI61" s="395"/>
+      <c r="AJ61" s="395"/>
+      <c r="AK61" s="395"/>
       <c r="AL61" s="10"/>
       <c r="AM61" s="90"/>
       <c r="AN61" s="10"/>
@@ -17978,26 +17942,26 @@
       <c r="U62" s="91"/>
       <c r="V62" s="91"/>
       <c r="W62" s="92"/>
-      <c r="X62" s="343" t="s">
+      <c r="X62" s="396" t="s">
         <v>84</v>
       </c>
-      <c r="Y62" s="343"/>
-      <c r="Z62" s="343"/>
-      <c r="AA62" s="343"/>
+      <c r="Y62" s="396"/>
+      <c r="Z62" s="396"/>
+      <c r="AA62" s="396"/>
       <c r="AB62" s="97" t="s">
         <v>7</v>
       </c>
       <c r="AC62" s="97"/>
-      <c r="AD62" s="342" t="s">
+      <c r="AD62" s="395" t="s">
         <v>84</v>
       </c>
-      <c r="AE62" s="342"/>
-      <c r="AF62" s="342"/>
-      <c r="AG62" s="342"/>
-      <c r="AH62" s="342"/>
-      <c r="AI62" s="342"/>
-      <c r="AJ62" s="342"/>
-      <c r="AK62" s="342"/>
+      <c r="AE62" s="395"/>
+      <c r="AF62" s="395"/>
+      <c r="AG62" s="395"/>
+      <c r="AH62" s="395"/>
+      <c r="AI62" s="395"/>
+      <c r="AJ62" s="395"/>
+      <c r="AK62" s="395"/>
       <c r="AL62" s="10"/>
       <c r="AM62" s="90"/>
       <c r="AN62" s="10"/>
@@ -18214,14 +18178,14 @@
       <c r="H66" s="87"/>
       <c r="I66" s="87"/>
       <c r="J66" s="87"/>
-      <c r="K66" s="344" t="s">
+      <c r="K66" s="397" t="s">
         <v>89</v>
       </c>
-      <c r="L66" s="345"/>
-      <c r="M66" s="345"/>
-      <c r="N66" s="345"/>
-      <c r="O66" s="345"/>
-      <c r="P66" s="345"/>
+      <c r="L66" s="398"/>
+      <c r="M66" s="398"/>
+      <c r="N66" s="398"/>
+      <c r="O66" s="398"/>
+      <c r="P66" s="398"/>
       <c r="Q66" s="225" t="s">
         <v>90</v>
       </c>
@@ -18306,17 +18270,17 @@
         <v>95</v>
       </c>
       <c r="AC67" s="116"/>
-      <c r="AD67" s="346" t="s">
+      <c r="AD67" s="399" t="s">
         <v>96</v>
       </c>
-      <c r="AE67" s="347"/>
-      <c r="AF67" s="347"/>
-      <c r="AG67" s="347"/>
-      <c r="AH67" s="347"/>
-      <c r="AI67" s="347"/>
-      <c r="AJ67" s="347"/>
-      <c r="AK67" s="347"/>
-      <c r="AL67" s="347"/>
+      <c r="AE67" s="400"/>
+      <c r="AF67" s="400"/>
+      <c r="AG67" s="400"/>
+      <c r="AH67" s="400"/>
+      <c r="AI67" s="400"/>
+      <c r="AJ67" s="400"/>
+      <c r="AK67" s="400"/>
+      <c r="AL67" s="400"/>
       <c r="AM67" s="117"/>
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
@@ -18392,27 +18356,27 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B69" s="357" t="s">
+      <c r="B69" s="370" t="s">
         <v>300</v>
       </c>
-      <c r="C69" s="358"/>
-      <c r="D69" s="358"/>
-      <c r="E69" s="358"/>
-      <c r="F69" s="358"/>
-      <c r="G69" s="359"/>
+      <c r="C69" s="371"/>
+      <c r="D69" s="371"/>
+      <c r="E69" s="371"/>
+      <c r="F69" s="371"/>
+      <c r="G69" s="372"/>
       <c r="H69" s="235"/>
       <c r="I69" s="236"/>
       <c r="J69" s="231"/>
-      <c r="K69" s="360">
+      <c r="K69" s="367">
         <v>0.85729999999999995</v>
       </c>
-      <c r="L69" s="361"/>
-      <c r="M69" s="362"/>
-      <c r="N69" s="363">
+      <c r="L69" s="368"/>
+      <c r="M69" s="369"/>
+      <c r="N69" s="373">
         <v>0.73660000000000003</v>
       </c>
-      <c r="O69" s="364"/>
-      <c r="P69" s="365"/>
+      <c r="O69" s="374"/>
+      <c r="P69" s="375"/>
       <c r="Q69" s="120"/>
       <c r="R69" s="119"/>
       <c r="S69" s="119"/>
@@ -18453,27 +18417,27 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B70" s="357" t="s">
+      <c r="B70" s="370" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="358"/>
-      <c r="D70" s="358"/>
-      <c r="E70" s="358"/>
-      <c r="F70" s="358"/>
-      <c r="G70" s="359"/>
+      <c r="C70" s="371"/>
+      <c r="D70" s="371"/>
+      <c r="E70" s="371"/>
+      <c r="F70" s="371"/>
+      <c r="G70" s="372"/>
       <c r="H70" s="235"/>
       <c r="I70" s="236"/>
       <c r="J70" s="231"/>
-      <c r="K70" s="360">
+      <c r="K70" s="367">
         <v>0.1057</v>
       </c>
-      <c r="L70" s="361"/>
-      <c r="M70" s="362"/>
-      <c r="N70" s="363">
+      <c r="L70" s="368"/>
+      <c r="M70" s="369"/>
+      <c r="N70" s="373">
         <v>0.11527</v>
       </c>
-      <c r="O70" s="364"/>
-      <c r="P70" s="365"/>
+      <c r="O70" s="374"/>
+      <c r="P70" s="375"/>
       <c r="Q70" s="120"/>
       <c r="R70" s="119"/>
       <c r="S70" s="119"/>
@@ -18514,27 +18478,27 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B71" s="357" t="s">
+      <c r="B71" s="370" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="358"/>
-      <c r="D71" s="358"/>
-      <c r="E71" s="358"/>
-      <c r="F71" s="358"/>
-      <c r="G71" s="359"/>
+      <c r="C71" s="371"/>
+      <c r="D71" s="371"/>
+      <c r="E71" s="371"/>
+      <c r="F71" s="371"/>
+      <c r="G71" s="372"/>
       <c r="H71" s="235"/>
       <c r="I71" s="236"/>
       <c r="J71" s="231"/>
-      <c r="K71" s="360">
+      <c r="K71" s="367">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="L71" s="361"/>
-      <c r="M71" s="362"/>
-      <c r="N71" s="363">
+      <c r="L71" s="368"/>
+      <c r="M71" s="369"/>
+      <c r="N71" s="373">
         <v>7.3779999999999998E-2</v>
       </c>
-      <c r="O71" s="364"/>
-      <c r="P71" s="365"/>
+      <c r="O71" s="374"/>
+      <c r="P71" s="375"/>
       <c r="Q71" s="120"/>
       <c r="R71" s="119"/>
       <c r="S71" s="119"/>
@@ -18575,27 +18539,27 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B72" s="357" t="s">
+      <c r="B72" s="370" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="358"/>
-      <c r="D72" s="358"/>
-      <c r="E72" s="358"/>
-      <c r="F72" s="358"/>
-      <c r="G72" s="359"/>
+      <c r="C72" s="371"/>
+      <c r="D72" s="371"/>
+      <c r="E72" s="371"/>
+      <c r="F72" s="371"/>
+      <c r="G72" s="372"/>
       <c r="H72" s="235"/>
       <c r="I72" s="236"/>
       <c r="J72" s="231"/>
-      <c r="K72" s="360">
+      <c r="K72" s="367">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L72" s="361"/>
-      <c r="M72" s="362"/>
-      <c r="N72" s="363">
+      <c r="L72" s="368"/>
+      <c r="M72" s="369"/>
+      <c r="N72" s="373">
         <v>1.8689999999999998E-2</v>
       </c>
-      <c r="O72" s="364"/>
-      <c r="P72" s="365"/>
+      <c r="O72" s="374"/>
+      <c r="P72" s="375"/>
       <c r="Q72" s="120"/>
       <c r="R72" s="119"/>
       <c r="S72" s="119"/>
@@ -18636,27 +18600,27 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B73" s="357" t="s">
+      <c r="B73" s="370" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="358"/>
-      <c r="D73" s="358"/>
-      <c r="E73" s="358"/>
-      <c r="F73" s="358"/>
-      <c r="G73" s="359"/>
+      <c r="C73" s="371"/>
+      <c r="D73" s="371"/>
+      <c r="E73" s="371"/>
+      <c r="F73" s="371"/>
+      <c r="G73" s="372"/>
       <c r="H73" s="235"/>
       <c r="I73" s="236"/>
       <c r="J73" s="231"/>
-      <c r="K73" s="360">
+      <c r="K73" s="367">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="L73" s="361"/>
-      <c r="M73" s="362"/>
-      <c r="N73" s="363">
+      <c r="L73" s="368"/>
+      <c r="M73" s="369"/>
+      <c r="N73" s="373">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="O73" s="364"/>
-      <c r="P73" s="365"/>
+      <c r="O73" s="374"/>
+      <c r="P73" s="375"/>
       <c r="Q73" s="120"/>
       <c r="R73" s="119"/>
       <c r="S73" s="119"/>
@@ -18697,27 +18661,27 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B74" s="357" t="s">
+      <c r="B74" s="370" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="358"/>
-      <c r="D74" s="358"/>
-      <c r="E74" s="358"/>
-      <c r="F74" s="358"/>
-      <c r="G74" s="359"/>
+      <c r="C74" s="371"/>
+      <c r="D74" s="371"/>
+      <c r="E74" s="371"/>
+      <c r="F74" s="371"/>
+      <c r="G74" s="372"/>
       <c r="H74" s="235"/>
       <c r="I74" s="236"/>
       <c r="J74" s="231"/>
-      <c r="K74" s="360">
+      <c r="K74" s="367">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="L74" s="361"/>
-      <c r="M74" s="362"/>
-      <c r="N74" s="363">
+      <c r="L74" s="368"/>
+      <c r="M74" s="369"/>
+      <c r="N74" s="373">
         <v>3.3E-3</v>
       </c>
-      <c r="O74" s="364"/>
-      <c r="P74" s="365"/>
+      <c r="O74" s="374"/>
+      <c r="P74" s="375"/>
       <c r="Q74" s="120"/>
       <c r="R74" s="119"/>
       <c r="S74" s="119"/>
@@ -18758,27 +18722,27 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B75" s="357" t="s">
+      <c r="B75" s="370" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="358"/>
-      <c r="D75" s="358"/>
-      <c r="E75" s="358"/>
-      <c r="F75" s="358"/>
-      <c r="G75" s="359"/>
+      <c r="C75" s="371"/>
+      <c r="D75" s="371"/>
+      <c r="E75" s="371"/>
+      <c r="F75" s="371"/>
+      <c r="G75" s="372"/>
       <c r="H75" s="235"/>
       <c r="I75" s="236"/>
       <c r="J75" s="231"/>
-      <c r="K75" s="360">
+      <c r="K75" s="367">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="L75" s="361"/>
-      <c r="M75" s="362"/>
-      <c r="N75" s="363">
+      <c r="L75" s="368"/>
+      <c r="M75" s="369"/>
+      <c r="N75" s="373">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="O75" s="364"/>
-      <c r="P75" s="365"/>
+      <c r="O75" s="374"/>
+      <c r="P75" s="375"/>
       <c r="Q75" s="118"/>
       <c r="R75" s="112"/>
       <c r="S75" s="112"/>
@@ -18821,27 +18785,27 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B76" s="357" t="s">
+      <c r="B76" s="370" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="358"/>
-      <c r="D76" s="358"/>
-      <c r="E76" s="358"/>
-      <c r="F76" s="358"/>
-      <c r="G76" s="359"/>
+      <c r="C76" s="371"/>
+      <c r="D76" s="371"/>
+      <c r="E76" s="371"/>
+      <c r="F76" s="371"/>
+      <c r="G76" s="372"/>
       <c r="H76" s="235"/>
       <c r="I76" s="236"/>
       <c r="J76" s="231"/>
-      <c r="K76" s="360">
+      <c r="K76" s="367">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L76" s="361"/>
-      <c r="M76" s="362"/>
-      <c r="N76" s="363">
+      <c r="L76" s="368"/>
+      <c r="M76" s="369"/>
+      <c r="N76" s="373">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="O76" s="364"/>
-      <c r="P76" s="365"/>
+      <c r="O76" s="374"/>
+      <c r="P76" s="375"/>
       <c r="Q76" s="118"/>
       <c r="R76" s="112"/>
       <c r="S76" s="112"/>
@@ -18884,27 +18848,27 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B77" s="357" t="s">
+      <c r="B77" s="370" t="s">
         <v>298</v>
       </c>
-      <c r="C77" s="358"/>
-      <c r="D77" s="358"/>
-      <c r="E77" s="358"/>
-      <c r="F77" s="358"/>
-      <c r="G77" s="359"/>
+      <c r="C77" s="371"/>
+      <c r="D77" s="371"/>
+      <c r="E77" s="371"/>
+      <c r="F77" s="371"/>
+      <c r="G77" s="372"/>
       <c r="H77" s="235"/>
       <c r="I77" s="236"/>
       <c r="J77" s="231"/>
-      <c r="K77" s="360">
+      <c r="K77" s="367">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="L77" s="361"/>
-      <c r="M77" s="362"/>
-      <c r="N77" s="363">
+      <c r="L77" s="368"/>
+      <c r="M77" s="369"/>
+      <c r="N77" s="373">
         <v>0</v>
       </c>
-      <c r="O77" s="364"/>
-      <c r="P77" s="365"/>
+      <c r="O77" s="374"/>
+      <c r="P77" s="375"/>
       <c r="Q77" s="118"/>
       <c r="R77" s="112"/>
       <c r="S77" s="112"/>
@@ -18945,27 +18909,27 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B78" s="357" t="s">
+      <c r="B78" s="370" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="358"/>
-      <c r="D78" s="358"/>
-      <c r="E78" s="358"/>
-      <c r="F78" s="358"/>
-      <c r="G78" s="359"/>
+      <c r="C78" s="371"/>
+      <c r="D78" s="371"/>
+      <c r="E78" s="371"/>
+      <c r="F78" s="371"/>
+      <c r="G78" s="372"/>
       <c r="H78" s="235"/>
       <c r="I78" s="236"/>
       <c r="J78" s="231"/>
-      <c r="K78" s="360">
+      <c r="K78" s="367">
         <v>0</v>
       </c>
-      <c r="L78" s="361"/>
-      <c r="M78" s="362"/>
-      <c r="N78" s="363">
+      <c r="L78" s="368"/>
+      <c r="M78" s="369"/>
+      <c r="N78" s="373">
         <v>0</v>
       </c>
-      <c r="O78" s="364"/>
-      <c r="P78" s="365"/>
+      <c r="O78" s="374"/>
+      <c r="P78" s="375"/>
       <c r="Q78" s="118"/>
       <c r="R78" s="112"/>
       <c r="S78" s="112"/>
@@ -19006,27 +18970,27 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B79" s="357" t="s">
+      <c r="B79" s="370" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="358"/>
-      <c r="D79" s="358"/>
-      <c r="E79" s="358"/>
-      <c r="F79" s="358"/>
-      <c r="G79" s="359"/>
+      <c r="C79" s="371"/>
+      <c r="D79" s="371"/>
+      <c r="E79" s="371"/>
+      <c r="F79" s="371"/>
+      <c r="G79" s="372"/>
       <c r="H79" s="235"/>
       <c r="I79" s="236"/>
       <c r="J79" s="231"/>
-      <c r="K79" s="360">
+      <c r="K79" s="367">
         <v>0</v>
       </c>
-      <c r="L79" s="361"/>
-      <c r="M79" s="362"/>
-      <c r="N79" s="363">
+      <c r="L79" s="368"/>
+      <c r="M79" s="369"/>
+      <c r="N79" s="373">
         <v>0</v>
       </c>
-      <c r="O79" s="364"/>
-      <c r="P79" s="365"/>
+      <c r="O79" s="374"/>
+      <c r="P79" s="375"/>
       <c r="Q79" s="118"/>
       <c r="R79" s="112"/>
       <c r="S79" s="112"/>
@@ -19067,27 +19031,27 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B80" s="357" t="s">
+      <c r="B80" s="370" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="358"/>
-      <c r="D80" s="358"/>
-      <c r="E80" s="358"/>
-      <c r="F80" s="358"/>
-      <c r="G80" s="359"/>
+      <c r="C80" s="371"/>
+      <c r="D80" s="371"/>
+      <c r="E80" s="371"/>
+      <c r="F80" s="371"/>
+      <c r="G80" s="372"/>
       <c r="H80" s="235"/>
       <c r="I80" s="236"/>
       <c r="J80" s="231"/>
-      <c r="K80" s="360">
+      <c r="K80" s="367">
         <v>0</v>
       </c>
-      <c r="L80" s="361"/>
-      <c r="M80" s="362"/>
-      <c r="N80" s="363">
+      <c r="L80" s="368"/>
+      <c r="M80" s="369"/>
+      <c r="N80" s="373">
         <v>0</v>
       </c>
-      <c r="O80" s="364"/>
-      <c r="P80" s="365"/>
+      <c r="O80" s="374"/>
+      <c r="P80" s="375"/>
       <c r="Q80" s="118"/>
       <c r="R80" s="112"/>
       <c r="S80" s="112"/>
@@ -19128,27 +19092,27 @@
         <f>A80+1</f>
         <v>17</v>
       </c>
-      <c r="B81" s="357" t="s">
+      <c r="B81" s="370" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="358"/>
-      <c r="D81" s="358"/>
-      <c r="E81" s="358"/>
-      <c r="F81" s="358"/>
-      <c r="G81" s="359"/>
+      <c r="C81" s="371"/>
+      <c r="D81" s="371"/>
+      <c r="E81" s="371"/>
+      <c r="F81" s="371"/>
+      <c r="G81" s="372"/>
       <c r="H81" s="235"/>
       <c r="I81" s="236"/>
       <c r="J81" s="231"/>
-      <c r="K81" s="360">
+      <c r="K81" s="367">
         <v>1E-4</v>
       </c>
-      <c r="L81" s="361"/>
-      <c r="M81" s="362"/>
-      <c r="N81" s="363">
+      <c r="L81" s="368"/>
+      <c r="M81" s="369"/>
+      <c r="N81" s="373">
         <v>0</v>
       </c>
-      <c r="O81" s="364"/>
-      <c r="P81" s="365"/>
+      <c r="O81" s="374"/>
+      <c r="P81" s="375"/>
       <c r="Q81" s="118"/>
       <c r="R81" s="112"/>
       <c r="S81" s="112"/>
@@ -19189,27 +19153,27 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B82" s="357" t="s">
+      <c r="B82" s="370" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="358"/>
-      <c r="D82" s="358"/>
-      <c r="E82" s="358"/>
-      <c r="F82" s="358"/>
-      <c r="G82" s="359"/>
+      <c r="C82" s="371"/>
+      <c r="D82" s="371"/>
+      <c r="E82" s="371"/>
+      <c r="F82" s="371"/>
+      <c r="G82" s="372"/>
       <c r="H82" s="235"/>
       <c r="I82" s="236"/>
       <c r="J82" s="231"/>
-      <c r="K82" s="360">
+      <c r="K82" s="367">
         <v>0</v>
       </c>
-      <c r="L82" s="361"/>
-      <c r="M82" s="362"/>
-      <c r="N82" s="363">
+      <c r="L82" s="368"/>
+      <c r="M82" s="369"/>
+      <c r="N82" s="373">
         <v>0</v>
       </c>
-      <c r="O82" s="364"/>
-      <c r="P82" s="365"/>
+      <c r="O82" s="374"/>
+      <c r="P82" s="375"/>
       <c r="Q82" s="128"/>
       <c r="R82" s="112"/>
       <c r="S82" s="112"/>
@@ -19250,27 +19214,27 @@
         <f>A82+1</f>
         <v>19</v>
       </c>
-      <c r="B83" s="357" t="s">
+      <c r="B83" s="370" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="358"/>
-      <c r="D83" s="358"/>
-      <c r="E83" s="358"/>
-      <c r="F83" s="358"/>
-      <c r="G83" s="359"/>
+      <c r="C83" s="371"/>
+      <c r="D83" s="371"/>
+      <c r="E83" s="371"/>
+      <c r="F83" s="371"/>
+      <c r="G83" s="372"/>
       <c r="H83" s="235"/>
       <c r="I83" s="236"/>
       <c r="J83" s="231"/>
-      <c r="K83" s="360">
+      <c r="K83" s="367">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="L83" s="361"/>
-      <c r="M83" s="362"/>
-      <c r="N83" s="363">
+      <c r="L83" s="368"/>
+      <c r="M83" s="369"/>
+      <c r="N83" s="373">
         <v>7.6E-3</v>
       </c>
-      <c r="O83" s="364"/>
-      <c r="P83" s="365"/>
+      <c r="O83" s="374"/>
+      <c r="P83" s="375"/>
       <c r="Q83" s="118"/>
       <c r="R83" s="112"/>
       <c r="S83" s="112"/>
@@ -19311,27 +19275,27 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B84" s="357" t="s">
+      <c r="B84" s="370" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="358"/>
-      <c r="D84" s="358"/>
-      <c r="E84" s="358"/>
-      <c r="F84" s="358"/>
-      <c r="G84" s="359"/>
+      <c r="C84" s="371"/>
+      <c r="D84" s="371"/>
+      <c r="E84" s="371"/>
+      <c r="F84" s="371"/>
+      <c r="G84" s="372"/>
       <c r="H84" s="235"/>
       <c r="I84" s="236"/>
       <c r="J84" s="231"/>
-      <c r="K84" s="360">
+      <c r="K84" s="367">
         <v>0</v>
       </c>
-      <c r="L84" s="361"/>
-      <c r="M84" s="362"/>
-      <c r="N84" s="363">
+      <c r="L84" s="368"/>
+      <c r="M84" s="369"/>
+      <c r="N84" s="373">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="O84" s="364"/>
-      <c r="P84" s="365"/>
+      <c r="O84" s="374"/>
+      <c r="P84" s="375"/>
       <c r="Q84" s="118"/>
       <c r="R84" s="112"/>
       <c r="S84" s="112"/>
@@ -19372,27 +19336,27 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B85" s="357" t="s">
+      <c r="B85" s="370" t="s">
         <v>301</v>
       </c>
-      <c r="C85" s="358"/>
-      <c r="D85" s="358"/>
-      <c r="E85" s="358"/>
-      <c r="F85" s="358"/>
-      <c r="G85" s="359"/>
+      <c r="C85" s="371"/>
+      <c r="D85" s="371"/>
+      <c r="E85" s="371"/>
+      <c r="F85" s="371"/>
+      <c r="G85" s="372"/>
       <c r="H85" s="235"/>
       <c r="I85" s="236"/>
       <c r="J85" s="231"/>
-      <c r="K85" s="360">
+      <c r="K85" s="367">
         <v>0</v>
       </c>
-      <c r="L85" s="361"/>
-      <c r="M85" s="362"/>
-      <c r="N85" s="363">
+      <c r="L85" s="368"/>
+      <c r="M85" s="369"/>
+      <c r="N85" s="373">
         <v>2.9989999999999999E-2</v>
       </c>
-      <c r="O85" s="364"/>
-      <c r="P85" s="365"/>
+      <c r="O85" s="374"/>
+      <c r="P85" s="375"/>
       <c r="Q85" s="118"/>
       <c r="R85" s="112"/>
       <c r="S85" s="112"/>
@@ -19445,11 +19409,11 @@
       <c r="K86" s="233"/>
       <c r="L86" s="233"/>
       <c r="M86" s="234"/>
-      <c r="N86" s="363">
+      <c r="N86" s="373">
         <v>0</v>
       </c>
-      <c r="O86" s="364"/>
-      <c r="P86" s="365"/>
+      <c r="O86" s="374"/>
+      <c r="P86" s="375"/>
       <c r="Q86" s="118"/>
       <c r="R86" s="112"/>
       <c r="S86" s="112"/>
@@ -19502,11 +19466,11 @@
       <c r="K87" s="233"/>
       <c r="L87" s="233"/>
       <c r="M87" s="234"/>
-      <c r="N87" s="363">
+      <c r="N87" s="373">
         <v>0</v>
       </c>
-      <c r="O87" s="364"/>
-      <c r="P87" s="365"/>
+      <c r="O87" s="374"/>
+      <c r="P87" s="375"/>
       <c r="Q87" s="118"/>
       <c r="R87" s="112"/>
       <c r="S87" s="112"/>
@@ -19561,11 +19525,11 @@
       <c r="K88" s="233"/>
       <c r="L88" s="233"/>
       <c r="M88" s="234"/>
-      <c r="N88" s="363">
+      <c r="N88" s="373">
         <v>0</v>
       </c>
-      <c r="O88" s="364"/>
-      <c r="P88" s="365"/>
+      <c r="O88" s="374"/>
+      <c r="P88" s="375"/>
       <c r="Q88" s="118"/>
       <c r="R88" s="112"/>
       <c r="S88" s="112"/>
@@ -19617,18 +19581,18 @@
       <c r="H89" s="118"/>
       <c r="I89" s="112"/>
       <c r="J89" s="117"/>
-      <c r="K89" s="371">
+      <c r="K89" s="383">
         <f>IF(SUM(K69:M88)=0,"",SUM(K69:M85))</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="L89" s="372"/>
-      <c r="M89" s="373"/>
-      <c r="N89" s="374">
+      <c r="L89" s="384"/>
+      <c r="M89" s="385"/>
+      <c r="N89" s="386">
         <f>IF(SUM(N69:P88)=0,"",SUM(N69:P88))</f>
         <v>1</v>
       </c>
-      <c r="O89" s="375"/>
-      <c r="P89" s="376"/>
+      <c r="O89" s="387"/>
+      <c r="P89" s="388"/>
       <c r="Q89" s="118"/>
       <c r="R89" s="112"/>
       <c r="S89" s="112"/>
@@ -19680,17 +19644,17 @@
       <c r="H90" s="118"/>
       <c r="I90" s="112"/>
       <c r="J90" s="117"/>
-      <c r="K90" s="377">
+      <c r="K90" s="389">
         <v>18.731455084800004</v>
       </c>
-      <c r="L90" s="378"/>
-      <c r="M90" s="379"/>
-      <c r="N90" s="380" t="str">
+      <c r="L90" s="390"/>
+      <c r="M90" s="391"/>
+      <c r="N90" s="392" t="str">
         <f>IF(SUMPRODUCT(H69:H88,N69:N88)=0,"",SUMPRODUCT(H69:H88,N69:N88))</f>
         <v/>
       </c>
-      <c r="O90" s="381"/>
-      <c r="P90" s="382"/>
+      <c r="O90" s="393"/>
+      <c r="P90" s="394"/>
       <c r="Q90" s="118"/>
       <c r="R90" s="112"/>
       <c r="S90" s="112"/>
@@ -21396,27 +21360,27 @@
       </c>
       <c r="U118" s="159"/>
       <c r="V118" s="159"/>
-      <c r="W118" s="367" t="s">
+      <c r="W118" s="379" t="s">
         <v>1</v>
       </c>
-      <c r="X118" s="367"/>
-      <c r="Y118" s="367"/>
-      <c r="Z118" s="367"/>
-      <c r="AA118" s="367"/>
+      <c r="X118" s="379"/>
+      <c r="Y118" s="379"/>
+      <c r="Z118" s="379"/>
+      <c r="AA118" s="379"/>
       <c r="AB118" s="151" t="s">
         <v>2</v>
       </c>
       <c r="AC118" s="151"/>
       <c r="AD118" s="151"/>
-      <c r="AE118" s="367" t="e">
+      <c r="AE118" s="379" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AF118" s="367"/>
-      <c r="AG118" s="367"/>
-      <c r="AH118" s="367"/>
-      <c r="AI118" s="367"/>
-      <c r="AJ118" s="367"/>
-      <c r="AK118" s="367"/>
+      <c r="AF118" s="379"/>
+      <c r="AG118" s="379"/>
+      <c r="AH118" s="379"/>
+      <c r="AI118" s="379"/>
+      <c r="AJ118" s="379"/>
+      <c r="AK118" s="379"/>
       <c r="AL118" s="155"/>
       <c r="AM118" s="158"/>
       <c r="AN118" s="155"/>
@@ -21459,26 +21423,26 @@
       <c r="U119" s="159"/>
       <c r="V119" s="159"/>
       <c r="W119" s="151"/>
-      <c r="X119" s="366" t="e">
+      <c r="X119" s="378" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Y119" s="366"/>
-      <c r="Z119" s="366"/>
-      <c r="AA119" s="366"/>
+      <c r="Y119" s="378"/>
+      <c r="Z119" s="378"/>
+      <c r="AA119" s="378"/>
       <c r="AB119" s="163" t="s">
         <v>7</v>
       </c>
       <c r="AC119" s="163"/>
-      <c r="AD119" s="367" t="e">
+      <c r="AD119" s="379" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AE119" s="367"/>
-      <c r="AF119" s="367"/>
-      <c r="AG119" s="367"/>
-      <c r="AH119" s="367"/>
-      <c r="AI119" s="367"/>
-      <c r="AJ119" s="367"/>
-      <c r="AK119" s="367"/>
+      <c r="AE119" s="379"/>
+      <c r="AF119" s="379"/>
+      <c r="AG119" s="379"/>
+      <c r="AH119" s="379"/>
+      <c r="AI119" s="379"/>
+      <c r="AJ119" s="379"/>
+      <c r="AK119" s="379"/>
       <c r="AL119" s="155"/>
       <c r="AM119" s="158"/>
       <c r="AN119" s="155"/>
@@ -23692,12 +23656,12 @@
       <c r="AE155" s="181"/>
       <c r="AF155" s="181"/>
       <c r="AG155" s="181"/>
-      <c r="AH155" s="368">
+      <c r="AH155" s="380">
         <v>15919</v>
       </c>
-      <c r="AI155" s="369"/>
-      <c r="AJ155" s="369"/>
-      <c r="AK155" s="370"/>
+      <c r="AI155" s="381"/>
+      <c r="AJ155" s="381"/>
+      <c r="AK155" s="382"/>
       <c r="AL155" s="181"/>
       <c r="AM155" s="180"/>
       <c r="AN155" s="186"/>
@@ -24897,6 +24861,138 @@
     </row>
   </sheetData>
   <mergeCells count="156">
+    <mergeCell ref="AP36:AS36"/>
+    <mergeCell ref="AT36:AT46"/>
+    <mergeCell ref="AQ37:AR37"/>
+    <mergeCell ref="AQ38:AR38"/>
+    <mergeCell ref="AQ39:AR39"/>
+    <mergeCell ref="AQ41:AR41"/>
+    <mergeCell ref="AQ45:AR45"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="AQ42:AR42"/>
+    <mergeCell ref="AQ40:AR40"/>
+    <mergeCell ref="AQ44:AR44"/>
+    <mergeCell ref="AQ43:AR43"/>
+    <mergeCell ref="AI18:AM18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="AQ34:AR34"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AI17:AM17"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="E8:T8"/>
+    <mergeCell ref="E9:T9"/>
+    <mergeCell ref="E10:T10"/>
+    <mergeCell ref="B15:AM15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="Z16:AM16"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="W61:AA61"/>
+    <mergeCell ref="AE61:AK61"/>
+    <mergeCell ref="X62:AA62"/>
+    <mergeCell ref="AD62:AK62"/>
+    <mergeCell ref="K66:P66"/>
+    <mergeCell ref="AD67:AL67"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="X119:AA119"/>
+    <mergeCell ref="AD119:AK119"/>
+    <mergeCell ref="AH155:AK155"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="W118:AA118"/>
+    <mergeCell ref="AE118:AK118"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:P83"/>
     <mergeCell ref="AQ24:AS24"/>
     <mergeCell ref="AQ29:AR29"/>
     <mergeCell ref="AQ30:AR30"/>
@@ -24921,138 +25017,6 @@
     <mergeCell ref="N79:P79"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="K77:M77"/>
-    <mergeCell ref="X119:AA119"/>
-    <mergeCell ref="AD119:AK119"/>
-    <mergeCell ref="AH155:AK155"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="W118:AA118"/>
-    <mergeCell ref="AE118:AK118"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="W61:AA61"/>
-    <mergeCell ref="AE61:AK61"/>
-    <mergeCell ref="X62:AA62"/>
-    <mergeCell ref="AD62:AK62"/>
-    <mergeCell ref="K66:P66"/>
-    <mergeCell ref="AD67:AL67"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AQ34:AR34"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AI17:AM17"/>
-    <mergeCell ref="AD4:AK4"/>
-    <mergeCell ref="E8:T8"/>
-    <mergeCell ref="E9:T9"/>
-    <mergeCell ref="E10:T10"/>
-    <mergeCell ref="B15:AM15"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="Z16:AM16"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="AI18:AM18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="AP36:AS36"/>
-    <mergeCell ref="AT36:AT46"/>
-    <mergeCell ref="AQ37:AR37"/>
-    <mergeCell ref="AQ38:AR38"/>
-    <mergeCell ref="AQ39:AR39"/>
-    <mergeCell ref="AQ41:AR41"/>
-    <mergeCell ref="AQ45:AR45"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="AQ42:AR42"/>
-    <mergeCell ref="AQ40:AR40"/>
-    <mergeCell ref="AQ44:AR44"/>
-    <mergeCell ref="AQ43:AR43"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25066,7 +25030,7 @@
   <dimension ref="B2:AA29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25082,29 +25046,29 @@
   <sheetData>
     <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="413" t="s">
+      <c r="B3" s="491" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="414"/>
+      <c r="C3" s="492"/>
       <c r="D3" s="249" t="s">
         <v>302</v>
       </c>
-      <c r="F3" s="418" t="s">
+      <c r="F3" s="496" t="s">
         <v>303</v>
       </c>
-      <c r="G3" s="419"/>
-      <c r="H3" s="419"/>
-      <c r="I3" s="419"/>
-      <c r="J3" s="419"/>
-      <c r="K3" s="419"/>
-      <c r="L3" s="419"/>
-      <c r="M3" s="419"/>
-      <c r="N3" s="419"/>
-      <c r="O3" s="419"/>
-      <c r="P3" s="419"/>
-      <c r="Q3" s="419"/>
-      <c r="R3" s="419"/>
-      <c r="S3" s="420"/>
+      <c r="G3" s="497"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="497"/>
+      <c r="J3" s="497"/>
+      <c r="K3" s="497"/>
+      <c r="L3" s="497"/>
+      <c r="M3" s="497"/>
+      <c r="N3" s="497"/>
+      <c r="O3" s="497"/>
+      <c r="P3" s="497"/>
+      <c r="Q3" s="497"/>
+      <c r="R3" s="497"/>
+      <c r="S3" s="498"/>
       <c r="T3" s="252"/>
       <c r="U3" s="252"/>
       <c r="V3" s="252"/>
@@ -25115,45 +25079,45 @@
       <c r="AA3" s="252"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="411" t="s">
+      <c r="B4" s="484" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="412"/>
+      <c r="C4" s="485"/>
       <c r="D4" s="248">
         <v>0</v>
       </c>
-      <c r="F4" s="421" t="s">
+      <c r="F4" s="499" t="s">
         <v>304</v>
       </c>
-      <c r="G4" s="422"/>
-      <c r="H4" s="426" t="s">
+      <c r="G4" s="500"/>
+      <c r="H4" s="486" t="s">
         <v>327</v>
       </c>
-      <c r="I4" s="427"/>
-      <c r="J4" s="421" t="s">
+      <c r="I4" s="487"/>
+      <c r="J4" s="499" t="s">
         <v>310</v>
       </c>
-      <c r="K4" s="422"/>
-      <c r="L4" s="423" t="s">
+      <c r="K4" s="500"/>
+      <c r="L4" s="501" t="s">
         <v>305</v>
       </c>
-      <c r="M4" s="424"/>
-      <c r="N4" s="424"/>
-      <c r="O4" s="425"/>
-      <c r="P4" s="423" t="s">
+      <c r="M4" s="502"/>
+      <c r="N4" s="502"/>
+      <c r="O4" s="503"/>
+      <c r="P4" s="501" t="s">
         <v>306</v>
       </c>
-      <c r="Q4" s="424"/>
-      <c r="R4" s="424"/>
-      <c r="S4" s="425"/>
+      <c r="Q4" s="502"/>
+      <c r="R4" s="502"/>
+      <c r="S4" s="503"/>
       <c r="T4" s="250"/>
       <c r="U4" s="250"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="411" t="s">
+      <c r="B5" s="484" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="412"/>
+      <c r="C5" s="485"/>
       <c r="D5" s="248">
         <v>0</v>
       </c>
@@ -25197,10 +25161,10 @@
       <c r="U5" s="251"/>
     </row>
     <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="411" t="s">
+      <c r="B6" s="484" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="412"/>
+      <c r="C6" s="485"/>
       <c r="D6" s="248">
         <v>0</v>
       </c>
@@ -25249,418 +25213,426 @@
       <c r="U6" s="253"/>
     </row>
     <row r="7" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="411" t="s">
+      <c r="B7" s="484" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="412"/>
+      <c r="C7" s="485"/>
       <c r="D7" s="248">
         <v>0</v>
       </c>
-      <c r="F7" s="415" t="s">
+      <c r="F7" s="493" t="s">
         <v>347</v>
       </c>
-      <c r="G7" s="416"/>
-      <c r="H7" s="416"/>
-      <c r="I7" s="417"/>
+      <c r="G7" s="494"/>
+      <c r="H7" s="494"/>
+      <c r="I7" s="495"/>
     </row>
     <row r="8" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="411" t="s">
+      <c r="B8" s="484" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="412"/>
+      <c r="C8" s="485"/>
       <c r="D8" s="248">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="411" t="s">
+      <c r="B9" s="484" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="412"/>
+      <c r="C9" s="485"/>
       <c r="D9" s="248">
         <v>0</v>
       </c>
-      <c r="F9" s="428" t="s">
+      <c r="F9" s="488" t="s">
         <v>336</v>
       </c>
-      <c r="G9" s="429"/>
-      <c r="H9" s="429"/>
-      <c r="I9" s="430"/>
-      <c r="J9" s="428" t="s">
+      <c r="G9" s="489"/>
+      <c r="H9" s="489"/>
+      <c r="I9" s="490"/>
+      <c r="J9" s="488" t="s">
         <v>337</v>
       </c>
-      <c r="K9" s="430"/>
+      <c r="K9" s="490"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="411" t="s">
+      <c r="B10" s="484" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="412"/>
+      <c r="C10" s="485"/>
       <c r="D10" s="248">
         <v>0</v>
       </c>
-      <c r="F10" s="392" t="s">
+      <c r="F10" s="477" t="s">
         <v>328</v>
       </c>
       <c r="G10" s="274" t="s">
         <v>317</v>
       </c>
-      <c r="H10" s="403" t="s">
+      <c r="H10" s="467" t="s">
         <v>325</v>
       </c>
-      <c r="I10" s="404"/>
-      <c r="J10" s="432" t="s">
+      <c r="I10" s="468"/>
+      <c r="J10" s="504" t="s">
         <v>338</v>
       </c>
-      <c r="K10" s="433"/>
+      <c r="K10" s="505"/>
     </row>
     <row r="11" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="411" t="s">
+      <c r="B11" s="484" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="412"/>
+      <c r="C11" s="485"/>
       <c r="D11" s="248">
         <v>0</v>
       </c>
-      <c r="F11" s="393"/>
+      <c r="F11" s="478"/>
       <c r="G11" s="268">
         <v>2.7297158756046027</v>
       </c>
-      <c r="H11" s="409">
+      <c r="H11" s="473">
         <v>0.97919216784111174</v>
       </c>
-      <c r="I11" s="431"/>
-      <c r="J11" s="434"/>
-      <c r="K11" s="435"/>
+      <c r="I11" s="474"/>
+      <c r="J11" s="506"/>
+      <c r="K11" s="507"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="411" t="s">
+      <c r="B12" s="484" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="412"/>
+      <c r="C12" s="485"/>
       <c r="D12" s="248">
         <v>1</v>
       </c>
-      <c r="F12" s="392" t="s">
+      <c r="F12" s="477" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="407">
+      <c r="G12" s="479">
         <v>0.5420038623301654</v>
       </c>
-      <c r="H12" s="403" t="s">
+      <c r="H12" s="467" t="s">
         <v>329</v>
       </c>
-      <c r="I12" s="404"/>
-      <c r="J12" s="444" t="s">
+      <c r="I12" s="468"/>
+      <c r="J12" s="461" t="s">
         <v>344</v>
       </c>
-      <c r="K12" s="445"/>
+      <c r="K12" s="462"/>
     </row>
     <row r="13" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="411" t="s">
+      <c r="B13" s="484" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="412"/>
+      <c r="C13" s="485"/>
       <c r="D13" s="248">
         <v>0</v>
       </c>
-      <c r="F13" s="393"/>
-      <c r="G13" s="408"/>
-      <c r="H13" s="450">
+      <c r="F13" s="478"/>
+      <c r="G13" s="480"/>
+      <c r="H13" s="469">
         <v>-1.7242585162534851E-2</v>
       </c>
-      <c r="I13" s="451"/>
-      <c r="J13" s="446"/>
-      <c r="K13" s="447"/>
+      <c r="I13" s="470"/>
+      <c r="J13" s="463"/>
+      <c r="K13" s="464"/>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="411" t="s">
+      <c r="B14" s="484" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="412"/>
+      <c r="C14" s="485"/>
       <c r="D14" s="248">
         <v>0</v>
       </c>
-      <c r="F14" s="392" t="s">
+      <c r="F14" s="477" t="s">
         <v>316</v>
       </c>
-      <c r="G14" s="436">
+      <c r="G14" s="482">
         <v>1332369.4081878909</v>
       </c>
-      <c r="H14" s="403" t="s">
+      <c r="H14" s="467" t="s">
         <v>331</v>
       </c>
-      <c r="I14" s="404"/>
-      <c r="J14" s="446"/>
-      <c r="K14" s="447"/>
+      <c r="I14" s="468"/>
+      <c r="J14" s="463"/>
+      <c r="K14" s="464"/>
     </row>
     <row r="15" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="411" t="s">
+      <c r="B15" s="484" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="412"/>
+      <c r="C15" s="485"/>
       <c r="D15" s="248">
         <v>0</v>
       </c>
-      <c r="F15" s="393"/>
-      <c r="G15" s="437"/>
-      <c r="H15" s="452">
+      <c r="F15" s="478"/>
+      <c r="G15" s="483"/>
+      <c r="H15" s="471">
         <v>0.11513798972727746</v>
       </c>
-      <c r="I15" s="453"/>
-      <c r="J15" s="448"/>
-      <c r="K15" s="449"/>
+      <c r="I15" s="472"/>
+      <c r="J15" s="465"/>
+      <c r="K15" s="466"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="411" t="s">
+      <c r="B16" s="484" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="412"/>
+      <c r="C16" s="485"/>
       <c r="D16" s="248">
         <v>0</v>
       </c>
-      <c r="F16" s="392" t="s">
+      <c r="F16" s="477" t="s">
         <v>330</v>
       </c>
-      <c r="G16" s="407">
+      <c r="G16" s="479">
         <v>8.2119494439549051E-2</v>
       </c>
-      <c r="H16" s="403" t="s">
+      <c r="H16" s="467" t="s">
         <v>345</v>
       </c>
-      <c r="I16" s="404"/>
-      <c r="J16" s="440" t="s">
+      <c r="I16" s="468"/>
+      <c r="J16" s="457" t="s">
         <v>339</v>
       </c>
-      <c r="K16" s="441"/>
+      <c r="K16" s="458"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="411" t="s">
+      <c r="B17" s="484" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="412"/>
+      <c r="C17" s="485"/>
       <c r="D17" s="248">
         <v>0</v>
       </c>
-      <c r="F17" s="393"/>
-      <c r="G17" s="408"/>
-      <c r="H17" s="409">
+      <c r="F17" s="478"/>
+      <c r="G17" s="480"/>
+      <c r="H17" s="473">
         <v>0.99888268049569628</v>
       </c>
-      <c r="I17" s="431"/>
-      <c r="J17" s="442"/>
-      <c r="K17" s="443"/>
+      <c r="I17" s="474"/>
+      <c r="J17" s="459"/>
+      <c r="K17" s="460"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="411" t="s">
+      <c r="B18" s="484" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="412"/>
+      <c r="C18" s="485"/>
       <c r="D18" s="248">
         <v>0</v>
       </c>
-      <c r="F18" s="392" t="s">
+      <c r="F18" s="477" t="s">
         <v>333</v>
       </c>
-      <c r="G18" s="436">
+      <c r="G18" s="482">
         <v>8.3833624635185018</v>
       </c>
-      <c r="H18" s="403" t="s">
+      <c r="H18" s="467" t="s">
         <v>346</v>
       </c>
-      <c r="I18" s="404"/>
+      <c r="I18" s="468"/>
       <c r="J18" s="269"/>
       <c r="K18" s="269"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="411" t="s">
+      <c r="B19" s="484" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="412"/>
+      <c r="C19" s="485"/>
       <c r="D19" s="248">
         <v>0</v>
       </c>
-      <c r="F19" s="393"/>
-      <c r="G19" s="437"/>
-      <c r="H19" s="438">
+      <c r="F19" s="478"/>
+      <c r="G19" s="483"/>
+      <c r="H19" s="475">
         <v>0.99792319358801629</v>
       </c>
-      <c r="I19" s="439"/>
+      <c r="I19" s="476"/>
       <c r="J19" s="269"/>
       <c r="K19" s="269"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="411" t="s">
+      <c r="B20" s="484" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="412"/>
+      <c r="C20" s="485"/>
       <c r="D20" s="248">
         <v>0</v>
       </c>
-      <c r="F20" s="392" t="s">
+      <c r="F20" s="477" t="s">
         <v>351</v>
       </c>
-      <c r="G20" s="407">
+      <c r="G20" s="479">
         <v>92.039385344389615</v>
       </c>
-      <c r="H20" s="403" t="s">
+      <c r="H20" s="467" t="s">
         <v>353</v>
       </c>
-      <c r="I20" s="404"/>
+      <c r="I20" s="468"/>
       <c r="J20" s="269"/>
       <c r="K20" s="269"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="393"/>
-      <c r="G21" s="408"/>
-      <c r="H21" s="409">
+      <c r="F21" s="478"/>
+      <c r="G21" s="480"/>
+      <c r="H21" s="473">
         <v>0.44725910902845156</v>
       </c>
-      <c r="I21" s="410"/>
+      <c r="I21" s="481"/>
       <c r="J21" s="269"/>
       <c r="K21" s="269"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="394" t="s">
+      <c r="B22" s="514" t="s">
         <v>357</v>
       </c>
-      <c r="C22" s="395"/>
-      <c r="D22" s="396"/>
-      <c r="F22" s="392" t="s">
+      <c r="C22" s="515"/>
+      <c r="D22" s="516"/>
+      <c r="F22" s="477" t="s">
         <v>352</v>
       </c>
-      <c r="G22" s="407">
+      <c r="G22" s="479">
         <v>205.35800278833992</v>
       </c>
-      <c r="H22" s="403" t="s">
+      <c r="H22" s="467" t="s">
         <v>354</v>
       </c>
-      <c r="I22" s="404"/>
+      <c r="I22" s="468"/>
       <c r="J22" s="269"/>
       <c r="K22" s="269"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="397" t="s">
+      <c r="B23" s="510" t="s">
         <v>361</v>
       </c>
-      <c r="C23" s="399" t="s">
+      <c r="C23" s="512" t="s">
         <v>360</v>
       </c>
       <c r="D23" s="271" t="s">
         <v>359</v>
       </c>
-      <c r="F23" s="393"/>
-      <c r="G23" s="408"/>
-      <c r="H23" s="405">
+      <c r="F23" s="478"/>
+      <c r="G23" s="480"/>
+      <c r="H23" s="508">
         <v>0.99792319359044823</v>
       </c>
-      <c r="I23" s="406"/>
+      <c r="I23" s="509"/>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="398"/>
-      <c r="C24" s="400"/>
+      <c r="B24" s="511"/>
+      <c r="C24" s="513"/>
       <c r="D24" s="275">
         <v>0.01</v>
       </c>
-      <c r="F24" s="392" t="s">
+      <c r="F24" s="477" t="s">
         <v>332</v>
       </c>
-      <c r="G24" s="407">
+      <c r="G24" s="479">
         <v>1083.9260487406152</v>
       </c>
-      <c r="H24" s="403" t="s">
+      <c r="H24" s="467" t="s">
         <v>334</v>
       </c>
-      <c r="I24" s="404"/>
+      <c r="I24" s="468"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="397" t="s">
+      <c r="B25" s="510" t="s">
         <v>362</v>
       </c>
-      <c r="C25" s="399" t="s">
+      <c r="C25" s="512" t="s">
         <v>360</v>
       </c>
       <c r="D25" s="271" t="s">
         <v>363</v>
       </c>
-      <c r="F25" s="393"/>
-      <c r="G25" s="408"/>
-      <c r="H25" s="409">
+      <c r="F25" s="478"/>
+      <c r="G25" s="480"/>
+      <c r="H25" s="473">
         <v>7.1428705443518384E-2</v>
       </c>
-      <c r="I25" s="410"/>
+      <c r="I25" s="481"/>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="398"/>
-      <c r="C26" s="400"/>
+      <c r="B26" s="511"/>
+      <c r="C26" s="513"/>
       <c r="D26" s="275">
         <v>7</v>
       </c>
-      <c r="F26" s="392" t="s">
+      <c r="F26" s="477" t="s">
         <v>349</v>
       </c>
-      <c r="G26" s="407">
+      <c r="G26" s="479">
         <v>15058.576191528966</v>
       </c>
-      <c r="H26" s="403" t="s">
+      <c r="H26" s="467" t="s">
         <v>350</v>
       </c>
-      <c r="I26" s="404"/>
+      <c r="I26" s="468"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="393"/>
-      <c r="G27" s="408"/>
-      <c r="H27" s="405">
+      <c r="F27" s="478"/>
+      <c r="G27" s="480"/>
+      <c r="H27" s="508">
         <v>0.99233209168949243</v>
       </c>
-      <c r="I27" s="406"/>
+      <c r="I27" s="509"/>
     </row>
     <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="392" t="s">
+      <c r="F28" s="477" t="s">
         <v>356</v>
       </c>
-      <c r="G28" s="401">
+      <c r="G28" s="517">
         <v>0.8440832234354011</v>
       </c>
-      <c r="H28" s="403" t="s">
+      <c r="H28" s="467" t="s">
         <v>358</v>
       </c>
-      <c r="I28" s="404"/>
+      <c r="I28" s="468"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="393"/>
-      <c r="G29" s="402"/>
-      <c r="H29" s="405">
+      <c r="F29" s="478"/>
+      <c r="G29" s="518"/>
+      <c r="H29" s="508">
         <v>0.84668993642021184</v>
       </c>
-      <c r="I29" s="406"/>
+      <c r="I29" s="509"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="J12:K15"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F3:S3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -25671,46 +25643,38 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F3:S3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="J12:K15"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:I11">
     <cfRule type="cellIs" dxfId="39" priority="14" operator="between">
@@ -25778,7 +25742,7 @@
   <dimension ref="B2:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25794,50 +25758,50 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="413" t="s">
+      <c r="B3" s="491" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="414"/>
+      <c r="C3" s="492"/>
       <c r="D3" s="249" t="s">
         <v>302</v>
       </c>
-      <c r="F3" s="454" t="s">
+      <c r="F3" s="496" t="s">
         <v>370</v>
       </c>
-      <c r="G3" s="455"/>
-      <c r="H3" s="455"/>
-      <c r="I3" s="455"/>
-      <c r="J3" s="455"/>
-      <c r="K3" s="455"/>
-      <c r="L3" s="456"/>
+      <c r="G3" s="497"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="497"/>
+      <c r="J3" s="497"/>
+      <c r="K3" s="497"/>
+      <c r="L3" s="498"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="411" t="s">
+      <c r="B4" s="484" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="412"/>
+      <c r="C4" s="485"/>
       <c r="D4" s="248">
         <v>0</v>
       </c>
-      <c r="F4" s="281"/>
-      <c r="G4" s="289" t="s">
+      <c r="F4" s="527"/>
+      <c r="G4" s="528" t="s">
         <v>310</v>
       </c>
-      <c r="H4" s="290">
+      <c r="H4" s="529">
         <v>6289</v>
       </c>
-      <c r="I4" s="291" t="s">
+      <c r="I4" s="530" t="s">
         <v>312</v>
       </c>
-      <c r="J4" s="292"/>
-      <c r="K4" s="292"/>
-      <c r="L4" s="293"/>
+      <c r="J4" s="531"/>
+      <c r="K4" s="531"/>
+      <c r="L4" s="532"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="411" t="s">
+      <c r="B5" s="484" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="412"/>
+      <c r="C5" s="485"/>
       <c r="D5" s="248">
         <v>0</v>
       </c>
@@ -25845,27 +25809,27 @@
       <c r="G5" s="273" t="s">
         <v>371</v>
       </c>
-      <c r="H5" s="294" t="s">
+      <c r="H5" s="289" t="s">
         <v>366</v>
       </c>
-      <c r="I5" s="294" t="s">
+      <c r="I5" s="289" t="s">
         <v>373</v>
       </c>
-      <c r="J5" s="294" t="s">
+      <c r="J5" s="289" t="s">
         <v>372</v>
       </c>
-      <c r="K5" s="294" t="s">
+      <c r="K5" s="289" t="s">
         <v>375</v>
       </c>
-      <c r="L5" s="294" t="s">
+      <c r="L5" s="289" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="411" t="s">
+      <c r="B6" s="484" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="412"/>
+      <c r="C6" s="485"/>
       <c r="D6" s="248">
         <v>0</v>
       </c>
@@ -25890,20 +25854,20 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="411" t="s">
+      <c r="B7" s="484" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="412"/>
+      <c r="C7" s="485"/>
       <c r="D7" s="248">
         <v>0</v>
       </c>
       <c r="F7" s="282">
         <v>1</v>
       </c>
-      <c r="G7" s="295">
+      <c r="G7" s="290">
         <v>16636.578664336193</v>
       </c>
-      <c r="H7" s="295">
+      <c r="H7" s="290">
         <v>4146.5033051977589</v>
       </c>
       <c r="I7" s="286">
@@ -25920,20 +25884,20 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="411" t="s">
+      <c r="B8" s="484" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="412"/>
+      <c r="C8" s="485"/>
       <c r="D8" s="248">
         <v>0</v>
       </c>
       <c r="F8" s="282">
         <v>2</v>
       </c>
-      <c r="G8" s="295">
+      <c r="G8" s="290">
         <v>24689.867986985289</v>
       </c>
-      <c r="H8" s="295">
+      <c r="H8" s="290">
         <v>5556</v>
       </c>
       <c r="I8" s="286">
@@ -25950,20 +25914,20 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="411" t="s">
+      <c r="B9" s="484" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="412"/>
+      <c r="C9" s="485"/>
       <c r="D9" s="248">
         <v>0</v>
       </c>
       <c r="F9" s="282">
         <v>3</v>
       </c>
-      <c r="G9" s="295">
+      <c r="G9" s="290">
         <v>34533.940686116082</v>
       </c>
-      <c r="H9" s="295">
+      <c r="H9" s="290">
         <v>6910</v>
       </c>
       <c r="I9" s="286">
@@ -25980,20 +25944,20 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="411" t="s">
+      <c r="B10" s="484" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="412"/>
+      <c r="C10" s="485"/>
       <c r="D10" s="248">
         <v>0</v>
       </c>
       <c r="F10" s="282">
         <v>4</v>
       </c>
-      <c r="G10" s="295">
+      <c r="G10" s="290">
         <v>35955.546360102366</v>
       </c>
-      <c r="H10" s="295">
+      <c r="H10" s="290">
         <v>7000.17</v>
       </c>
       <c r="I10" s="286">
@@ -26010,20 +25974,20 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="411" t="s">
+      <c r="B11" s="484" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="412"/>
+      <c r="C11" s="485"/>
       <c r="D11" s="248">
         <v>0</v>
       </c>
       <c r="F11" s="282">
         <v>5</v>
       </c>
-      <c r="G11" s="295">
+      <c r="G11" s="290">
         <v>50833.785800332713</v>
       </c>
-      <c r="H11" s="295">
+      <c r="H11" s="290">
         <v>8000</v>
       </c>
       <c r="I11" s="286">
@@ -26040,904 +26004,912 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="411" t="s">
+      <c r="B12" s="484" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="412"/>
+      <c r="C12" s="485"/>
       <c r="D12" s="248">
         <v>1</v>
       </c>
       <c r="F12" s="282">
         <v>6</v>
       </c>
-      <c r="G12" s="295"/>
-      <c r="H12" s="295"/>
+      <c r="G12" s="290"/>
+      <c r="H12" s="290"/>
       <c r="I12" s="286"/>
       <c r="J12" s="286"/>
       <c r="K12" s="286"/>
       <c r="L12" s="287"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="411" t="s">
+      <c r="B13" s="484" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="412"/>
+      <c r="C13" s="485"/>
       <c r="D13" s="248">
         <v>0</v>
       </c>
       <c r="F13" s="282">
         <v>7</v>
       </c>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
+      <c r="G13" s="290"/>
+      <c r="H13" s="290"/>
       <c r="I13" s="286"/>
       <c r="J13" s="286"/>
       <c r="K13" s="286"/>
       <c r="L13" s="287"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="411" t="s">
+      <c r="B14" s="484" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="412"/>
+      <c r="C14" s="485"/>
       <c r="D14" s="248">
         <v>0</v>
       </c>
       <c r="F14" s="282">
         <v>8</v>
       </c>
-      <c r="G14" s="295"/>
-      <c r="H14" s="295"/>
+      <c r="G14" s="290"/>
+      <c r="H14" s="290"/>
       <c r="I14" s="286"/>
       <c r="J14" s="286"/>
       <c r="K14" s="286"/>
       <c r="L14" s="287"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="411" t="s">
+      <c r="B15" s="484" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="412"/>
+      <c r="C15" s="485"/>
       <c r="D15" s="248">
         <v>0</v>
       </c>
       <c r="F15" s="282">
         <v>9</v>
       </c>
-      <c r="G15" s="295"/>
-      <c r="H15" s="295"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="290"/>
       <c r="I15" s="286"/>
       <c r="J15" s="286"/>
       <c r="K15" s="286"/>
       <c r="L15" s="287"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="411" t="s">
+      <c r="B16" s="484" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="412"/>
+      <c r="C16" s="485"/>
       <c r="D16" s="248">
         <v>0</v>
       </c>
       <c r="F16" s="288">
         <v>10</v>
       </c>
-      <c r="G16" s="296"/>
-      <c r="H16" s="296"/>
+      <c r="G16" s="291"/>
+      <c r="H16" s="291"/>
       <c r="I16" s="257"/>
       <c r="J16" s="257"/>
       <c r="K16" s="257"/>
       <c r="L16" s="255"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="411" t="s">
+      <c r="B17" s="484" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="412"/>
+      <c r="C17" s="485"/>
       <c r="D17" s="248">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="411" t="s">
+      <c r="B18" s="484" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="412"/>
+      <c r="C18" s="485"/>
       <c r="D18" s="248">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="411" t="s">
+      <c r="B19" s="484" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="412"/>
+      <c r="C19" s="485"/>
       <c r="D19" s="248">
         <v>0</v>
       </c>
-      <c r="F19" s="428" t="s">
+      <c r="F19" s="488" t="s">
         <v>376</v>
       </c>
-      <c r="G19" s="395"/>
-      <c r="H19" s="395"/>
-      <c r="I19" s="395"/>
-      <c r="J19" s="395"/>
-      <c r="K19" s="429"/>
-      <c r="L19" s="429"/>
-      <c r="M19" s="429"/>
-      <c r="N19" s="429"/>
-      <c r="O19" s="429"/>
-      <c r="P19" s="429"/>
-      <c r="Q19" s="429"/>
-      <c r="R19" s="429"/>
-      <c r="S19" s="429"/>
-      <c r="T19" s="429"/>
-      <c r="U19" s="429"/>
-      <c r="V19" s="429"/>
-      <c r="W19" s="429"/>
-      <c r="X19" s="429"/>
-      <c r="Y19" s="429"/>
-      <c r="Z19" s="429"/>
-      <c r="AA19" s="429"/>
-      <c r="AB19" s="430"/>
+      <c r="G19" s="515"/>
+      <c r="H19" s="515"/>
+      <c r="I19" s="515"/>
+      <c r="J19" s="515"/>
+      <c r="K19" s="489"/>
+      <c r="L19" s="489"/>
+      <c r="M19" s="489"/>
+      <c r="N19" s="489"/>
+      <c r="O19" s="489"/>
+      <c r="P19" s="489"/>
+      <c r="Q19" s="489"/>
+      <c r="R19" s="489"/>
+      <c r="S19" s="489"/>
+      <c r="T19" s="489"/>
+      <c r="U19" s="489"/>
+      <c r="V19" s="489"/>
+      <c r="W19" s="489"/>
+      <c r="X19" s="489"/>
+      <c r="Y19" s="489"/>
+      <c r="Z19" s="489"/>
+      <c r="AA19" s="489"/>
+      <c r="AB19" s="490"/>
     </row>
     <row r="20" spans="2:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="411" t="s">
+      <c r="B20" s="484" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="412"/>
+      <c r="C20" s="485"/>
       <c r="D20" s="248">
         <v>0</v>
       </c>
-      <c r="F20" s="474"/>
-      <c r="G20" s="458" t="s">
+      <c r="F20" s="301"/>
+      <c r="G20" s="523" t="s">
         <v>328</v>
       </c>
-      <c r="H20" s="459"/>
-      <c r="I20" s="462" t="s">
+      <c r="H20" s="524"/>
+      <c r="I20" s="525" t="s">
         <v>315</v>
       </c>
-      <c r="J20" s="459"/>
-      <c r="K20" s="465" t="s">
+      <c r="J20" s="524"/>
+      <c r="K20" s="520" t="s">
         <v>316</v>
       </c>
-      <c r="L20" s="464"/>
-      <c r="M20" s="465" t="s">
+      <c r="L20" s="522"/>
+      <c r="M20" s="520" t="s">
         <v>330</v>
       </c>
-      <c r="N20" s="465"/>
-      <c r="O20" s="463" t="s">
+      <c r="N20" s="520"/>
+      <c r="O20" s="521" t="s">
         <v>333</v>
       </c>
-      <c r="P20" s="464"/>
-      <c r="Q20" s="465" t="s">
+      <c r="P20" s="522"/>
+      <c r="Q20" s="520" t="s">
         <v>351</v>
       </c>
-      <c r="R20" s="465"/>
-      <c r="S20" s="463" t="s">
+      <c r="R20" s="520"/>
+      <c r="S20" s="521" t="s">
         <v>352</v>
       </c>
-      <c r="T20" s="464"/>
-      <c r="U20" s="463" t="s">
+      <c r="T20" s="522"/>
+      <c r="U20" s="521" t="s">
         <v>388</v>
       </c>
-      <c r="V20" s="464"/>
-      <c r="W20" s="465" t="s">
+      <c r="V20" s="522"/>
+      <c r="W20" s="520" t="s">
         <v>332</v>
       </c>
-      <c r="X20" s="465"/>
-      <c r="Y20" s="463" t="s">
+      <c r="X20" s="520"/>
+      <c r="Y20" s="521" t="s">
         <v>349</v>
       </c>
-      <c r="Z20" s="464"/>
-      <c r="AA20" s="465" t="s">
+      <c r="Z20" s="522"/>
+      <c r="AA20" s="520" t="s">
         <v>377</v>
       </c>
-      <c r="AB20" s="464"/>
+      <c r="AB20" s="522"/>
     </row>
     <row r="21" spans="2:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="475"/>
-      <c r="G21" s="460" t="s">
+      <c r="F21" s="302"/>
+      <c r="G21" s="292" t="s">
         <v>317</v>
       </c>
-      <c r="H21" s="461" t="s">
+      <c r="H21" s="293" t="s">
         <v>325</v>
       </c>
-      <c r="I21" s="466" t="s">
+      <c r="I21" s="294" t="s">
         <v>378</v>
       </c>
-      <c r="J21" s="461" t="s">
+      <c r="J21" s="293" t="s">
         <v>386</v>
       </c>
-      <c r="K21" s="469" t="s">
+      <c r="K21" s="297" t="s">
         <v>379</v>
       </c>
-      <c r="L21" s="468" t="s">
+      <c r="L21" s="296" t="s">
         <v>331</v>
       </c>
-      <c r="M21" s="460" t="s">
+      <c r="M21" s="292" t="s">
         <v>380</v>
       </c>
-      <c r="N21" s="467" t="s">
+      <c r="N21" s="295" t="s">
         <v>345</v>
       </c>
-      <c r="O21" s="460" t="s">
+      <c r="O21" s="292" t="s">
         <v>381</v>
       </c>
-      <c r="P21" s="461" t="s">
+      <c r="P21" s="293" t="s">
         <v>346</v>
       </c>
-      <c r="Q21" s="466" t="s">
+      <c r="Q21" s="294" t="s">
         <v>382</v>
       </c>
-      <c r="R21" s="467" t="s">
+      <c r="R21" s="295" t="s">
         <v>353</v>
       </c>
-      <c r="S21" s="460" t="s">
+      <c r="S21" s="292" t="s">
         <v>383</v>
       </c>
-      <c r="T21" s="468" t="s">
+      <c r="T21" s="296" t="s">
         <v>354</v>
       </c>
-      <c r="U21" s="460" t="s">
+      <c r="U21" s="292" t="s">
         <v>389</v>
       </c>
-      <c r="V21" s="472" t="s">
+      <c r="V21" s="299" t="s">
         <v>390</v>
       </c>
-      <c r="W21" s="466" t="s">
+      <c r="W21" s="294" t="s">
         <v>384</v>
       </c>
-      <c r="X21" s="471" t="s">
+      <c r="X21" s="298" t="s">
         <v>334</v>
       </c>
-      <c r="Y21" s="460" t="s">
+      <c r="Y21" s="292" t="s">
         <v>385</v>
       </c>
-      <c r="Z21" s="468" t="s">
+      <c r="Z21" s="296" t="s">
         <v>350</v>
       </c>
-      <c r="AA21" s="473" t="s">
+      <c r="AA21" s="300" t="s">
         <v>391</v>
       </c>
-      <c r="AB21" s="468" t="s">
+      <c r="AB21" s="296" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="394" t="s">
+      <c r="B22" s="514" t="s">
         <v>357</v>
       </c>
-      <c r="C22" s="395"/>
-      <c r="D22" s="396"/>
-      <c r="F22" s="476">
+      <c r="C22" s="515"/>
+      <c r="D22" s="516"/>
+      <c r="F22" s="303">
         <v>1</v>
       </c>
-      <c r="G22" s="486">
+      <c r="G22" s="309">
         <v>3.2127192756885847</v>
       </c>
-      <c r="H22" s="487">
+      <c r="H22" s="310">
         <v>1.1524531107215161</v>
       </c>
-      <c r="I22" s="488">
+      <c r="I22" s="311">
         <v>0.54114862186842905</v>
       </c>
-      <c r="J22" s="489">
+      <c r="J22" s="312">
         <v>-1.8097825624271202E-2</v>
       </c>
-      <c r="K22" s="490">
+      <c r="K22" s="313">
         <v>1041249.8232808236</v>
       </c>
-      <c r="L22" s="489">
+      <c r="L22" s="312">
         <v>8.9980609521417648E-2</v>
       </c>
-      <c r="M22" s="490">
+      <c r="M22" s="313">
         <v>4.8873323761980697E-2</v>
       </c>
-      <c r="N22" s="487">
+      <c r="N22" s="310">
         <v>0.59448389176382965</v>
       </c>
-      <c r="O22" s="491">
+      <c r="O22" s="314">
         <v>10.45751893465787</v>
       </c>
-      <c r="P22" s="492">
+      <c r="P22" s="315">
         <v>1.2448227948742443</v>
       </c>
-      <c r="Q22" s="490">
+      <c r="Q22" s="313">
         <v>114.81116546752091</v>
       </c>
-      <c r="R22" s="493">
+      <c r="R22" s="316">
         <v>0.55791701977779073</v>
       </c>
-      <c r="S22" s="491">
+      <c r="S22" s="314">
         <v>256.16633162529126</v>
       </c>
-      <c r="T22" s="487">
+      <c r="T22" s="310">
         <v>1.2448227985998666</v>
       </c>
-      <c r="U22" s="491">
+      <c r="U22" s="314">
         <v>6193.711567662227</v>
       </c>
-      <c r="V22" s="494">
+      <c r="V22" s="317">
         <v>0.59448389176382965</v>
       </c>
-      <c r="W22" s="490">
+      <c r="W22" s="313">
         <v>678.97797027812385</v>
       </c>
-      <c r="X22" s="495">
+      <c r="X22" s="318">
         <v>4.474338216890647E-2</v>
       </c>
-      <c r="Y22" s="491">
+      <c r="Y22" s="314">
         <v>12045.182222631047</v>
       </c>
-      <c r="Z22" s="487">
+      <c r="Z22" s="310">
         <v>0.79375504813585784</v>
       </c>
-      <c r="AA22" s="496">
+      <c r="AA22" s="319">
         <v>0.78142978182591405</v>
       </c>
-      <c r="AB22" s="492">
+      <c r="AB22" s="315">
         <v>0.78582446069871026</v>
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B23" s="397" t="s">
+      <c r="B23" s="510" t="s">
         <v>361</v>
       </c>
-      <c r="C23" s="399" t="s">
+      <c r="C23" s="512" t="s">
         <v>360</v>
       </c>
       <c r="D23" s="272" t="s">
         <v>359</v>
       </c>
-      <c r="F23" s="477">
+      <c r="F23" s="304">
         <v>2</v>
       </c>
-      <c r="G23" s="497">
+      <c r="G23" s="320">
         <v>3.0351665794865492</v>
       </c>
-      <c r="H23" s="498">
+      <c r="H23" s="321">
         <v>1.0887621562694902</v>
       </c>
-      <c r="I23" s="499">
+      <c r="I23" s="322">
         <v>0.54147696489852437</v>
       </c>
-      <c r="J23" s="500">
+      <c r="J23" s="323">
         <v>-1.7769482594175878E-2</v>
       </c>
-      <c r="K23" s="499">
+      <c r="K23" s="322">
         <v>1153057.463279262</v>
       </c>
-      <c r="L23" s="500">
+      <c r="L23" s="323">
         <v>9.9642574759031335E-2</v>
       </c>
-      <c r="M23" s="499">
+      <c r="M23" s="322">
         <v>6.5486547781399701E-2</v>
       </c>
-      <c r="N23" s="501">
+      <c r="N23" s="324">
         <v>0.79656333530459122</v>
       </c>
-      <c r="O23" s="497">
+      <c r="O23" s="320">
         <v>9.5465451063482583</v>
       </c>
-      <c r="P23" s="502">
+      <c r="P23" s="325">
         <v>1.1363839773976245</v>
       </c>
-      <c r="Q23" s="499">
+      <c r="Q23" s="322">
         <v>104.80975236063108</v>
       </c>
-      <c r="R23" s="503">
+      <c r="R23" s="326">
         <v>0.50931583563824789</v>
       </c>
-      <c r="S23" s="497">
+      <c r="S23" s="320">
         <v>233.85120769493298</v>
       </c>
-      <c r="T23" s="504">
+      <c r="T23" s="327">
         <v>1.1363839774407907</v>
       </c>
-      <c r="U23" s="497">
+      <c r="U23" s="320">
         <v>8299.1038320877724</v>
       </c>
-      <c r="V23" s="505">
+      <c r="V23" s="328">
         <v>0.79656333530459111</v>
       </c>
-      <c r="W23" s="499">
+      <c r="W23" s="322">
         <v>870.93585870119603</v>
       </c>
-      <c r="X23" s="506">
+      <c r="X23" s="329">
         <v>5.7393049077144528E-2</v>
       </c>
-      <c r="Y23" s="497">
+      <c r="Y23" s="320">
         <v>13973.183936924224</v>
       </c>
-      <c r="Z23" s="504">
+      <c r="Z23" s="327">
         <v>0.92080676601352374</v>
       </c>
-      <c r="AA23" s="507">
+      <c r="AA23" s="330">
         <v>0.82533790254327</v>
       </c>
-      <c r="AB23" s="508">
+      <c r="AB23" s="331">
         <v>0.82859937794636251</v>
       </c>
     </row>
     <row r="24" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="398"/>
-      <c r="C24" s="400"/>
+      <c r="B24" s="511"/>
+      <c r="C24" s="513"/>
       <c r="D24" s="275">
         <v>0.01</v>
       </c>
-      <c r="F24" s="477">
+      <c r="F24" s="304">
         <v>3</v>
       </c>
-      <c r="G24" s="497">
+      <c r="G24" s="320">
         <v>2.8237553922182821</v>
       </c>
-      <c r="H24" s="498">
+      <c r="H24" s="321">
         <v>1.0129256266815063</v>
       </c>
-      <c r="I24" s="499">
+      <c r="I24" s="322">
         <v>0.54189832980440644</v>
       </c>
-      <c r="J24" s="500">
+      <c r="J24" s="323">
         <v>-1.7348117688293807E-2</v>
       </c>
-      <c r="K24" s="499">
+      <c r="K24" s="322">
         <v>1296465.5946095563</v>
       </c>
-      <c r="L24" s="500">
+      <c r="L24" s="323">
         <v>0.11203532698708835</v>
       </c>
-      <c r="M24" s="499">
+      <c r="M24" s="322">
         <v>8.1445652478306679E-2</v>
       </c>
-      <c r="N24" s="501">
+      <c r="N24" s="324">
         <v>0.99068622155412622</v>
       </c>
-      <c r="O24" s="497">
+      <c r="O24" s="320">
         <v>8.5800105124384451</v>
       </c>
-      <c r="P24" s="502">
+      <c r="P24" s="325">
         <v>1.0213314202804693</v>
       </c>
-      <c r="Q24" s="499">
+      <c r="Q24" s="322">
         <v>94.198347888419804</v>
       </c>
-      <c r="R24" s="503">
+      <c r="R24" s="326">
         <v>0.45775044010650728</v>
       </c>
-      <c r="S24" s="497">
+      <c r="S24" s="320">
         <v>210.17507359377501</v>
       </c>
-      <c r="T24" s="504">
+      <c r="T24" s="327">
         <v>1.0213314202806234</v>
       </c>
-      <c r="U24" s="509">
+      <c r="U24" s="332">
         <v>10321.5996183813</v>
       </c>
-      <c r="V24" s="505">
+      <c r="V24" s="328">
         <v>0.990686221554126</v>
       </c>
-      <c r="W24" s="499">
+      <c r="W24" s="322">
         <v>1039.3384186100384</v>
       </c>
-      <c r="X24" s="506">
+      <c r="X24" s="329">
         <v>6.8490463759298417E-2</v>
       </c>
-      <c r="Y24" s="497">
+      <c r="Y24" s="320">
         <v>14847.621289761073</v>
       </c>
-      <c r="Z24" s="504">
+      <c r="Z24" s="327">
         <v>0.97843055702506343</v>
       </c>
-      <c r="AA24" s="507">
+      <c r="AA24" s="330">
         <v>0.86942063347996512</v>
       </c>
-      <c r="AB24" s="508">
+      <c r="AB24" s="331">
         <v>0.87165103500875141</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B25" s="397" t="s">
+      <c r="B25" s="510" t="s">
         <v>362</v>
       </c>
-      <c r="C25" s="399" t="s">
+      <c r="C25" s="512" t="s">
         <v>360</v>
       </c>
       <c r="D25" s="272" t="s">
         <v>363</v>
       </c>
-      <c r="F25" s="477">
+      <c r="F25" s="304">
         <v>4</v>
       </c>
-      <c r="G25" s="497">
+      <c r="G25" s="320">
         <v>2.7609946634999742</v>
       </c>
-      <c r="H25" s="498">
+      <c r="H25" s="321">
         <v>0.9904123627340794</v>
       </c>
-      <c r="I25" s="499">
+      <c r="I25" s="322">
         <v>0.5420038623301654</v>
       </c>
-      <c r="J25" s="500">
+      <c r="J25" s="323">
         <v>-1.7242585162534851E-2</v>
       </c>
-      <c r="K25" s="499">
+      <c r="K25" s="322">
         <v>1332369.4081878909</v>
       </c>
-      <c r="L25" s="500">
+      <c r="L25" s="323">
         <v>0.11513798972727746</v>
       </c>
-      <c r="M25" s="499">
+      <c r="M25" s="322">
         <v>8.2508453416652389E-2</v>
       </c>
-      <c r="N25" s="501">
+      <c r="N25" s="324">
         <v>1.0036138882107883</v>
       </c>
-      <c r="O25" s="497">
+      <c r="O25" s="320">
         <v>8.3859862160911405</v>
       </c>
-      <c r="P25" s="502">
+      <c r="P25" s="325">
         <v>0.99823551499340302</v>
       </c>
-      <c r="Q25" s="499">
+      <c r="Q25" s="322">
         <v>92.068191038421361</v>
       </c>
-      <c r="R25" s="503">
+      <c r="R25" s="326">
         <v>0.44739908833187014</v>
       </c>
-      <c r="S25" s="497">
+      <c r="S25" s="320">
         <v>205.42227396672689</v>
       </c>
-      <c r="T25" s="504">
+      <c r="T25" s="327">
         <v>0.99823551499366059</v>
       </c>
-      <c r="U25" s="497">
+      <c r="U25" s="320">
         <v>10456.288277945619</v>
       </c>
-      <c r="V25" s="505">
+      <c r="V25" s="328">
         <v>1.0036138882107881</v>
       </c>
-      <c r="W25" s="499">
+      <c r="W25" s="322">
         <v>1063.0410572393989</v>
       </c>
-      <c r="X25" s="506">
+      <c r="X25" s="329">
         <v>7.0052423447284393E-2</v>
       </c>
-      <c r="Y25" s="497">
+      <c r="Y25" s="320">
         <v>14775.49454197187</v>
       </c>
-      <c r="Z25" s="504">
+      <c r="Z25" s="327">
         <v>0.97367753883861075</v>
       </c>
-      <c r="AA25" s="507">
+      <c r="AA25" s="330">
         <v>0.865013655511358</v>
       </c>
-      <c r="AB25" s="508">
+      <c r="AB25" s="331">
         <v>0.86727044060340286</v>
       </c>
     </row>
     <row r="26" spans="2:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="398"/>
-      <c r="C26" s="400"/>
+      <c r="B26" s="511"/>
+      <c r="C26" s="513"/>
       <c r="D26" s="275">
         <v>7</v>
       </c>
-      <c r="F26" s="477">
+      <c r="F26" s="304">
         <v>5</v>
       </c>
-      <c r="G26" s="497">
+      <c r="G26" s="320">
         <v>2.2823487785551779</v>
       </c>
-      <c r="H26" s="498">
+      <c r="H26" s="321">
         <v>0.81871452930901134</v>
       </c>
-      <c r="I26" s="499">
+      <c r="I26" s="322">
         <v>0.54293055937138579</v>
       </c>
-      <c r="J26" s="500">
+      <c r="J26" s="323">
         <v>-1.6315888121314459E-2</v>
       </c>
-      <c r="K26" s="499">
+      <c r="K26" s="322">
         <v>1647415.3592434535</v>
       </c>
-      <c r="L26" s="500">
+      <c r="L26" s="323">
         <v>0.14236298998121633</v>
       </c>
-      <c r="M26" s="499">
+      <c r="M26" s="322">
         <v>9.4293085358386888E-2</v>
       </c>
-      <c r="N26" s="501">
+      <c r="N26" s="324">
         <v>1.1469594460829247</v>
       </c>
-      <c r="O26" s="497">
+      <c r="O26" s="320">
         <v>6.9715690133351389</v>
       </c>
-      <c r="P26" s="502">
+      <c r="P26" s="325">
         <v>0.8298687363670022</v>
       </c>
-      <c r="Q26" s="499">
+      <c r="Q26" s="322">
         <v>76.539566273751959</v>
       </c>
-      <c r="R26" s="503">
+      <c r="R26" s="326">
         <v>0.37193879651554124</v>
       </c>
-      <c r="S26" s="497">
+      <c r="S26" s="320">
         <v>170.77485261645475</v>
       </c>
-      <c r="T26" s="504">
+      <c r="T26" s="327">
         <v>0.82986873651863824</v>
       </c>
-      <c r="U26" s="497">
+      <c r="U26" s="320">
         <v>11949.75353792336</v>
       </c>
-      <c r="V26" s="505">
+      <c r="V26" s="328">
         <v>1.1469594460829247</v>
       </c>
-      <c r="W26" s="499">
+      <c r="W26" s="322">
         <v>1386.0300185703256</v>
       </c>
-      <c r="X26" s="506">
+      <c r="X26" s="329">
         <v>9.1336793729943369E-2</v>
       </c>
-      <c r="Y26" s="497">
+      <c r="Y26" s="320">
         <v>15551.604376211515</v>
       </c>
-      <c r="Z26" s="504">
+      <c r="Z26" s="327">
         <v>1.0248217297233411</v>
       </c>
-      <c r="AA26" s="507">
+      <c r="AA26" s="330">
         <v>0.77976423972716724</v>
       </c>
-      <c r="AB26" s="508">
+      <c r="AB26" s="331">
         <v>0.78285286921396124</v>
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="F27" s="477">
+      <c r="F27" s="304">
         <v>6</v>
       </c>
-      <c r="G27" s="497"/>
-      <c r="H27" s="498"/>
-      <c r="I27" s="499"/>
-      <c r="J27" s="500"/>
-      <c r="K27" s="499"/>
-      <c r="L27" s="500"/>
-      <c r="M27" s="499"/>
-      <c r="N27" s="501"/>
-      <c r="O27" s="497"/>
-      <c r="P27" s="502"/>
-      <c r="Q27" s="499"/>
-      <c r="R27" s="503"/>
-      <c r="S27" s="497"/>
-      <c r="T27" s="504"/>
-      <c r="U27" s="497"/>
-      <c r="V27" s="505"/>
-      <c r="W27" s="499"/>
-      <c r="X27" s="506"/>
-      <c r="Y27" s="497"/>
-      <c r="Z27" s="504"/>
-      <c r="AA27" s="507"/>
-      <c r="AB27" s="508"/>
+      <c r="G27" s="320"/>
+      <c r="H27" s="321"/>
+      <c r="I27" s="322"/>
+      <c r="J27" s="323"/>
+      <c r="K27" s="322"/>
+      <c r="L27" s="323"/>
+      <c r="M27" s="322"/>
+      <c r="N27" s="324"/>
+      <c r="O27" s="320"/>
+      <c r="P27" s="325"/>
+      <c r="Q27" s="322"/>
+      <c r="R27" s="326"/>
+      <c r="S27" s="320"/>
+      <c r="T27" s="327"/>
+      <c r="U27" s="320"/>
+      <c r="V27" s="328"/>
+      <c r="W27" s="322"/>
+      <c r="X27" s="329"/>
+      <c r="Y27" s="320"/>
+      <c r="Z27" s="327"/>
+      <c r="AA27" s="330"/>
+      <c r="AB27" s="331"/>
     </row>
     <row r="28" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="477">
+      <c r="F28" s="304">
         <v>7</v>
       </c>
-      <c r="G28" s="497"/>
-      <c r="H28" s="498"/>
-      <c r="I28" s="499"/>
-      <c r="J28" s="500"/>
-      <c r="K28" s="499"/>
-      <c r="L28" s="500"/>
-      <c r="M28" s="499"/>
-      <c r="N28" s="501"/>
-      <c r="O28" s="497"/>
-      <c r="P28" s="502"/>
-      <c r="Q28" s="499"/>
-      <c r="R28" s="503"/>
-      <c r="S28" s="497"/>
-      <c r="T28" s="504"/>
-      <c r="U28" s="497"/>
-      <c r="V28" s="505"/>
-      <c r="W28" s="499"/>
-      <c r="X28" s="506"/>
-      <c r="Y28" s="497"/>
-      <c r="Z28" s="504"/>
-      <c r="AA28" s="507"/>
-      <c r="AB28" s="508"/>
+      <c r="G28" s="320"/>
+      <c r="H28" s="321"/>
+      <c r="I28" s="322"/>
+      <c r="J28" s="323"/>
+      <c r="K28" s="322"/>
+      <c r="L28" s="323"/>
+      <c r="M28" s="322"/>
+      <c r="N28" s="324"/>
+      <c r="O28" s="320"/>
+      <c r="P28" s="325"/>
+      <c r="Q28" s="322"/>
+      <c r="R28" s="326"/>
+      <c r="S28" s="320"/>
+      <c r="T28" s="327"/>
+      <c r="U28" s="320"/>
+      <c r="V28" s="328"/>
+      <c r="W28" s="322"/>
+      <c r="X28" s="329"/>
+      <c r="Y28" s="320"/>
+      <c r="Z28" s="327"/>
+      <c r="AA28" s="330"/>
+      <c r="AB28" s="331"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="F29" s="477">
+      <c r="F29" s="304">
         <v>8</v>
       </c>
-      <c r="G29" s="497"/>
-      <c r="H29" s="498"/>
-      <c r="I29" s="499"/>
-      <c r="J29" s="500"/>
-      <c r="K29" s="499"/>
-      <c r="L29" s="500"/>
-      <c r="M29" s="499"/>
-      <c r="N29" s="501"/>
-      <c r="O29" s="497"/>
-      <c r="P29" s="502"/>
-      <c r="Q29" s="499"/>
-      <c r="R29" s="503"/>
-      <c r="S29" s="497"/>
-      <c r="T29" s="504"/>
-      <c r="U29" s="497"/>
-      <c r="V29" s="505"/>
-      <c r="W29" s="499"/>
-      <c r="X29" s="506"/>
-      <c r="Y29" s="497"/>
-      <c r="Z29" s="504"/>
-      <c r="AA29" s="507"/>
-      <c r="AB29" s="508"/>
+      <c r="G29" s="320"/>
+      <c r="H29" s="321"/>
+      <c r="I29" s="322"/>
+      <c r="J29" s="323"/>
+      <c r="K29" s="322"/>
+      <c r="L29" s="323"/>
+      <c r="M29" s="322"/>
+      <c r="N29" s="324"/>
+      <c r="O29" s="320"/>
+      <c r="P29" s="325"/>
+      <c r="Q29" s="322"/>
+      <c r="R29" s="326"/>
+      <c r="S29" s="320"/>
+      <c r="T29" s="327"/>
+      <c r="U29" s="320"/>
+      <c r="V29" s="328"/>
+      <c r="W29" s="322"/>
+      <c r="X29" s="329"/>
+      <c r="Y29" s="320"/>
+      <c r="Z29" s="327"/>
+      <c r="AA29" s="330"/>
+      <c r="AB29" s="331"/>
     </row>
     <row r="30" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="477">
+      <c r="F30" s="304">
         <v>9</v>
       </c>
-      <c r="G30" s="497"/>
-      <c r="H30" s="498"/>
-      <c r="I30" s="499"/>
-      <c r="J30" s="500"/>
-      <c r="K30" s="499"/>
-      <c r="L30" s="500"/>
-      <c r="M30" s="499"/>
-      <c r="N30" s="501"/>
-      <c r="O30" s="497"/>
-      <c r="P30" s="502"/>
-      <c r="Q30" s="499"/>
-      <c r="R30" s="503"/>
-      <c r="S30" s="497"/>
-      <c r="T30" s="504"/>
-      <c r="U30" s="497"/>
-      <c r="V30" s="505"/>
-      <c r="W30" s="499"/>
-      <c r="X30" s="506"/>
-      <c r="Y30" s="497"/>
-      <c r="Z30" s="504"/>
-      <c r="AA30" s="507"/>
-      <c r="AB30" s="508"/>
+      <c r="G30" s="320"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="322"/>
+      <c r="J30" s="323"/>
+      <c r="K30" s="322"/>
+      <c r="L30" s="323"/>
+      <c r="M30" s="322"/>
+      <c r="N30" s="324"/>
+      <c r="O30" s="320"/>
+      <c r="P30" s="325"/>
+      <c r="Q30" s="322"/>
+      <c r="R30" s="326"/>
+      <c r="S30" s="320"/>
+      <c r="T30" s="327"/>
+      <c r="U30" s="320"/>
+      <c r="V30" s="328"/>
+      <c r="W30" s="322"/>
+      <c r="X30" s="329"/>
+      <c r="Y30" s="320"/>
+      <c r="Z30" s="327"/>
+      <c r="AA30" s="330"/>
+      <c r="AB30" s="331"/>
     </row>
     <row r="31" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="478">
+      <c r="F31" s="305">
         <v>10</v>
       </c>
-      <c r="G31" s="510"/>
-      <c r="H31" s="511"/>
-      <c r="I31" s="512"/>
-      <c r="J31" s="513"/>
-      <c r="K31" s="512"/>
-      <c r="L31" s="513"/>
-      <c r="M31" s="512"/>
-      <c r="N31" s="514"/>
-      <c r="O31" s="510"/>
-      <c r="P31" s="515"/>
-      <c r="Q31" s="512"/>
-      <c r="R31" s="516"/>
-      <c r="S31" s="510"/>
-      <c r="T31" s="517"/>
-      <c r="U31" s="510"/>
-      <c r="V31" s="518"/>
-      <c r="W31" s="512"/>
-      <c r="X31" s="519"/>
-      <c r="Y31" s="510"/>
-      <c r="Z31" s="517"/>
-      <c r="AA31" s="520"/>
-      <c r="AB31" s="521"/>
+      <c r="G31" s="333"/>
+      <c r="H31" s="334"/>
+      <c r="I31" s="335"/>
+      <c r="J31" s="336"/>
+      <c r="K31" s="335"/>
+      <c r="L31" s="336"/>
+      <c r="M31" s="335"/>
+      <c r="N31" s="337"/>
+      <c r="O31" s="333"/>
+      <c r="P31" s="338"/>
+      <c r="Q31" s="335"/>
+      <c r="R31" s="339"/>
+      <c r="S31" s="333"/>
+      <c r="T31" s="340"/>
+      <c r="U31" s="333"/>
+      <c r="V31" s="341"/>
+      <c r="W31" s="335"/>
+      <c r="X31" s="342"/>
+      <c r="Y31" s="333"/>
+      <c r="Z31" s="340"/>
+      <c r="AA31" s="343"/>
+      <c r="AB31" s="344"/>
     </row>
     <row r="32" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="522" t="s">
+      <c r="F32" s="345" t="s">
         <v>392</v>
       </c>
-      <c r="G32" s="523">
+      <c r="G32" s="346">
         <v>2.778539226153026</v>
       </c>
-      <c r="H32" s="524">
+      <c r="H32" s="347">
         <v>0.99670587426456458</v>
       </c>
-      <c r="I32" s="525">
+      <c r="I32" s="348">
         <v>0.54197436104731023</v>
       </c>
-      <c r="J32" s="526">
+      <c r="J32" s="349">
         <v>-1.7272086445389981E-2</v>
       </c>
-      <c r="K32" s="525">
+      <c r="K32" s="348">
         <v>1322332.6109793072</v>
       </c>
-      <c r="L32" s="526">
+      <c r="L32" s="349">
         <v>0.11427065019906929</v>
       </c>
-      <c r="M32" s="525">
+      <c r="M32" s="348">
         <v>8.2211350785256571E-2</v>
       </c>
-      <c r="N32" s="527">
+      <c r="N32" s="350">
         <v>1</v>
       </c>
-      <c r="O32" s="523">
+      <c r="O32" s="346">
         <v>8.4402250927421463</v>
       </c>
-      <c r="P32" s="528">
+      <c r="P32" s="351">
         <v>1.0046919020624028</v>
       </c>
-      <c r="Q32" s="525">
+      <c r="Q32" s="348">
         <v>92.663669629553837</v>
       </c>
-      <c r="R32" s="529">
+      <c r="R32" s="352">
         <v>0.45029277588876626</v>
       </c>
-      <c r="S32" s="523">
+      <c r="S32" s="346">
         <v>206.75090402786611</v>
       </c>
-      <c r="T32" s="530">
+      <c r="T32" s="353">
         <v>1.0046919020626315</v>
       </c>
-      <c r="U32" s="523">
+      <c r="U32" s="346">
         <v>10418.636490360615</v>
       </c>
-      <c r="V32" s="531">
+      <c r="V32" s="354">
         <v>0.99999999999999978</v>
       </c>
-      <c r="W32" s="525">
+      <c r="W32" s="348">
         <v>1056.4150597889557</v>
       </c>
-      <c r="X32" s="532">
+      <c r="X32" s="355">
         <v>6.9615782570623938E-2</v>
       </c>
-      <c r="Y32" s="523">
+      <c r="Y32" s="346">
         <v>14795.657345549696</v>
       </c>
-      <c r="Z32" s="530">
+      <c r="Z32" s="353">
         <v>0.97500622999733833</v>
       </c>
-      <c r="AA32" s="533">
+      <c r="AA32" s="356">
         <v>0.86624561222473329</v>
       </c>
-      <c r="AB32" s="524">
+      <c r="AB32" s="347">
         <v>0.86849502187535077</v>
       </c>
     </row>
     <row r="33" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="Y33" s="470" t="s">
+      <c r="Y33" s="519" t="s">
         <v>387</v>
       </c>
-      <c r="Z33" s="470"/>
-      <c r="AA33" s="470"/>
-      <c r="AB33" s="470"/>
+      <c r="Z33" s="519"/>
+      <c r="AA33" s="519"/>
+      <c r="AB33" s="519"/>
     </row>
     <row r="34" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="Y34" s="470"/>
-      <c r="Z34" s="470"/>
-      <c r="AA34" s="470"/>
-      <c r="AB34" s="470"/>
+      <c r="Y34" s="519"/>
+      <c r="Z34" s="519"/>
+      <c r="AA34" s="519"/>
+      <c r="AB34" s="519"/>
     </row>
     <row r="35" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="Y35" s="470"/>
-      <c r="Z35" s="470"/>
-      <c r="AA35" s="470"/>
-      <c r="AB35" s="470"/>
+      <c r="Y35" s="519"/>
+      <c r="Z35" s="519"/>
+      <c r="AA35" s="519"/>
+      <c r="AB35" s="519"/>
     </row>
     <row r="36" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="H36" s="534"/>
-      <c r="I36" s="534"/>
-      <c r="J36" s="534"/>
-      <c r="K36" s="534"/>
-      <c r="L36" s="534"/>
-      <c r="M36" s="534"/>
-      <c r="N36" s="534"/>
+      <c r="H36" s="357"/>
+      <c r="I36" s="357"/>
+      <c r="J36" s="357"/>
+      <c r="K36" s="357"/>
+      <c r="L36" s="357"/>
+      <c r="M36" s="357"/>
+      <c r="N36" s="357"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="Y33:AB35"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="F19:AB19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="G20:H20"/>
@@ -26948,24 +26920,16 @@
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="U20:V20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="Y33:AB35"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="28" priority="28">
@@ -27112,19 +27076,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="526" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
+      <c r="B1" s="526"/>
+      <c r="C1" s="526"/>
+      <c r="D1" s="526"/>
       <c r="E1" s="270"/>
       <c r="F1" s="270"/>
-      <c r="G1" s="457" t="s">
+      <c r="G1" s="526" t="s">
         <v>341</v>
       </c>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
+      <c r="H1" s="526"/>
+      <c r="I1" s="526"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="270"/>

--- a/scripts/Modelo_1section.xlsx
+++ b/scripts/Modelo_1section.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hr7o\Documents\Portable Git\ccp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hr7o\Documents\Portable Git\ccp\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4156,528 +4156,528 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="16" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="16" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="16" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="16" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4686,7 +4686,241 @@
     <cellStyle name="Percent 2" xfId="4"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF89C064"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF89C064"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF004821"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF89C064"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF89C064"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF004821"/>
@@ -6845,7 +7079,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>256.16633162529126</c:v>
+                  <c:v>253.6015298469012</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>233.85120769493298</c:v>
@@ -7268,13 +7502,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.82</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84289488128800871</c:v>
+                  <c:v>0.84299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7345,7 +7579,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.78582446069871026</c:v>
+                  <c:v>0.76249679489451971</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.82859937794636251</c:v>
@@ -8711,7 +8945,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12723,15 +12956,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>142876</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12755,15 +12988,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14118,7 +14351,7 @@
   <dimension ref="A1:AX175"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AQ45" sqref="AQ45:AR45"/>
+      <selection activeCell="AS42" sqref="AS42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14338,14 +14571,14 @@
         <v>7</v>
       </c>
       <c r="AC4" s="22"/>
-      <c r="AD4" s="437"/>
-      <c r="AE4" s="437"/>
-      <c r="AF4" s="437"/>
-      <c r="AG4" s="437"/>
-      <c r="AH4" s="437"/>
-      <c r="AI4" s="437"/>
-      <c r="AJ4" s="437"/>
-      <c r="AK4" s="437"/>
+      <c r="AD4" s="443"/>
+      <c r="AE4" s="443"/>
+      <c r="AF4" s="443"/>
+      <c r="AG4" s="443"/>
+      <c r="AH4" s="443"/>
+      <c r="AI4" s="443"/>
+      <c r="AJ4" s="443"/>
+      <c r="AK4" s="443"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="20"/>
       <c r="AN4" s="10"/>
@@ -14558,22 +14791,22 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="32"/>
-      <c r="E8" s="438"/>
-      <c r="F8" s="438"/>
-      <c r="G8" s="438"/>
-      <c r="H8" s="438"/>
-      <c r="I8" s="438"/>
-      <c r="J8" s="438"/>
-      <c r="K8" s="438"/>
-      <c r="L8" s="438"/>
-      <c r="M8" s="438"/>
-      <c r="N8" s="438"/>
-      <c r="O8" s="438"/>
-      <c r="P8" s="438"/>
-      <c r="Q8" s="438"/>
-      <c r="R8" s="438"/>
-      <c r="S8" s="438"/>
-      <c r="T8" s="438"/>
+      <c r="E8" s="444"/>
+      <c r="F8" s="444"/>
+      <c r="G8" s="444"/>
+      <c r="H8" s="444"/>
+      <c r="I8" s="444"/>
+      <c r="J8" s="444"/>
+      <c r="K8" s="444"/>
+      <c r="L8" s="444"/>
+      <c r="M8" s="444"/>
+      <c r="N8" s="444"/>
+      <c r="O8" s="444"/>
+      <c r="P8" s="444"/>
+      <c r="Q8" s="444"/>
+      <c r="R8" s="444"/>
+      <c r="S8" s="444"/>
+      <c r="T8" s="444"/>
       <c r="U8" s="32"/>
       <c r="V8" s="13" t="s">
         <v>18</v>
@@ -14617,22 +14850,22 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="437"/>
-      <c r="F9" s="437"/>
-      <c r="G9" s="437"/>
-      <c r="H9" s="437"/>
-      <c r="I9" s="437"/>
-      <c r="J9" s="437"/>
-      <c r="K9" s="437"/>
-      <c r="L9" s="437"/>
-      <c r="M9" s="437"/>
-      <c r="N9" s="437"/>
-      <c r="O9" s="437"/>
-      <c r="P9" s="437"/>
-      <c r="Q9" s="437"/>
-      <c r="R9" s="437"/>
-      <c r="S9" s="437"/>
-      <c r="T9" s="437"/>
+      <c r="E9" s="443"/>
+      <c r="F9" s="443"/>
+      <c r="G9" s="443"/>
+      <c r="H9" s="443"/>
+      <c r="I9" s="443"/>
+      <c r="J9" s="443"/>
+      <c r="K9" s="443"/>
+      <c r="L9" s="443"/>
+      <c r="M9" s="443"/>
+      <c r="N9" s="443"/>
+      <c r="O9" s="443"/>
+      <c r="P9" s="443"/>
+      <c r="Q9" s="443"/>
+      <c r="R9" s="443"/>
+      <c r="S9" s="443"/>
+      <c r="T9" s="443"/>
       <c r="U9" s="12"/>
       <c r="V9" s="13" t="s">
         <v>20</v>
@@ -14676,22 +14909,22 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="437"/>
-      <c r="F10" s="437"/>
-      <c r="G10" s="437"/>
-      <c r="H10" s="437"/>
-      <c r="I10" s="437"/>
-      <c r="J10" s="437"/>
-      <c r="K10" s="437"/>
-      <c r="L10" s="437"/>
-      <c r="M10" s="437"/>
-      <c r="N10" s="437"/>
-      <c r="O10" s="437"/>
-      <c r="P10" s="437"/>
-      <c r="Q10" s="437"/>
-      <c r="R10" s="437"/>
-      <c r="S10" s="437"/>
-      <c r="T10" s="437"/>
+      <c r="E10" s="443"/>
+      <c r="F10" s="443"/>
+      <c r="G10" s="443"/>
+      <c r="H10" s="443"/>
+      <c r="I10" s="443"/>
+      <c r="J10" s="443"/>
+      <c r="K10" s="443"/>
+      <c r="L10" s="443"/>
+      <c r="M10" s="443"/>
+      <c r="N10" s="443"/>
+      <c r="O10" s="443"/>
+      <c r="P10" s="443"/>
+      <c r="Q10" s="443"/>
+      <c r="R10" s="443"/>
+      <c r="S10" s="443"/>
+      <c r="T10" s="443"/>
       <c r="U10" s="12"/>
       <c r="V10" s="13" t="s">
         <v>22</v>
@@ -14966,46 +15199,46 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="434" t="s">
+      <c r="B15" s="440" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="435"/>
-      <c r="D15" s="435"/>
-      <c r="E15" s="435"/>
-      <c r="F15" s="435"/>
-      <c r="G15" s="435"/>
-      <c r="H15" s="435"/>
-      <c r="I15" s="435"/>
-      <c r="J15" s="435"/>
-      <c r="K15" s="435"/>
-      <c r="L15" s="435"/>
-      <c r="M15" s="435"/>
-      <c r="N15" s="435"/>
-      <c r="O15" s="435"/>
-      <c r="P15" s="435"/>
-      <c r="Q15" s="435"/>
-      <c r="R15" s="435"/>
-      <c r="S15" s="435"/>
-      <c r="T15" s="435"/>
-      <c r="U15" s="435"/>
-      <c r="V15" s="435"/>
-      <c r="W15" s="435"/>
-      <c r="X15" s="435"/>
-      <c r="Y15" s="435"/>
-      <c r="Z15" s="435"/>
-      <c r="AA15" s="435"/>
-      <c r="AB15" s="435"/>
-      <c r="AC15" s="435"/>
-      <c r="AD15" s="435"/>
-      <c r="AE15" s="435"/>
-      <c r="AF15" s="435"/>
-      <c r="AG15" s="435"/>
-      <c r="AH15" s="435"/>
-      <c r="AI15" s="435"/>
-      <c r="AJ15" s="435"/>
-      <c r="AK15" s="435"/>
-      <c r="AL15" s="435"/>
-      <c r="AM15" s="436"/>
+      <c r="C15" s="441"/>
+      <c r="D15" s="441"/>
+      <c r="E15" s="441"/>
+      <c r="F15" s="441"/>
+      <c r="G15" s="441"/>
+      <c r="H15" s="441"/>
+      <c r="I15" s="441"/>
+      <c r="J15" s="441"/>
+      <c r="K15" s="441"/>
+      <c r="L15" s="441"/>
+      <c r="M15" s="441"/>
+      <c r="N15" s="441"/>
+      <c r="O15" s="441"/>
+      <c r="P15" s="441"/>
+      <c r="Q15" s="441"/>
+      <c r="R15" s="441"/>
+      <c r="S15" s="441"/>
+      <c r="T15" s="441"/>
+      <c r="U15" s="441"/>
+      <c r="V15" s="441"/>
+      <c r="W15" s="441"/>
+      <c r="X15" s="441"/>
+      <c r="Y15" s="441"/>
+      <c r="Z15" s="441"/>
+      <c r="AA15" s="441"/>
+      <c r="AB15" s="441"/>
+      <c r="AC15" s="441"/>
+      <c r="AD15" s="441"/>
+      <c r="AE15" s="441"/>
+      <c r="AF15" s="441"/>
+      <c r="AG15" s="441"/>
+      <c r="AH15" s="441"/>
+      <c r="AI15" s="441"/>
+      <c r="AJ15" s="441"/>
+      <c r="AK15" s="441"/>
+      <c r="AL15" s="441"/>
+      <c r="AM15" s="442"/>
       <c r="AN15" s="10"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
@@ -15023,50 +15256,50 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="439" t="s">
+      <c r="B16" s="445" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="440"/>
-      <c r="D16" s="440"/>
-      <c r="E16" s="440"/>
-      <c r="F16" s="440"/>
-      <c r="G16" s="440"/>
-      <c r="H16" s="440"/>
-      <c r="I16" s="440"/>
-      <c r="J16" s="440"/>
-      <c r="K16" s="440"/>
-      <c r="L16" s="440"/>
-      <c r="M16" s="440"/>
-      <c r="N16" s="440"/>
-      <c r="O16" s="440"/>
-      <c r="P16" s="440"/>
-      <c r="Q16" s="440"/>
-      <c r="R16" s="440"/>
+      <c r="C16" s="446"/>
+      <c r="D16" s="446"/>
+      <c r="E16" s="446"/>
+      <c r="F16" s="446"/>
+      <c r="G16" s="446"/>
+      <c r="H16" s="446"/>
+      <c r="I16" s="446"/>
+      <c r="J16" s="446"/>
+      <c r="K16" s="446"/>
+      <c r="L16" s="446"/>
+      <c r="M16" s="446"/>
+      <c r="N16" s="446"/>
+      <c r="O16" s="446"/>
+      <c r="P16" s="446"/>
+      <c r="Q16" s="446"/>
+      <c r="R16" s="446"/>
       <c r="S16" s="13"/>
-      <c r="T16" s="434" t="s">
+      <c r="T16" s="440" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="435"/>
-      <c r="V16" s="435"/>
-      <c r="W16" s="435"/>
-      <c r="X16" s="435"/>
-      <c r="Y16" s="436"/>
-      <c r="Z16" s="434" t="s">
+      <c r="U16" s="441"/>
+      <c r="V16" s="441"/>
+      <c r="W16" s="441"/>
+      <c r="X16" s="441"/>
+      <c r="Y16" s="442"/>
+      <c r="Z16" s="440" t="s">
         <v>34</v>
       </c>
-      <c r="AA16" s="435"/>
-      <c r="AB16" s="435"/>
-      <c r="AC16" s="435"/>
-      <c r="AD16" s="435"/>
-      <c r="AE16" s="435"/>
-      <c r="AF16" s="435"/>
-      <c r="AG16" s="435"/>
-      <c r="AH16" s="435"/>
-      <c r="AI16" s="435"/>
-      <c r="AJ16" s="435"/>
-      <c r="AK16" s="435"/>
-      <c r="AL16" s="435"/>
-      <c r="AM16" s="436"/>
+      <c r="AA16" s="441"/>
+      <c r="AB16" s="441"/>
+      <c r="AC16" s="441"/>
+      <c r="AD16" s="441"/>
+      <c r="AE16" s="441"/>
+      <c r="AF16" s="441"/>
+      <c r="AG16" s="441"/>
+      <c r="AH16" s="441"/>
+      <c r="AI16" s="441"/>
+      <c r="AJ16" s="441"/>
+      <c r="AK16" s="441"/>
+      <c r="AL16" s="441"/>
+      <c r="AM16" s="442"/>
       <c r="AN16" s="10"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
@@ -15102,38 +15335,38 @@
       <c r="Q17" s="217"/>
       <c r="R17" s="217"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="434" t="s">
+      <c r="T17" s="440" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="435"/>
-      <c r="V17" s="436"/>
-      <c r="W17" s="434" t="s">
+      <c r="U17" s="441"/>
+      <c r="V17" s="442"/>
+      <c r="W17" s="440" t="s">
         <v>36</v>
       </c>
-      <c r="X17" s="435"/>
-      <c r="Y17" s="436"/>
-      <c r="Z17" s="434" t="s">
+      <c r="X17" s="441"/>
+      <c r="Y17" s="442"/>
+      <c r="Z17" s="440" t="s">
         <v>35</v>
       </c>
-      <c r="AA17" s="435"/>
-      <c r="AB17" s="436"/>
-      <c r="AC17" s="434" t="s">
+      <c r="AA17" s="441"/>
+      <c r="AB17" s="442"/>
+      <c r="AC17" s="440" t="s">
         <v>36</v>
       </c>
-      <c r="AD17" s="435"/>
-      <c r="AE17" s="436"/>
-      <c r="AF17" s="434" t="s">
+      <c r="AD17" s="441"/>
+      <c r="AE17" s="442"/>
+      <c r="AF17" s="440" t="s">
         <v>35</v>
       </c>
-      <c r="AG17" s="435"/>
-      <c r="AH17" s="436"/>
-      <c r="AI17" s="434" t="s">
+      <c r="AG17" s="441"/>
+      <c r="AH17" s="442"/>
+      <c r="AI17" s="440" t="s">
         <v>36</v>
       </c>
-      <c r="AJ17" s="435"/>
-      <c r="AK17" s="435"/>
-      <c r="AL17" s="435"/>
-      <c r="AM17" s="436"/>
+      <c r="AJ17" s="441"/>
+      <c r="AK17" s="441"/>
+      <c r="AL17" s="441"/>
+      <c r="AM17" s="442"/>
       <c r="AN17" s="10"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
@@ -15173,26 +15406,26 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="444"/>
-      <c r="U18" s="445"/>
-      <c r="V18" s="446"/>
-      <c r="W18" s="444"/>
-      <c r="X18" s="445"/>
-      <c r="Y18" s="446"/>
-      <c r="Z18" s="444"/>
-      <c r="AA18" s="445"/>
-      <c r="AB18" s="446"/>
-      <c r="AC18" s="444"/>
-      <c r="AD18" s="445"/>
-      <c r="AE18" s="446"/>
-      <c r="AF18" s="444"/>
-      <c r="AG18" s="445"/>
-      <c r="AH18" s="446"/>
-      <c r="AI18" s="444"/>
-      <c r="AJ18" s="445"/>
-      <c r="AK18" s="445"/>
-      <c r="AL18" s="445"/>
-      <c r="AM18" s="446"/>
+      <c r="T18" s="450"/>
+      <c r="U18" s="451"/>
+      <c r="V18" s="452"/>
+      <c r="W18" s="450"/>
+      <c r="X18" s="451"/>
+      <c r="Y18" s="452"/>
+      <c r="Z18" s="450"/>
+      <c r="AA18" s="451"/>
+      <c r="AB18" s="452"/>
+      <c r="AC18" s="450"/>
+      <c r="AD18" s="451"/>
+      <c r="AE18" s="452"/>
+      <c r="AF18" s="450"/>
+      <c r="AG18" s="451"/>
+      <c r="AH18" s="452"/>
+      <c r="AI18" s="450"/>
+      <c r="AJ18" s="451"/>
+      <c r="AK18" s="451"/>
+      <c r="AL18" s="451"/>
+      <c r="AM18" s="452"/>
       <c r="AN18" s="10"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
@@ -15230,21 +15463,21 @@
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
-      <c r="T19" s="444"/>
-      <c r="U19" s="445"/>
-      <c r="V19" s="446"/>
-      <c r="W19" s="444"/>
-      <c r="X19" s="445"/>
-      <c r="Y19" s="446"/>
-      <c r="Z19" s="444"/>
-      <c r="AA19" s="445"/>
-      <c r="AB19" s="446"/>
-      <c r="AC19" s="444"/>
-      <c r="AD19" s="445"/>
-      <c r="AE19" s="446"/>
-      <c r="AF19" s="444"/>
-      <c r="AG19" s="445"/>
-      <c r="AH19" s="446"/>
+      <c r="T19" s="450"/>
+      <c r="U19" s="451"/>
+      <c r="V19" s="452"/>
+      <c r="W19" s="450"/>
+      <c r="X19" s="451"/>
+      <c r="Y19" s="452"/>
+      <c r="Z19" s="450"/>
+      <c r="AA19" s="451"/>
+      <c r="AB19" s="452"/>
+      <c r="AC19" s="450"/>
+      <c r="AD19" s="451"/>
+      <c r="AE19" s="452"/>
+      <c r="AF19" s="450"/>
+      <c r="AG19" s="451"/>
+      <c r="AH19" s="452"/>
       <c r="AI19" s="47"/>
       <c r="AJ19" s="46"/>
       <c r="AK19" s="46"/>
@@ -15344,22 +15577,22 @@
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
-      <c r="T21" s="431">
+      <c r="T21" s="437">
         <v>223763</v>
       </c>
-      <c r="U21" s="432"/>
-      <c r="V21" s="433"/>
-      <c r="W21" s="422">
+      <c r="U21" s="438"/>
+      <c r="V21" s="439"/>
+      <c r="W21" s="428">
         <v>327439.09999999998</v>
       </c>
-      <c r="X21" s="423"/>
-      <c r="Y21" s="424"/>
-      <c r="Z21" s="441"/>
-      <c r="AA21" s="442"/>
-      <c r="AB21" s="443"/>
-      <c r="AC21" s="404"/>
-      <c r="AD21" s="405"/>
-      <c r="AE21" s="406"/>
+      <c r="X21" s="429"/>
+      <c r="Y21" s="430"/>
+      <c r="Z21" s="447"/>
+      <c r="AA21" s="448"/>
+      <c r="AB21" s="449"/>
+      <c r="AC21" s="410"/>
+      <c r="AD21" s="411"/>
+      <c r="AE21" s="412"/>
       <c r="AF21" s="38"/>
       <c r="AG21" s="38"/>
       <c r="AH21" s="38"/>
@@ -15462,22 +15695,22 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="401">
+      <c r="T23" s="407">
         <v>26.18</v>
       </c>
-      <c r="U23" s="402"/>
-      <c r="V23" s="403"/>
-      <c r="W23" s="422">
+      <c r="U23" s="408"/>
+      <c r="V23" s="409"/>
+      <c r="W23" s="428">
         <v>499.4</v>
       </c>
-      <c r="X23" s="423"/>
-      <c r="Y23" s="424"/>
-      <c r="Z23" s="425"/>
-      <c r="AA23" s="426"/>
-      <c r="AB23" s="427"/>
-      <c r="AC23" s="410"/>
-      <c r="AD23" s="411"/>
-      <c r="AE23" s="412"/>
+      <c r="X23" s="429"/>
+      <c r="Y23" s="430"/>
+      <c r="Z23" s="431"/>
+      <c r="AA23" s="432"/>
+      <c r="AB23" s="433"/>
+      <c r="AC23" s="416"/>
+      <c r="AD23" s="417"/>
+      <c r="AE23" s="418"/>
       <c r="AF23" s="46"/>
       <c r="AG23" s="46"/>
       <c r="AH23" s="46"/>
@@ -15523,22 +15756,22 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="401">
+      <c r="T24" s="407">
         <v>20.56</v>
       </c>
-      <c r="U24" s="402"/>
-      <c r="V24" s="403"/>
-      <c r="W24" s="422">
+      <c r="U24" s="408"/>
+      <c r="V24" s="409"/>
+      <c r="W24" s="428">
         <v>84.8</v>
       </c>
-      <c r="X24" s="423"/>
-      <c r="Y24" s="424"/>
-      <c r="Z24" s="425"/>
-      <c r="AA24" s="426"/>
-      <c r="AB24" s="427"/>
-      <c r="AC24" s="410"/>
-      <c r="AD24" s="411"/>
-      <c r="AE24" s="412"/>
+      <c r="X24" s="429"/>
+      <c r="Y24" s="430"/>
+      <c r="Z24" s="431"/>
+      <c r="AA24" s="432"/>
+      <c r="AB24" s="433"/>
+      <c r="AC24" s="416"/>
+      <c r="AD24" s="417"/>
+      <c r="AE24" s="418"/>
       <c r="AF24" s="46"/>
       <c r="AG24" s="46"/>
       <c r="AH24" s="46"/>
@@ -15550,11 +15783,11 @@
       <c r="AN24" s="10"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
-      <c r="AQ24" s="358" t="s">
+      <c r="AQ24" s="364" t="s">
         <v>314</v>
       </c>
-      <c r="AR24" s="359"/>
-      <c r="AS24" s="360"/>
+      <c r="AR24" s="365"/>
+      <c r="AS24" s="366"/>
       <c r="AT24" s="9"/>
       <c r="AU24" s="9"/>
       <c r="AV24" s="9"/>
@@ -15609,10 +15842,10 @@
       <c r="AN25" s="10"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="60"/>
-      <c r="AQ25" s="376" t="s">
+      <c r="AQ25" s="382" t="s">
         <v>315</v>
       </c>
-      <c r="AR25" s="377"/>
+      <c r="AR25" s="383"/>
       <c r="AS25" s="264">
         <v>0.55924644749270025</v>
       </c>
@@ -15670,10 +15903,10 @@
       <c r="AN26" s="10"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="60"/>
-      <c r="AQ26" s="361" t="s">
+      <c r="AQ26" s="367" t="s">
         <v>316</v>
       </c>
-      <c r="AR26" s="362"/>
+      <c r="AR26" s="368"/>
       <c r="AS26" s="259">
         <v>11571935.651680376</v>
       </c>
@@ -15717,9 +15950,9 @@
       <c r="Z27" s="55"/>
       <c r="AA27" s="61"/>
       <c r="AB27" s="57"/>
-      <c r="AC27" s="428"/>
-      <c r="AD27" s="429"/>
-      <c r="AE27" s="430"/>
+      <c r="AC27" s="434"/>
+      <c r="AD27" s="435"/>
+      <c r="AE27" s="436"/>
       <c r="AF27" s="46"/>
       <c r="AG27" s="46"/>
       <c r="AH27" s="46"/>
@@ -15731,10 +15964,10 @@
       <c r="AN27" s="10"/>
       <c r="AO27" s="9"/>
       <c r="AP27" s="60"/>
-      <c r="AQ27" s="361" t="s">
+      <c r="AQ27" s="367" t="s">
         <v>317</v>
       </c>
-      <c r="AR27" s="362"/>
+      <c r="AR27" s="368"/>
       <c r="AS27" s="263">
         <v>2.7877223340368249</v>
       </c>
@@ -15792,10 +16025,10 @@
       <c r="AN28" s="10"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="60"/>
-      <c r="AQ28" s="361" t="s">
+      <c r="AQ28" s="367" t="s">
         <v>318</v>
       </c>
-      <c r="AR28" s="362"/>
+      <c r="AR28" s="368"/>
       <c r="AS28" s="263">
         <v>8.2211350785256571E-2</v>
       </c>
@@ -15830,22 +16063,22 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
-      <c r="T29" s="431">
+      <c r="T29" s="437">
         <v>10407</v>
       </c>
-      <c r="U29" s="432"/>
-      <c r="V29" s="433"/>
-      <c r="W29" s="422">
+      <c r="U29" s="438"/>
+      <c r="V29" s="439"/>
+      <c r="W29" s="428">
         <v>0</v>
       </c>
-      <c r="X29" s="423"/>
-      <c r="Y29" s="424"/>
-      <c r="Z29" s="425"/>
-      <c r="AA29" s="426"/>
-      <c r="AB29" s="427"/>
-      <c r="AC29" s="410"/>
-      <c r="AD29" s="411"/>
-      <c r="AE29" s="412"/>
+      <c r="X29" s="429"/>
+      <c r="Y29" s="430"/>
+      <c r="Z29" s="431"/>
+      <c r="AA29" s="432"/>
+      <c r="AB29" s="433"/>
+      <c r="AC29" s="416"/>
+      <c r="AD29" s="417"/>
+      <c r="AE29" s="418"/>
       <c r="AF29" s="46"/>
       <c r="AG29" s="46"/>
       <c r="AH29" s="46"/>
@@ -15857,10 +16090,10 @@
       <c r="AN29" s="10"/>
       <c r="AO29" s="9"/>
       <c r="AP29" s="60"/>
-      <c r="AQ29" s="361" t="s">
+      <c r="AQ29" s="367" t="s">
         <v>319</v>
       </c>
-      <c r="AR29" s="362"/>
+      <c r="AR29" s="368"/>
       <c r="AS29" s="263">
         <v>8.4008093181763428</v>
       </c>
@@ -15918,10 +16151,10 @@
       <c r="AN30" s="10"/>
       <c r="AO30" s="9"/>
       <c r="AP30" s="60"/>
-      <c r="AQ30" s="361" t="s">
+      <c r="AQ30" s="367" t="s">
         <v>320</v>
       </c>
-      <c r="AR30" s="362"/>
+      <c r="AR30" s="368"/>
       <c r="AS30" s="263">
         <v>4.9833078267952313</v>
       </c>
@@ -15956,22 +16189,22 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="401">
+      <c r="T31" s="407">
         <v>105.923</v>
       </c>
-      <c r="U31" s="402"/>
-      <c r="V31" s="403"/>
-      <c r="W31" s="422">
+      <c r="U31" s="408"/>
+      <c r="V31" s="409"/>
+      <c r="W31" s="428">
         <v>499.5</v>
       </c>
-      <c r="X31" s="423"/>
-      <c r="Y31" s="424"/>
-      <c r="Z31" s="425"/>
-      <c r="AA31" s="426"/>
-      <c r="AB31" s="427"/>
-      <c r="AC31" s="410"/>
-      <c r="AD31" s="411"/>
-      <c r="AE31" s="412"/>
+      <c r="X31" s="429"/>
+      <c r="Y31" s="430"/>
+      <c r="Z31" s="431"/>
+      <c r="AA31" s="432"/>
+      <c r="AB31" s="433"/>
+      <c r="AC31" s="416"/>
+      <c r="AD31" s="417"/>
+      <c r="AE31" s="418"/>
       <c r="AF31" s="47"/>
       <c r="AG31" s="46"/>
       <c r="AH31" s="46"/>
@@ -15983,8 +16216,8 @@
       <c r="AN31" s="10"/>
       <c r="AO31" s="9"/>
       <c r="AP31" s="60"/>
-      <c r="AQ31" s="363"/>
-      <c r="AR31" s="364"/>
+      <c r="AQ31" s="369"/>
+      <c r="AR31" s="370"/>
       <c r="AS31" s="261"/>
       <c r="AT31" s="60"/>
       <c r="AU31" s="60"/>
@@ -16017,22 +16250,22 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="401">
+      <c r="T32" s="407">
         <v>143.01</v>
       </c>
-      <c r="U32" s="402"/>
-      <c r="V32" s="403"/>
-      <c r="W32" s="422">
+      <c r="U32" s="408"/>
+      <c r="V32" s="409"/>
+      <c r="W32" s="428">
         <v>84.899999999999991</v>
       </c>
-      <c r="X32" s="423"/>
-      <c r="Y32" s="424"/>
-      <c r="Z32" s="425"/>
-      <c r="AA32" s="426"/>
-      <c r="AB32" s="427"/>
-      <c r="AC32" s="410"/>
-      <c r="AD32" s="411"/>
-      <c r="AE32" s="412"/>
+      <c r="X32" s="429"/>
+      <c r="Y32" s="430"/>
+      <c r="Z32" s="431"/>
+      <c r="AA32" s="432"/>
+      <c r="AB32" s="433"/>
+      <c r="AC32" s="416"/>
+      <c r="AD32" s="417"/>
+      <c r="AE32" s="418"/>
       <c r="AF32" s="47"/>
       <c r="AG32" s="46"/>
       <c r="AH32" s="46"/>
@@ -16044,10 +16277,10 @@
       <c r="AN32" s="10"/>
       <c r="AO32" s="9"/>
       <c r="AP32" s="60"/>
-      <c r="AQ32" s="361" t="s">
+      <c r="AQ32" s="367" t="s">
         <v>321</v>
       </c>
-      <c r="AR32" s="362"/>
+      <c r="AR32" s="368"/>
       <c r="AS32" s="260">
         <v>0.84289488128800871</v>
       </c>
@@ -16105,10 +16338,10 @@
       <c r="AN33" s="10"/>
       <c r="AO33" s="9"/>
       <c r="AP33" s="60"/>
-      <c r="AQ33" s="365" t="s">
+      <c r="AQ33" s="371" t="s">
         <v>335</v>
       </c>
-      <c r="AR33" s="366"/>
+      <c r="AR33" s="372"/>
       <c r="AS33" s="262">
         <v>15174.936211012813</v>
       </c>
@@ -16168,10 +16401,10 @@
       <c r="AN34" s="10"/>
       <c r="AO34" s="9"/>
       <c r="AP34" s="60"/>
-      <c r="AQ34" s="365" t="s">
+      <c r="AQ34" s="371" t="s">
         <v>355</v>
       </c>
-      <c r="AR34" s="366"/>
+      <c r="AR34" s="372"/>
       <c r="AS34" s="262">
         <v>10418.636490360617</v>
       </c>
@@ -16208,22 +16441,22 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="401">
+      <c r="T35" s="407">
         <v>15500</v>
       </c>
-      <c r="U35" s="402"/>
-      <c r="V35" s="403"/>
-      <c r="W35" s="422">
+      <c r="U35" s="408"/>
+      <c r="V35" s="409"/>
+      <c r="W35" s="428">
         <v>0.1</v>
       </c>
-      <c r="X35" s="423"/>
-      <c r="Y35" s="424"/>
-      <c r="Z35" s="425"/>
-      <c r="AA35" s="426"/>
-      <c r="AB35" s="427"/>
-      <c r="AC35" s="410"/>
-      <c r="AD35" s="411"/>
-      <c r="AE35" s="412"/>
+      <c r="X35" s="429"/>
+      <c r="Y35" s="430"/>
+      <c r="Z35" s="431"/>
+      <c r="AA35" s="432"/>
+      <c r="AB35" s="433"/>
+      <c r="AC35" s="416"/>
+      <c r="AD35" s="417"/>
+      <c r="AE35" s="418"/>
       <c r="AF35" s="12"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
@@ -16269,14 +16502,14 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="419">
+      <c r="T36" s="425">
         <v>15610</v>
       </c>
-      <c r="U36" s="420"/>
-      <c r="V36" s="420"/>
-      <c r="W36" s="420"/>
-      <c r="X36" s="420"/>
-      <c r="Y36" s="421"/>
+      <c r="U36" s="426"/>
+      <c r="V36" s="426"/>
+      <c r="W36" s="426"/>
+      <c r="X36" s="426"/>
+      <c r="Y36" s="427"/>
       <c r="Z36" s="66"/>
       <c r="AA36" s="58"/>
       <c r="AB36" s="58"/>
@@ -16293,13 +16526,13 @@
       <c r="AM36" s="48"/>
       <c r="AN36" s="10"/>
       <c r="AO36" s="9"/>
-      <c r="AP36" s="447" t="s">
+      <c r="AP36" s="453" t="s">
         <v>364</v>
       </c>
-      <c r="AQ36" s="448"/>
-      <c r="AR36" s="448"/>
-      <c r="AS36" s="449"/>
-      <c r="AT36" s="450" t="s">
+      <c r="AQ36" s="454"/>
+      <c r="AR36" s="454"/>
+      <c r="AS36" s="455"/>
+      <c r="AT36" s="456" t="s">
         <v>365</v>
       </c>
       <c r="AU36" s="60"/>
@@ -16357,14 +16590,14 @@
       <c r="AP37" s="276" t="s">
         <v>366</v>
       </c>
-      <c r="AQ37" s="451" t="s">
+      <c r="AQ37" s="457" t="s">
         <v>367</v>
       </c>
-      <c r="AR37" s="451"/>
+      <c r="AR37" s="457"/>
       <c r="AS37" s="277" t="s">
         <v>368</v>
       </c>
-      <c r="AT37" s="450"/>
+      <c r="AT37" s="456"/>
       <c r="AU37" s="60"/>
       <c r="AV37" s="60"/>
       <c r="AW37" s="9"/>
@@ -16395,14 +16628,14 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
-      <c r="T38" s="401">
+      <c r="T38" s="407">
         <v>9394</v>
       </c>
-      <c r="U38" s="402"/>
-      <c r="V38" s="402"/>
-      <c r="W38" s="402"/>
-      <c r="X38" s="402"/>
-      <c r="Y38" s="403"/>
+      <c r="U38" s="408"/>
+      <c r="V38" s="408"/>
+      <c r="W38" s="408"/>
+      <c r="X38" s="408"/>
+      <c r="Y38" s="409"/>
       <c r="Z38" s="66"/>
       <c r="AA38" s="58"/>
       <c r="AB38" s="58"/>
@@ -16422,14 +16655,14 @@
       <c r="AP38" s="278" t="s">
         <v>326</v>
       </c>
-      <c r="AQ38" s="452" t="s">
+      <c r="AQ38" s="458" t="s">
         <v>369</v>
       </c>
-      <c r="AR38" s="452"/>
+      <c r="AR38" s="458"/>
       <c r="AS38" s="279" t="s">
         <v>67</v>
       </c>
-      <c r="AT38" s="450"/>
+      <c r="AT38" s="456"/>
       <c r="AU38" s="60"/>
       <c r="AV38" s="60"/>
       <c r="AW38" s="9"/>
@@ -16485,14 +16718,14 @@
       <c r="AP39" s="306">
         <v>8000</v>
       </c>
-      <c r="AQ39" s="454">
+      <c r="AQ39" s="459">
         <v>230</v>
       </c>
-      <c r="AR39" s="455"/>
+      <c r="AR39" s="460"/>
       <c r="AS39" s="280">
-        <v>0.83</v>
-      </c>
-      <c r="AT39" s="450"/>
+        <v>0.8</v>
+      </c>
+      <c r="AT39" s="456"/>
       <c r="AU39" s="9"/>
       <c r="AV39" s="9"/>
       <c r="AW39" s="9"/>
@@ -16523,22 +16756,22 @@
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="401">
+      <c r="T40" s="407">
         <v>205580</v>
       </c>
-      <c r="U40" s="402"/>
-      <c r="V40" s="403"/>
-      <c r="W40" s="404">
+      <c r="U40" s="408"/>
+      <c r="V40" s="409"/>
+      <c r="W40" s="410">
         <v>0</v>
       </c>
-      <c r="X40" s="405"/>
-      <c r="Y40" s="406"/>
-      <c r="Z40" s="407"/>
-      <c r="AA40" s="408"/>
-      <c r="AB40" s="409"/>
-      <c r="AC40" s="410"/>
-      <c r="AD40" s="411"/>
-      <c r="AE40" s="412"/>
+      <c r="X40" s="411"/>
+      <c r="Y40" s="412"/>
+      <c r="Z40" s="413"/>
+      <c r="AA40" s="414"/>
+      <c r="AB40" s="415"/>
+      <c r="AC40" s="416"/>
+      <c r="AD40" s="417"/>
+      <c r="AE40" s="418"/>
       <c r="AF40" s="46"/>
       <c r="AG40" s="46"/>
       <c r="AH40" s="46"/>
@@ -16552,14 +16785,14 @@
       <c r="AP40" s="306">
         <v>9000</v>
       </c>
-      <c r="AQ40" s="454">
+      <c r="AQ40" s="459">
         <v>220</v>
       </c>
-      <c r="AR40" s="455"/>
+      <c r="AR40" s="460"/>
       <c r="AS40" s="280">
-        <v>0.82</v>
-      </c>
-      <c r="AT40" s="450"/>
+        <v>0.83</v>
+      </c>
+      <c r="AT40" s="456"/>
       <c r="AU40" s="9"/>
       <c r="AV40" s="9"/>
       <c r="AW40" s="9"/>
@@ -16590,22 +16823,22 @@
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
-      <c r="T41" s="413">
+      <c r="T41" s="419">
         <v>0.83199999999999996</v>
       </c>
-      <c r="U41" s="414"/>
-      <c r="V41" s="415"/>
-      <c r="W41" s="404">
+      <c r="U41" s="420"/>
+      <c r="V41" s="421"/>
+      <c r="W41" s="410">
         <v>0</v>
       </c>
-      <c r="X41" s="405"/>
-      <c r="Y41" s="406"/>
-      <c r="Z41" s="416"/>
-      <c r="AA41" s="417"/>
-      <c r="AB41" s="418"/>
-      <c r="AC41" s="410"/>
-      <c r="AD41" s="411"/>
-      <c r="AE41" s="412"/>
+      <c r="X41" s="411"/>
+      <c r="Y41" s="412"/>
+      <c r="Z41" s="422"/>
+      <c r="AA41" s="423"/>
+      <c r="AB41" s="424"/>
+      <c r="AC41" s="416"/>
+      <c r="AD41" s="417"/>
+      <c r="AE41" s="418"/>
       <c r="AF41" s="46"/>
       <c r="AG41" s="46"/>
       <c r="AH41" s="46"/>
@@ -16619,14 +16852,14 @@
       <c r="AP41" s="306">
         <v>10418.636490360617</v>
       </c>
-      <c r="AQ41" s="454">
+      <c r="AQ41" s="459">
         <v>205.78537918281884</v>
       </c>
-      <c r="AR41" s="455"/>
+      <c r="AR41" s="460"/>
       <c r="AS41" s="280">
-        <v>0.84289488128800871</v>
-      </c>
-      <c r="AT41" s="450"/>
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AT41" s="456"/>
       <c r="AU41" s="9"/>
       <c r="AV41" s="9"/>
       <c r="AW41" s="9"/>
@@ -16680,10 +16913,10 @@
       <c r="AN42" s="10"/>
       <c r="AO42" s="9"/>
       <c r="AP42" s="306"/>
-      <c r="AQ42" s="453"/>
-      <c r="AR42" s="453"/>
+      <c r="AQ42" s="461"/>
+      <c r="AR42" s="461"/>
       <c r="AS42" s="280"/>
-      <c r="AT42" s="450"/>
+      <c r="AT42" s="456"/>
       <c r="AU42" s="9"/>
       <c r="AV42" s="9"/>
       <c r="AW42" s="9"/>
@@ -16737,10 +16970,10 @@
       <c r="AN43" s="10"/>
       <c r="AO43" s="9"/>
       <c r="AP43" s="306"/>
-      <c r="AQ43" s="453"/>
-      <c r="AR43" s="453"/>
+      <c r="AQ43" s="461"/>
+      <c r="AR43" s="461"/>
       <c r="AS43" s="280"/>
-      <c r="AT43" s="450"/>
+      <c r="AT43" s="456"/>
       <c r="AU43" s="9"/>
       <c r="AV43" s="9"/>
       <c r="AW43" s="9"/>
@@ -16794,10 +17027,10 @@
       <c r="AN44" s="10"/>
       <c r="AO44" s="9"/>
       <c r="AP44" s="306"/>
-      <c r="AQ44" s="453"/>
-      <c r="AR44" s="453"/>
+      <c r="AQ44" s="461"/>
+      <c r="AR44" s="461"/>
       <c r="AS44" s="280"/>
-      <c r="AT44" s="450"/>
+      <c r="AT44" s="456"/>
       <c r="AU44" s="9"/>
       <c r="AV44" s="9"/>
       <c r="AW44" s="9"/>
@@ -16851,10 +17084,10 @@
       <c r="AN45" s="10"/>
       <c r="AO45" s="9"/>
       <c r="AP45" s="306"/>
-      <c r="AQ45" s="453"/>
-      <c r="AR45" s="453"/>
+      <c r="AQ45" s="461"/>
+      <c r="AR45" s="461"/>
       <c r="AS45" s="280"/>
-      <c r="AT45" s="450"/>
+      <c r="AT45" s="456"/>
       <c r="AU45" s="9"/>
       <c r="AV45" s="9"/>
       <c r="AW45" s="9"/>
@@ -16918,10 +17151,10 @@
       <c r="AN46" s="10"/>
       <c r="AO46" s="9"/>
       <c r="AP46" s="307"/>
-      <c r="AQ46" s="456"/>
-      <c r="AR46" s="456"/>
+      <c r="AQ46" s="462"/>
+      <c r="AR46" s="462"/>
       <c r="AS46" s="308"/>
-      <c r="AT46" s="450"/>
+      <c r="AT46" s="456"/>
       <c r="AU46" s="9"/>
       <c r="AV46" s="9"/>
       <c r="AW46" s="9"/>
@@ -17879,27 +18112,27 @@
       </c>
       <c r="U61" s="91"/>
       <c r="V61" s="91"/>
-      <c r="W61" s="395">
+      <c r="W61" s="401">
         <v>0</v>
       </c>
-      <c r="X61" s="395"/>
-      <c r="Y61" s="395"/>
-      <c r="Z61" s="395"/>
-      <c r="AA61" s="395"/>
+      <c r="X61" s="401"/>
+      <c r="Y61" s="401"/>
+      <c r="Z61" s="401"/>
+      <c r="AA61" s="401"/>
       <c r="AB61" s="92" t="s">
         <v>2</v>
       </c>
       <c r="AC61" s="92"/>
       <c r="AD61" s="92"/>
-      <c r="AE61" s="395" t="s">
+      <c r="AE61" s="401" t="s">
         <v>84</v>
       </c>
-      <c r="AF61" s="395"/>
-      <c r="AG61" s="395"/>
-      <c r="AH61" s="395"/>
-      <c r="AI61" s="395"/>
-      <c r="AJ61" s="395"/>
-      <c r="AK61" s="395"/>
+      <c r="AF61" s="401"/>
+      <c r="AG61" s="401"/>
+      <c r="AH61" s="401"/>
+      <c r="AI61" s="401"/>
+      <c r="AJ61" s="401"/>
+      <c r="AK61" s="401"/>
       <c r="AL61" s="10"/>
       <c r="AM61" s="90"/>
       <c r="AN61" s="10"/>
@@ -17942,26 +18175,26 @@
       <c r="U62" s="91"/>
       <c r="V62" s="91"/>
       <c r="W62" s="92"/>
-      <c r="X62" s="396" t="s">
+      <c r="X62" s="402" t="s">
         <v>84</v>
       </c>
-      <c r="Y62" s="396"/>
-      <c r="Z62" s="396"/>
-      <c r="AA62" s="396"/>
+      <c r="Y62" s="402"/>
+      <c r="Z62" s="402"/>
+      <c r="AA62" s="402"/>
       <c r="AB62" s="97" t="s">
         <v>7</v>
       </c>
       <c r="AC62" s="97"/>
-      <c r="AD62" s="395" t="s">
+      <c r="AD62" s="401" t="s">
         <v>84</v>
       </c>
-      <c r="AE62" s="395"/>
-      <c r="AF62" s="395"/>
-      <c r="AG62" s="395"/>
-      <c r="AH62" s="395"/>
-      <c r="AI62" s="395"/>
-      <c r="AJ62" s="395"/>
-      <c r="AK62" s="395"/>
+      <c r="AE62" s="401"/>
+      <c r="AF62" s="401"/>
+      <c r="AG62" s="401"/>
+      <c r="AH62" s="401"/>
+      <c r="AI62" s="401"/>
+      <c r="AJ62" s="401"/>
+      <c r="AK62" s="401"/>
       <c r="AL62" s="10"/>
       <c r="AM62" s="90"/>
       <c r="AN62" s="10"/>
@@ -18178,14 +18411,14 @@
       <c r="H66" s="87"/>
       <c r="I66" s="87"/>
       <c r="J66" s="87"/>
-      <c r="K66" s="397" t="s">
+      <c r="K66" s="403" t="s">
         <v>89</v>
       </c>
-      <c r="L66" s="398"/>
-      <c r="M66" s="398"/>
-      <c r="N66" s="398"/>
-      <c r="O66" s="398"/>
-      <c r="P66" s="398"/>
+      <c r="L66" s="404"/>
+      <c r="M66" s="404"/>
+      <c r="N66" s="404"/>
+      <c r="O66" s="404"/>
+      <c r="P66" s="404"/>
       <c r="Q66" s="225" t="s">
         <v>90</v>
       </c>
@@ -18270,17 +18503,17 @@
         <v>95</v>
       </c>
       <c r="AC67" s="116"/>
-      <c r="AD67" s="399" t="s">
+      <c r="AD67" s="405" t="s">
         <v>96</v>
       </c>
-      <c r="AE67" s="400"/>
-      <c r="AF67" s="400"/>
-      <c r="AG67" s="400"/>
-      <c r="AH67" s="400"/>
-      <c r="AI67" s="400"/>
-      <c r="AJ67" s="400"/>
-      <c r="AK67" s="400"/>
-      <c r="AL67" s="400"/>
+      <c r="AE67" s="406"/>
+      <c r="AF67" s="406"/>
+      <c r="AG67" s="406"/>
+      <c r="AH67" s="406"/>
+      <c r="AI67" s="406"/>
+      <c r="AJ67" s="406"/>
+      <c r="AK67" s="406"/>
+      <c r="AL67" s="406"/>
       <c r="AM67" s="117"/>
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
@@ -18356,27 +18589,27 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B69" s="370" t="s">
+      <c r="B69" s="376" t="s">
         <v>300</v>
       </c>
-      <c r="C69" s="371"/>
-      <c r="D69" s="371"/>
-      <c r="E69" s="371"/>
-      <c r="F69" s="371"/>
-      <c r="G69" s="372"/>
+      <c r="C69" s="377"/>
+      <c r="D69" s="377"/>
+      <c r="E69" s="377"/>
+      <c r="F69" s="377"/>
+      <c r="G69" s="378"/>
       <c r="H69" s="235"/>
       <c r="I69" s="236"/>
       <c r="J69" s="231"/>
-      <c r="K69" s="367">
+      <c r="K69" s="373">
         <v>0.85729999999999995</v>
       </c>
-      <c r="L69" s="368"/>
-      <c r="M69" s="369"/>
-      <c r="N69" s="373">
+      <c r="L69" s="374"/>
+      <c r="M69" s="375"/>
+      <c r="N69" s="379">
         <v>0.73660000000000003</v>
       </c>
-      <c r="O69" s="374"/>
-      <c r="P69" s="375"/>
+      <c r="O69" s="380"/>
+      <c r="P69" s="381"/>
       <c r="Q69" s="120"/>
       <c r="R69" s="119"/>
       <c r="S69" s="119"/>
@@ -18417,27 +18650,27 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B70" s="370" t="s">
+      <c r="B70" s="376" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="371"/>
-      <c r="D70" s="371"/>
-      <c r="E70" s="371"/>
-      <c r="F70" s="371"/>
-      <c r="G70" s="372"/>
+      <c r="C70" s="377"/>
+      <c r="D70" s="377"/>
+      <c r="E70" s="377"/>
+      <c r="F70" s="377"/>
+      <c r="G70" s="378"/>
       <c r="H70" s="235"/>
       <c r="I70" s="236"/>
       <c r="J70" s="231"/>
-      <c r="K70" s="367">
+      <c r="K70" s="373">
         <v>0.1057</v>
       </c>
-      <c r="L70" s="368"/>
-      <c r="M70" s="369"/>
-      <c r="N70" s="373">
+      <c r="L70" s="374"/>
+      <c r="M70" s="375"/>
+      <c r="N70" s="379">
         <v>0.11527</v>
       </c>
-      <c r="O70" s="374"/>
-      <c r="P70" s="375"/>
+      <c r="O70" s="380"/>
+      <c r="P70" s="381"/>
       <c r="Q70" s="120"/>
       <c r="R70" s="119"/>
       <c r="S70" s="119"/>
@@ -18478,27 +18711,27 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B71" s="370" t="s">
+      <c r="B71" s="376" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="371"/>
-      <c r="D71" s="371"/>
-      <c r="E71" s="371"/>
-      <c r="F71" s="371"/>
-      <c r="G71" s="372"/>
+      <c r="C71" s="377"/>
+      <c r="D71" s="377"/>
+      <c r="E71" s="377"/>
+      <c r="F71" s="377"/>
+      <c r="G71" s="378"/>
       <c r="H71" s="235"/>
       <c r="I71" s="236"/>
       <c r="J71" s="231"/>
-      <c r="K71" s="367">
+      <c r="K71" s="373">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="L71" s="368"/>
-      <c r="M71" s="369"/>
-      <c r="N71" s="373">
+      <c r="L71" s="374"/>
+      <c r="M71" s="375"/>
+      <c r="N71" s="379">
         <v>7.3779999999999998E-2</v>
       </c>
-      <c r="O71" s="374"/>
-      <c r="P71" s="375"/>
+      <c r="O71" s="380"/>
+      <c r="P71" s="381"/>
       <c r="Q71" s="120"/>
       <c r="R71" s="119"/>
       <c r="S71" s="119"/>
@@ -18539,27 +18772,27 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B72" s="370" t="s">
+      <c r="B72" s="376" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="371"/>
-      <c r="D72" s="371"/>
-      <c r="E72" s="371"/>
-      <c r="F72" s="371"/>
-      <c r="G72" s="372"/>
+      <c r="C72" s="377"/>
+      <c r="D72" s="377"/>
+      <c r="E72" s="377"/>
+      <c r="F72" s="377"/>
+      <c r="G72" s="378"/>
       <c r="H72" s="235"/>
       <c r="I72" s="236"/>
       <c r="J72" s="231"/>
-      <c r="K72" s="367">
+      <c r="K72" s="373">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L72" s="368"/>
-      <c r="M72" s="369"/>
-      <c r="N72" s="373">
+      <c r="L72" s="374"/>
+      <c r="M72" s="375"/>
+      <c r="N72" s="379">
         <v>1.8689999999999998E-2</v>
       </c>
-      <c r="O72" s="374"/>
-      <c r="P72" s="375"/>
+      <c r="O72" s="380"/>
+      <c r="P72" s="381"/>
       <c r="Q72" s="120"/>
       <c r="R72" s="119"/>
       <c r="S72" s="119"/>
@@ -18600,27 +18833,27 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B73" s="370" t="s">
+      <c r="B73" s="376" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="371"/>
-      <c r="D73" s="371"/>
-      <c r="E73" s="371"/>
-      <c r="F73" s="371"/>
-      <c r="G73" s="372"/>
+      <c r="C73" s="377"/>
+      <c r="D73" s="377"/>
+      <c r="E73" s="377"/>
+      <c r="F73" s="377"/>
+      <c r="G73" s="378"/>
       <c r="H73" s="235"/>
       <c r="I73" s="236"/>
       <c r="J73" s="231"/>
-      <c r="K73" s="367">
+      <c r="K73" s="373">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="L73" s="368"/>
-      <c r="M73" s="369"/>
-      <c r="N73" s="373">
+      <c r="L73" s="374"/>
+      <c r="M73" s="375"/>
+      <c r="N73" s="379">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="O73" s="374"/>
-      <c r="P73" s="375"/>
+      <c r="O73" s="380"/>
+      <c r="P73" s="381"/>
       <c r="Q73" s="120"/>
       <c r="R73" s="119"/>
       <c r="S73" s="119"/>
@@ -18661,27 +18894,27 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B74" s="370" t="s">
+      <c r="B74" s="376" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="371"/>
-      <c r="D74" s="371"/>
-      <c r="E74" s="371"/>
-      <c r="F74" s="371"/>
-      <c r="G74" s="372"/>
+      <c r="C74" s="377"/>
+      <c r="D74" s="377"/>
+      <c r="E74" s="377"/>
+      <c r="F74" s="377"/>
+      <c r="G74" s="378"/>
       <c r="H74" s="235"/>
       <c r="I74" s="236"/>
       <c r="J74" s="231"/>
-      <c r="K74" s="367">
+      <c r="K74" s="373">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="L74" s="368"/>
-      <c r="M74" s="369"/>
-      <c r="N74" s="373">
+      <c r="L74" s="374"/>
+      <c r="M74" s="375"/>
+      <c r="N74" s="379">
         <v>3.3E-3</v>
       </c>
-      <c r="O74" s="374"/>
-      <c r="P74" s="375"/>
+      <c r="O74" s="380"/>
+      <c r="P74" s="381"/>
       <c r="Q74" s="120"/>
       <c r="R74" s="119"/>
       <c r="S74" s="119"/>
@@ -18722,27 +18955,27 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B75" s="370" t="s">
+      <c r="B75" s="376" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="371"/>
-      <c r="D75" s="371"/>
-      <c r="E75" s="371"/>
-      <c r="F75" s="371"/>
-      <c r="G75" s="372"/>
+      <c r="C75" s="377"/>
+      <c r="D75" s="377"/>
+      <c r="E75" s="377"/>
+      <c r="F75" s="377"/>
+      <c r="G75" s="378"/>
       <c r="H75" s="235"/>
       <c r="I75" s="236"/>
       <c r="J75" s="231"/>
-      <c r="K75" s="367">
+      <c r="K75" s="373">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="L75" s="368"/>
-      <c r="M75" s="369"/>
-      <c r="N75" s="373">
+      <c r="L75" s="374"/>
+      <c r="M75" s="375"/>
+      <c r="N75" s="379">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="O75" s="374"/>
-      <c r="P75" s="375"/>
+      <c r="O75" s="380"/>
+      <c r="P75" s="381"/>
       <c r="Q75" s="118"/>
       <c r="R75" s="112"/>
       <c r="S75" s="112"/>
@@ -18785,27 +19018,27 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B76" s="370" t="s">
+      <c r="B76" s="376" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="371"/>
-      <c r="D76" s="371"/>
-      <c r="E76" s="371"/>
-      <c r="F76" s="371"/>
-      <c r="G76" s="372"/>
+      <c r="C76" s="377"/>
+      <c r="D76" s="377"/>
+      <c r="E76" s="377"/>
+      <c r="F76" s="377"/>
+      <c r="G76" s="378"/>
       <c r="H76" s="235"/>
       <c r="I76" s="236"/>
       <c r="J76" s="231"/>
-      <c r="K76" s="367">
+      <c r="K76" s="373">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L76" s="368"/>
-      <c r="M76" s="369"/>
-      <c r="N76" s="373">
+      <c r="L76" s="374"/>
+      <c r="M76" s="375"/>
+      <c r="N76" s="379">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="O76" s="374"/>
-      <c r="P76" s="375"/>
+      <c r="O76" s="380"/>
+      <c r="P76" s="381"/>
       <c r="Q76" s="118"/>
       <c r="R76" s="112"/>
       <c r="S76" s="112"/>
@@ -18848,27 +19081,27 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B77" s="370" t="s">
+      <c r="B77" s="376" t="s">
         <v>298</v>
       </c>
-      <c r="C77" s="371"/>
-      <c r="D77" s="371"/>
-      <c r="E77" s="371"/>
-      <c r="F77" s="371"/>
-      <c r="G77" s="372"/>
+      <c r="C77" s="377"/>
+      <c r="D77" s="377"/>
+      <c r="E77" s="377"/>
+      <c r="F77" s="377"/>
+      <c r="G77" s="378"/>
       <c r="H77" s="235"/>
       <c r="I77" s="236"/>
       <c r="J77" s="231"/>
-      <c r="K77" s="367">
+      <c r="K77" s="373">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="L77" s="368"/>
-      <c r="M77" s="369"/>
-      <c r="N77" s="373">
+      <c r="L77" s="374"/>
+      <c r="M77" s="375"/>
+      <c r="N77" s="379">
         <v>0</v>
       </c>
-      <c r="O77" s="374"/>
-      <c r="P77" s="375"/>
+      <c r="O77" s="380"/>
+      <c r="P77" s="381"/>
       <c r="Q77" s="118"/>
       <c r="R77" s="112"/>
       <c r="S77" s="112"/>
@@ -18909,27 +19142,27 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B78" s="370" t="s">
+      <c r="B78" s="376" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="371"/>
-      <c r="D78" s="371"/>
-      <c r="E78" s="371"/>
-      <c r="F78" s="371"/>
-      <c r="G78" s="372"/>
+      <c r="C78" s="377"/>
+      <c r="D78" s="377"/>
+      <c r="E78" s="377"/>
+      <c r="F78" s="377"/>
+      <c r="G78" s="378"/>
       <c r="H78" s="235"/>
       <c r="I78" s="236"/>
       <c r="J78" s="231"/>
-      <c r="K78" s="367">
+      <c r="K78" s="373">
         <v>0</v>
       </c>
-      <c r="L78" s="368"/>
-      <c r="M78" s="369"/>
-      <c r="N78" s="373">
+      <c r="L78" s="374"/>
+      <c r="M78" s="375"/>
+      <c r="N78" s="379">
         <v>0</v>
       </c>
-      <c r="O78" s="374"/>
-      <c r="P78" s="375"/>
+      <c r="O78" s="380"/>
+      <c r="P78" s="381"/>
       <c r="Q78" s="118"/>
       <c r="R78" s="112"/>
       <c r="S78" s="112"/>
@@ -18970,27 +19203,27 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B79" s="370" t="s">
+      <c r="B79" s="376" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="371"/>
-      <c r="D79" s="371"/>
-      <c r="E79" s="371"/>
-      <c r="F79" s="371"/>
-      <c r="G79" s="372"/>
+      <c r="C79" s="377"/>
+      <c r="D79" s="377"/>
+      <c r="E79" s="377"/>
+      <c r="F79" s="377"/>
+      <c r="G79" s="378"/>
       <c r="H79" s="235"/>
       <c r="I79" s="236"/>
       <c r="J79" s="231"/>
-      <c r="K79" s="367">
+      <c r="K79" s="373">
         <v>0</v>
       </c>
-      <c r="L79" s="368"/>
-      <c r="M79" s="369"/>
-      <c r="N79" s="373">
+      <c r="L79" s="374"/>
+      <c r="M79" s="375"/>
+      <c r="N79" s="379">
         <v>0</v>
       </c>
-      <c r="O79" s="374"/>
-      <c r="P79" s="375"/>
+      <c r="O79" s="380"/>
+      <c r="P79" s="381"/>
       <c r="Q79" s="118"/>
       <c r="R79" s="112"/>
       <c r="S79" s="112"/>
@@ -19031,27 +19264,27 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B80" s="370" t="s">
+      <c r="B80" s="376" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="371"/>
-      <c r="D80" s="371"/>
-      <c r="E80" s="371"/>
-      <c r="F80" s="371"/>
-      <c r="G80" s="372"/>
+      <c r="C80" s="377"/>
+      <c r="D80" s="377"/>
+      <c r="E80" s="377"/>
+      <c r="F80" s="377"/>
+      <c r="G80" s="378"/>
       <c r="H80" s="235"/>
       <c r="I80" s="236"/>
       <c r="J80" s="231"/>
-      <c r="K80" s="367">
+      <c r="K80" s="373">
         <v>0</v>
       </c>
-      <c r="L80" s="368"/>
-      <c r="M80" s="369"/>
-      <c r="N80" s="373">
+      <c r="L80" s="374"/>
+      <c r="M80" s="375"/>
+      <c r="N80" s="379">
         <v>0</v>
       </c>
-      <c r="O80" s="374"/>
-      <c r="P80" s="375"/>
+      <c r="O80" s="380"/>
+      <c r="P80" s="381"/>
       <c r="Q80" s="118"/>
       <c r="R80" s="112"/>
       <c r="S80" s="112"/>
@@ -19092,27 +19325,27 @@
         <f>A80+1</f>
         <v>17</v>
       </c>
-      <c r="B81" s="370" t="s">
+      <c r="B81" s="376" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="371"/>
-      <c r="D81" s="371"/>
-      <c r="E81" s="371"/>
-      <c r="F81" s="371"/>
-      <c r="G81" s="372"/>
+      <c r="C81" s="377"/>
+      <c r="D81" s="377"/>
+      <c r="E81" s="377"/>
+      <c r="F81" s="377"/>
+      <c r="G81" s="378"/>
       <c r="H81" s="235"/>
       <c r="I81" s="236"/>
       <c r="J81" s="231"/>
-      <c r="K81" s="367">
+      <c r="K81" s="373">
         <v>1E-4</v>
       </c>
-      <c r="L81" s="368"/>
-      <c r="M81" s="369"/>
-      <c r="N81" s="373">
+      <c r="L81" s="374"/>
+      <c r="M81" s="375"/>
+      <c r="N81" s="379">
         <v>0</v>
       </c>
-      <c r="O81" s="374"/>
-      <c r="P81" s="375"/>
+      <c r="O81" s="380"/>
+      <c r="P81" s="381"/>
       <c r="Q81" s="118"/>
       <c r="R81" s="112"/>
       <c r="S81" s="112"/>
@@ -19153,27 +19386,27 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B82" s="370" t="s">
+      <c r="B82" s="376" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="371"/>
-      <c r="D82" s="371"/>
-      <c r="E82" s="371"/>
-      <c r="F82" s="371"/>
-      <c r="G82" s="372"/>
+      <c r="C82" s="377"/>
+      <c r="D82" s="377"/>
+      <c r="E82" s="377"/>
+      <c r="F82" s="377"/>
+      <c r="G82" s="378"/>
       <c r="H82" s="235"/>
       <c r="I82" s="236"/>
       <c r="J82" s="231"/>
-      <c r="K82" s="367">
+      <c r="K82" s="373">
         <v>0</v>
       </c>
-      <c r="L82" s="368"/>
-      <c r="M82" s="369"/>
-      <c r="N82" s="373">
+      <c r="L82" s="374"/>
+      <c r="M82" s="375"/>
+      <c r="N82" s="379">
         <v>0</v>
       </c>
-      <c r="O82" s="374"/>
-      <c r="P82" s="375"/>
+      <c r="O82" s="380"/>
+      <c r="P82" s="381"/>
       <c r="Q82" s="128"/>
       <c r="R82" s="112"/>
       <c r="S82" s="112"/>
@@ -19214,27 +19447,27 @@
         <f>A82+1</f>
         <v>19</v>
       </c>
-      <c r="B83" s="370" t="s">
+      <c r="B83" s="376" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="371"/>
-      <c r="D83" s="371"/>
-      <c r="E83" s="371"/>
-      <c r="F83" s="371"/>
-      <c r="G83" s="372"/>
+      <c r="C83" s="377"/>
+      <c r="D83" s="377"/>
+      <c r="E83" s="377"/>
+      <c r="F83" s="377"/>
+      <c r="G83" s="378"/>
       <c r="H83" s="235"/>
       <c r="I83" s="236"/>
       <c r="J83" s="231"/>
-      <c r="K83" s="367">
+      <c r="K83" s="373">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="L83" s="368"/>
-      <c r="M83" s="369"/>
-      <c r="N83" s="373">
+      <c r="L83" s="374"/>
+      <c r="M83" s="375"/>
+      <c r="N83" s="379">
         <v>7.6E-3</v>
       </c>
-      <c r="O83" s="374"/>
-      <c r="P83" s="375"/>
+      <c r="O83" s="380"/>
+      <c r="P83" s="381"/>
       <c r="Q83" s="118"/>
       <c r="R83" s="112"/>
       <c r="S83" s="112"/>
@@ -19275,27 +19508,27 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B84" s="370" t="s">
+      <c r="B84" s="376" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="371"/>
-      <c r="D84" s="371"/>
-      <c r="E84" s="371"/>
-      <c r="F84" s="371"/>
-      <c r="G84" s="372"/>
+      <c r="C84" s="377"/>
+      <c r="D84" s="377"/>
+      <c r="E84" s="377"/>
+      <c r="F84" s="377"/>
+      <c r="G84" s="378"/>
       <c r="H84" s="235"/>
       <c r="I84" s="236"/>
       <c r="J84" s="231"/>
-      <c r="K84" s="367">
+      <c r="K84" s="373">
         <v>0</v>
       </c>
-      <c r="L84" s="368"/>
-      <c r="M84" s="369"/>
-      <c r="N84" s="373">
+      <c r="L84" s="374"/>
+      <c r="M84" s="375"/>
+      <c r="N84" s="379">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="O84" s="374"/>
-      <c r="P84" s="375"/>
+      <c r="O84" s="380"/>
+      <c r="P84" s="381"/>
       <c r="Q84" s="118"/>
       <c r="R84" s="112"/>
       <c r="S84" s="112"/>
@@ -19336,27 +19569,27 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B85" s="370" t="s">
+      <c r="B85" s="376" t="s">
         <v>301</v>
       </c>
-      <c r="C85" s="371"/>
-      <c r="D85" s="371"/>
-      <c r="E85" s="371"/>
-      <c r="F85" s="371"/>
-      <c r="G85" s="372"/>
+      <c r="C85" s="377"/>
+      <c r="D85" s="377"/>
+      <c r="E85" s="377"/>
+      <c r="F85" s="377"/>
+      <c r="G85" s="378"/>
       <c r="H85" s="235"/>
       <c r="I85" s="236"/>
       <c r="J85" s="231"/>
-      <c r="K85" s="367">
+      <c r="K85" s="373">
         <v>0</v>
       </c>
-      <c r="L85" s="368"/>
-      <c r="M85" s="369"/>
-      <c r="N85" s="373">
+      <c r="L85" s="374"/>
+      <c r="M85" s="375"/>
+      <c r="N85" s="379">
         <v>2.9989999999999999E-2</v>
       </c>
-      <c r="O85" s="374"/>
-      <c r="P85" s="375"/>
+      <c r="O85" s="380"/>
+      <c r="P85" s="381"/>
       <c r="Q85" s="118"/>
       <c r="R85" s="112"/>
       <c r="S85" s="112"/>
@@ -19409,11 +19642,11 @@
       <c r="K86" s="233"/>
       <c r="L86" s="233"/>
       <c r="M86" s="234"/>
-      <c r="N86" s="373">
+      <c r="N86" s="379">
         <v>0</v>
       </c>
-      <c r="O86" s="374"/>
-      <c r="P86" s="375"/>
+      <c r="O86" s="380"/>
+      <c r="P86" s="381"/>
       <c r="Q86" s="118"/>
       <c r="R86" s="112"/>
       <c r="S86" s="112"/>
@@ -19466,11 +19699,11 @@
       <c r="K87" s="233"/>
       <c r="L87" s="233"/>
       <c r="M87" s="234"/>
-      <c r="N87" s="373">
+      <c r="N87" s="379">
         <v>0</v>
       </c>
-      <c r="O87" s="374"/>
-      <c r="P87" s="375"/>
+      <c r="O87" s="380"/>
+      <c r="P87" s="381"/>
       <c r="Q87" s="118"/>
       <c r="R87" s="112"/>
       <c r="S87" s="112"/>
@@ -19525,11 +19758,11 @@
       <c r="K88" s="233"/>
       <c r="L88" s="233"/>
       <c r="M88" s="234"/>
-      <c r="N88" s="373">
+      <c r="N88" s="379">
         <v>0</v>
       </c>
-      <c r="O88" s="374"/>
-      <c r="P88" s="375"/>
+      <c r="O88" s="380"/>
+      <c r="P88" s="381"/>
       <c r="Q88" s="118"/>
       <c r="R88" s="112"/>
       <c r="S88" s="112"/>
@@ -19581,18 +19814,18 @@
       <c r="H89" s="118"/>
       <c r="I89" s="112"/>
       <c r="J89" s="117"/>
-      <c r="K89" s="383">
+      <c r="K89" s="389">
         <f>IF(SUM(K69:M88)=0,"",SUM(K69:M85))</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="L89" s="384"/>
-      <c r="M89" s="385"/>
-      <c r="N89" s="386">
+      <c r="L89" s="390"/>
+      <c r="M89" s="391"/>
+      <c r="N89" s="392">
         <f>IF(SUM(N69:P88)=0,"",SUM(N69:P88))</f>
         <v>1</v>
       </c>
-      <c r="O89" s="387"/>
-      <c r="P89" s="388"/>
+      <c r="O89" s="393"/>
+      <c r="P89" s="394"/>
       <c r="Q89" s="118"/>
       <c r="R89" s="112"/>
       <c r="S89" s="112"/>
@@ -19644,17 +19877,17 @@
       <c r="H90" s="118"/>
       <c r="I90" s="112"/>
       <c r="J90" s="117"/>
-      <c r="K90" s="389">
+      <c r="K90" s="395">
         <v>18.731455084800004</v>
       </c>
-      <c r="L90" s="390"/>
-      <c r="M90" s="391"/>
-      <c r="N90" s="392" t="str">
+      <c r="L90" s="396"/>
+      <c r="M90" s="397"/>
+      <c r="N90" s="398" t="str">
         <f>IF(SUMPRODUCT(H69:H88,N69:N88)=0,"",SUMPRODUCT(H69:H88,N69:N88))</f>
         <v/>
       </c>
-      <c r="O90" s="393"/>
-      <c r="P90" s="394"/>
+      <c r="O90" s="399"/>
+      <c r="P90" s="400"/>
       <c r="Q90" s="118"/>
       <c r="R90" s="112"/>
       <c r="S90" s="112"/>
@@ -21360,27 +21593,27 @@
       </c>
       <c r="U118" s="159"/>
       <c r="V118" s="159"/>
-      <c r="W118" s="379" t="s">
+      <c r="W118" s="385" t="s">
         <v>1</v>
       </c>
-      <c r="X118" s="379"/>
-      <c r="Y118" s="379"/>
-      <c r="Z118" s="379"/>
-      <c r="AA118" s="379"/>
+      <c r="X118" s="385"/>
+      <c r="Y118" s="385"/>
+      <c r="Z118" s="385"/>
+      <c r="AA118" s="385"/>
       <c r="AB118" s="151" t="s">
         <v>2</v>
       </c>
       <c r="AC118" s="151"/>
       <c r="AD118" s="151"/>
-      <c r="AE118" s="379" t="e">
+      <c r="AE118" s="385" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AF118" s="379"/>
-      <c r="AG118" s="379"/>
-      <c r="AH118" s="379"/>
-      <c r="AI118" s="379"/>
-      <c r="AJ118" s="379"/>
-      <c r="AK118" s="379"/>
+      <c r="AF118" s="385"/>
+      <c r="AG118" s="385"/>
+      <c r="AH118" s="385"/>
+      <c r="AI118" s="385"/>
+      <c r="AJ118" s="385"/>
+      <c r="AK118" s="385"/>
       <c r="AL118" s="155"/>
       <c r="AM118" s="158"/>
       <c r="AN118" s="155"/>
@@ -21423,26 +21656,26 @@
       <c r="U119" s="159"/>
       <c r="V119" s="159"/>
       <c r="W119" s="151"/>
-      <c r="X119" s="378" t="e">
+      <c r="X119" s="384" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Y119" s="378"/>
-      <c r="Z119" s="378"/>
-      <c r="AA119" s="378"/>
+      <c r="Y119" s="384"/>
+      <c r="Z119" s="384"/>
+      <c r="AA119" s="384"/>
       <c r="AB119" s="163" t="s">
         <v>7</v>
       </c>
       <c r="AC119" s="163"/>
-      <c r="AD119" s="379" t="e">
+      <c r="AD119" s="385" t="e">
         <v>#REF!</v>
       </c>
-      <c r="AE119" s="379"/>
-      <c r="AF119" s="379"/>
-      <c r="AG119" s="379"/>
-      <c r="AH119" s="379"/>
-      <c r="AI119" s="379"/>
-      <c r="AJ119" s="379"/>
-      <c r="AK119" s="379"/>
+      <c r="AE119" s="385"/>
+      <c r="AF119" s="385"/>
+      <c r="AG119" s="385"/>
+      <c r="AH119" s="385"/>
+      <c r="AI119" s="385"/>
+      <c r="AJ119" s="385"/>
+      <c r="AK119" s="385"/>
       <c r="AL119" s="155"/>
       <c r="AM119" s="158"/>
       <c r="AN119" s="155"/>
@@ -23656,12 +23889,12 @@
       <c r="AE155" s="181"/>
       <c r="AF155" s="181"/>
       <c r="AG155" s="181"/>
-      <c r="AH155" s="380">
+      <c r="AH155" s="386">
         <v>15919</v>
       </c>
-      <c r="AI155" s="381"/>
-      <c r="AJ155" s="381"/>
-      <c r="AK155" s="382"/>
+      <c r="AI155" s="387"/>
+      <c r="AJ155" s="387"/>
+      <c r="AK155" s="388"/>
       <c r="AL155" s="181"/>
       <c r="AM155" s="180"/>
       <c r="AN155" s="186"/>
@@ -25046,29 +25279,29 @@
   <sheetData>
     <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="491" t="s">
+      <c r="B3" s="483" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="492"/>
+      <c r="C3" s="484"/>
       <c r="D3" s="249" t="s">
         <v>302</v>
       </c>
-      <c r="F3" s="496" t="s">
+      <c r="F3" s="485" t="s">
         <v>303</v>
       </c>
-      <c r="G3" s="497"/>
-      <c r="H3" s="497"/>
-      <c r="I3" s="497"/>
-      <c r="J3" s="497"/>
-      <c r="K3" s="497"/>
-      <c r="L3" s="497"/>
-      <c r="M3" s="497"/>
-      <c r="N3" s="497"/>
-      <c r="O3" s="497"/>
-      <c r="P3" s="497"/>
-      <c r="Q3" s="497"/>
-      <c r="R3" s="497"/>
-      <c r="S3" s="498"/>
+      <c r="G3" s="486"/>
+      <c r="H3" s="486"/>
+      <c r="I3" s="486"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="486"/>
+      <c r="L3" s="486"/>
+      <c r="M3" s="486"/>
+      <c r="N3" s="486"/>
+      <c r="O3" s="486"/>
+      <c r="P3" s="486"/>
+      <c r="Q3" s="486"/>
+      <c r="R3" s="486"/>
+      <c r="S3" s="487"/>
       <c r="T3" s="252"/>
       <c r="U3" s="252"/>
       <c r="V3" s="252"/>
@@ -25079,45 +25312,45 @@
       <c r="AA3" s="252"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="484" t="s">
+      <c r="B4" s="477" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="485"/>
+      <c r="C4" s="478"/>
       <c r="D4" s="248">
         <v>0</v>
       </c>
-      <c r="F4" s="499" t="s">
+      <c r="F4" s="488" t="s">
         <v>304</v>
       </c>
-      <c r="G4" s="500"/>
-      <c r="H4" s="486" t="s">
+      <c r="G4" s="489"/>
+      <c r="H4" s="493" t="s">
         <v>327</v>
       </c>
-      <c r="I4" s="487"/>
-      <c r="J4" s="499" t="s">
+      <c r="I4" s="494"/>
+      <c r="J4" s="488" t="s">
         <v>310</v>
       </c>
-      <c r="K4" s="500"/>
-      <c r="L4" s="501" t="s">
+      <c r="K4" s="489"/>
+      <c r="L4" s="490" t="s">
         <v>305</v>
       </c>
-      <c r="M4" s="502"/>
-      <c r="N4" s="502"/>
-      <c r="O4" s="503"/>
-      <c r="P4" s="501" t="s">
+      <c r="M4" s="491"/>
+      <c r="N4" s="491"/>
+      <c r="O4" s="492"/>
+      <c r="P4" s="490" t="s">
         <v>306</v>
       </c>
-      <c r="Q4" s="502"/>
-      <c r="R4" s="502"/>
-      <c r="S4" s="503"/>
+      <c r="Q4" s="491"/>
+      <c r="R4" s="491"/>
+      <c r="S4" s="492"/>
       <c r="T4" s="250"/>
       <c r="U4" s="250"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="484" t="s">
+      <c r="B5" s="477" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="485"/>
+      <c r="C5" s="478"/>
       <c r="D5" s="248">
         <v>0</v>
       </c>
@@ -25161,10 +25394,10 @@
       <c r="U5" s="251"/>
     </row>
     <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="484" t="s">
+      <c r="B6" s="477" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="485"/>
+      <c r="C6" s="478"/>
       <c r="D6" s="248">
         <v>0</v>
       </c>
@@ -25213,391 +25446,391 @@
       <c r="U6" s="253"/>
     </row>
     <row r="7" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="484" t="s">
+      <c r="B7" s="477" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="485"/>
+      <c r="C7" s="478"/>
       <c r="D7" s="248">
         <v>0</v>
       </c>
-      <c r="F7" s="493" t="s">
+      <c r="F7" s="474" t="s">
         <v>347</v>
       </c>
-      <c r="G7" s="494"/>
-      <c r="H7" s="494"/>
-      <c r="I7" s="495"/>
+      <c r="G7" s="475"/>
+      <c r="H7" s="475"/>
+      <c r="I7" s="476"/>
     </row>
     <row r="8" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="484" t="s">
+      <c r="B8" s="477" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="485"/>
+      <c r="C8" s="478"/>
       <c r="D8" s="248">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="484" t="s">
+      <c r="B9" s="477" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="485"/>
+      <c r="C9" s="478"/>
       <c r="D9" s="248">
         <v>0</v>
       </c>
-      <c r="F9" s="488" t="s">
+      <c r="F9" s="495" t="s">
         <v>336</v>
       </c>
-      <c r="G9" s="489"/>
-      <c r="H9" s="489"/>
-      <c r="I9" s="490"/>
-      <c r="J9" s="488" t="s">
+      <c r="G9" s="501"/>
+      <c r="H9" s="501"/>
+      <c r="I9" s="496"/>
+      <c r="J9" s="495" t="s">
         <v>337</v>
       </c>
-      <c r="K9" s="490"/>
+      <c r="K9" s="496"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="484" t="s">
+      <c r="B10" s="477" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="485"/>
+      <c r="C10" s="478"/>
       <c r="D10" s="248">
         <v>0</v>
       </c>
-      <c r="F10" s="477" t="s">
+      <c r="F10" s="468" t="s">
         <v>328</v>
       </c>
       <c r="G10" s="274" t="s">
         <v>317</v>
       </c>
-      <c r="H10" s="467" t="s">
+      <c r="H10" s="463" t="s">
         <v>325</v>
       </c>
-      <c r="I10" s="468"/>
-      <c r="J10" s="504" t="s">
+      <c r="I10" s="464"/>
+      <c r="J10" s="497" t="s">
         <v>338</v>
       </c>
-      <c r="K10" s="505"/>
+      <c r="K10" s="498"/>
     </row>
     <row r="11" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="484" t="s">
+      <c r="B11" s="477" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="485"/>
+      <c r="C11" s="478"/>
       <c r="D11" s="248">
         <v>0</v>
       </c>
-      <c r="F11" s="478"/>
+      <c r="F11" s="469"/>
       <c r="G11" s="268">
         <v>2.7297158756046027</v>
       </c>
-      <c r="H11" s="473">
+      <c r="H11" s="465">
         <v>0.97919216784111174</v>
       </c>
-      <c r="I11" s="474"/>
-      <c r="J11" s="506"/>
-      <c r="K11" s="507"/>
+      <c r="I11" s="466"/>
+      <c r="J11" s="499"/>
+      <c r="K11" s="500"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="484" t="s">
+      <c r="B12" s="477" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="485"/>
+      <c r="C12" s="478"/>
       <c r="D12" s="248">
         <v>1</v>
       </c>
-      <c r="F12" s="477" t="s">
+      <c r="F12" s="468" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="479">
+      <c r="G12" s="470">
         <v>0.5420038623301654</v>
       </c>
-      <c r="H12" s="467" t="s">
+      <c r="H12" s="463" t="s">
         <v>329</v>
       </c>
-      <c r="I12" s="468"/>
-      <c r="J12" s="461" t="s">
+      <c r="I12" s="464"/>
+      <c r="J12" s="506" t="s">
         <v>344</v>
       </c>
-      <c r="K12" s="462"/>
+      <c r="K12" s="507"/>
     </row>
     <row r="13" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="484" t="s">
+      <c r="B13" s="477" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="485"/>
+      <c r="C13" s="478"/>
       <c r="D13" s="248">
         <v>0</v>
       </c>
-      <c r="F13" s="478"/>
-      <c r="G13" s="480"/>
-      <c r="H13" s="469">
+      <c r="F13" s="469"/>
+      <c r="G13" s="471"/>
+      <c r="H13" s="512">
         <v>-1.7242585162534851E-2</v>
       </c>
-      <c r="I13" s="470"/>
-      <c r="J13" s="463"/>
-      <c r="K13" s="464"/>
+      <c r="I13" s="513"/>
+      <c r="J13" s="508"/>
+      <c r="K13" s="509"/>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="484" t="s">
+      <c r="B14" s="477" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="485"/>
+      <c r="C14" s="478"/>
       <c r="D14" s="248">
         <v>0</v>
       </c>
-      <c r="F14" s="477" t="s">
+      <c r="F14" s="468" t="s">
         <v>316</v>
       </c>
-      <c r="G14" s="482">
+      <c r="G14" s="479">
         <v>1332369.4081878909</v>
       </c>
-      <c r="H14" s="467" t="s">
+      <c r="H14" s="463" t="s">
         <v>331</v>
       </c>
-      <c r="I14" s="468"/>
-      <c r="J14" s="463"/>
-      <c r="K14" s="464"/>
+      <c r="I14" s="464"/>
+      <c r="J14" s="508"/>
+      <c r="K14" s="509"/>
     </row>
     <row r="15" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="484" t="s">
+      <c r="B15" s="477" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="485"/>
+      <c r="C15" s="478"/>
       <c r="D15" s="248">
         <v>0</v>
       </c>
-      <c r="F15" s="478"/>
-      <c r="G15" s="483"/>
-      <c r="H15" s="471">
+      <c r="F15" s="469"/>
+      <c r="G15" s="480"/>
+      <c r="H15" s="514">
         <v>0.11513798972727746</v>
       </c>
-      <c r="I15" s="472"/>
-      <c r="J15" s="465"/>
-      <c r="K15" s="466"/>
+      <c r="I15" s="515"/>
+      <c r="J15" s="510"/>
+      <c r="K15" s="511"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="484" t="s">
+      <c r="B16" s="477" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="485"/>
+      <c r="C16" s="478"/>
       <c r="D16" s="248">
         <v>0</v>
       </c>
-      <c r="F16" s="477" t="s">
+      <c r="F16" s="468" t="s">
         <v>330</v>
       </c>
-      <c r="G16" s="479">
+      <c r="G16" s="470">
         <v>8.2119494439549051E-2</v>
       </c>
-      <c r="H16" s="467" t="s">
+      <c r="H16" s="463" t="s">
         <v>345</v>
       </c>
-      <c r="I16" s="468"/>
-      <c r="J16" s="457" t="s">
+      <c r="I16" s="464"/>
+      <c r="J16" s="502" t="s">
         <v>339</v>
       </c>
-      <c r="K16" s="458"/>
+      <c r="K16" s="503"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="484" t="s">
+      <c r="B17" s="477" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="485"/>
+      <c r="C17" s="478"/>
       <c r="D17" s="248">
         <v>0</v>
       </c>
-      <c r="F17" s="478"/>
-      <c r="G17" s="480"/>
-      <c r="H17" s="473">
+      <c r="F17" s="469"/>
+      <c r="G17" s="471"/>
+      <c r="H17" s="465">
         <v>0.99888268049569628</v>
       </c>
-      <c r="I17" s="474"/>
-      <c r="J17" s="459"/>
-      <c r="K17" s="460"/>
+      <c r="I17" s="466"/>
+      <c r="J17" s="504"/>
+      <c r="K17" s="505"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="484" t="s">
+      <c r="B18" s="477" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="485"/>
+      <c r="C18" s="478"/>
       <c r="D18" s="248">
         <v>0</v>
       </c>
-      <c r="F18" s="477" t="s">
+      <c r="F18" s="468" t="s">
         <v>333</v>
       </c>
-      <c r="G18" s="482">
+      <c r="G18" s="479">
         <v>8.3833624635185018</v>
       </c>
-      <c r="H18" s="467" t="s">
+      <c r="H18" s="463" t="s">
         <v>346</v>
       </c>
-      <c r="I18" s="468"/>
+      <c r="I18" s="464"/>
       <c r="J18" s="269"/>
       <c r="K18" s="269"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="484" t="s">
+      <c r="B19" s="477" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="485"/>
+      <c r="C19" s="478"/>
       <c r="D19" s="248">
         <v>0</v>
       </c>
-      <c r="F19" s="478"/>
-      <c r="G19" s="483"/>
-      <c r="H19" s="475">
+      <c r="F19" s="469"/>
+      <c r="G19" s="480"/>
+      <c r="H19" s="481">
         <v>0.99792319358801629</v>
       </c>
-      <c r="I19" s="476"/>
+      <c r="I19" s="482"/>
       <c r="J19" s="269"/>
       <c r="K19" s="269"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="484" t="s">
+      <c r="B20" s="477" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="485"/>
+      <c r="C20" s="478"/>
       <c r="D20" s="248">
         <v>0</v>
       </c>
-      <c r="F20" s="477" t="s">
+      <c r="F20" s="468" t="s">
         <v>351</v>
       </c>
-      <c r="G20" s="479">
+      <c r="G20" s="470">
         <v>92.039385344389615</v>
       </c>
-      <c r="H20" s="467" t="s">
+      <c r="H20" s="463" t="s">
         <v>353</v>
       </c>
-      <c r="I20" s="468"/>
+      <c r="I20" s="464"/>
       <c r="J20" s="269"/>
       <c r="K20" s="269"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="478"/>
-      <c r="G21" s="480"/>
-      <c r="H21" s="473">
+      <c r="F21" s="469"/>
+      <c r="G21" s="471"/>
+      <c r="H21" s="465">
         <v>0.44725910902845156</v>
       </c>
-      <c r="I21" s="481"/>
+      <c r="I21" s="467"/>
       <c r="J21" s="269"/>
       <c r="K21" s="269"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="514" t="s">
+      <c r="B22" s="516" t="s">
         <v>357</v>
       </c>
-      <c r="C22" s="515"/>
-      <c r="D22" s="516"/>
-      <c r="F22" s="477" t="s">
+      <c r="C22" s="517"/>
+      <c r="D22" s="518"/>
+      <c r="F22" s="468" t="s">
         <v>352</v>
       </c>
-      <c r="G22" s="479">
+      <c r="G22" s="470">
         <v>205.35800278833992</v>
       </c>
-      <c r="H22" s="467" t="s">
+      <c r="H22" s="463" t="s">
         <v>354</v>
       </c>
-      <c r="I22" s="468"/>
+      <c r="I22" s="464"/>
       <c r="J22" s="269"/>
       <c r="K22" s="269"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="510" t="s">
+      <c r="B23" s="519" t="s">
         <v>361</v>
       </c>
-      <c r="C23" s="512" t="s">
+      <c r="C23" s="521" t="s">
         <v>360</v>
       </c>
       <c r="D23" s="271" t="s">
         <v>359</v>
       </c>
-      <c r="F23" s="478"/>
-      <c r="G23" s="480"/>
-      <c r="H23" s="508">
+      <c r="F23" s="469"/>
+      <c r="G23" s="471"/>
+      <c r="H23" s="472">
         <v>0.99792319359044823</v>
       </c>
-      <c r="I23" s="509"/>
+      <c r="I23" s="473"/>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="511"/>
-      <c r="C24" s="513"/>
+      <c r="B24" s="520"/>
+      <c r="C24" s="522"/>
       <c r="D24" s="275">
         <v>0.01</v>
       </c>
-      <c r="F24" s="477" t="s">
+      <c r="F24" s="468" t="s">
         <v>332</v>
       </c>
-      <c r="G24" s="479">
+      <c r="G24" s="470">
         <v>1083.9260487406152</v>
       </c>
-      <c r="H24" s="467" t="s">
+      <c r="H24" s="463" t="s">
         <v>334</v>
       </c>
-      <c r="I24" s="468"/>
+      <c r="I24" s="464"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="510" t="s">
+      <c r="B25" s="519" t="s">
         <v>362</v>
       </c>
-      <c r="C25" s="512" t="s">
+      <c r="C25" s="521" t="s">
         <v>360</v>
       </c>
       <c r="D25" s="271" t="s">
         <v>363</v>
       </c>
-      <c r="F25" s="478"/>
-      <c r="G25" s="480"/>
-      <c r="H25" s="473">
+      <c r="F25" s="469"/>
+      <c r="G25" s="471"/>
+      <c r="H25" s="465">
         <v>7.1428705443518384E-2</v>
       </c>
-      <c r="I25" s="481"/>
+      <c r="I25" s="467"/>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="511"/>
-      <c r="C26" s="513"/>
+      <c r="B26" s="520"/>
+      <c r="C26" s="522"/>
       <c r="D26" s="275">
         <v>7</v>
       </c>
-      <c r="F26" s="477" t="s">
+      <c r="F26" s="468" t="s">
         <v>349</v>
       </c>
-      <c r="G26" s="479">
+      <c r="G26" s="470">
         <v>15058.576191528966</v>
       </c>
-      <c r="H26" s="467" t="s">
+      <c r="H26" s="463" t="s">
         <v>350</v>
       </c>
-      <c r="I26" s="468"/>
+      <c r="I26" s="464"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="478"/>
-      <c r="G27" s="480"/>
-      <c r="H27" s="508">
+      <c r="F27" s="469"/>
+      <c r="G27" s="471"/>
+      <c r="H27" s="472">
         <v>0.99233209168949243</v>
       </c>
-      <c r="I27" s="509"/>
+      <c r="I27" s="473"/>
     </row>
     <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="477" t="s">
+      <c r="F28" s="468" t="s">
         <v>356</v>
       </c>
-      <c r="G28" s="517">
+      <c r="G28" s="523">
         <v>0.8440832234354011</v>
       </c>
-      <c r="H28" s="467" t="s">
+      <c r="H28" s="463" t="s">
         <v>358</v>
       </c>
-      <c r="I28" s="468"/>
+      <c r="I28" s="464"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="478"/>
-      <c r="G29" s="518"/>
-      <c r="H29" s="508">
+      <c r="F29" s="469"/>
+      <c r="G29" s="524"/>
+      <c r="H29" s="472">
         <v>0.84668993642021184</v>
       </c>
-      <c r="I29" s="509"/>
+      <c r="I29" s="473"/>
     </row>
   </sheetData>
   <mergeCells count="74">
@@ -25614,17 +25847,31 @@
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:I24"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K11"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="J12:K15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="F3:S3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B13:C13"/>
@@ -25636,14 +25883,8 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
@@ -25658,71 +25899,63 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="J12:K15"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:I11">
-    <cfRule type="cellIs" dxfId="39" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="14" operator="between">
       <formula>1.05</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="15" operator="between">
       <formula>-100</formula>
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="16" operator="between">
       <formula>0.95</formula>
       <formula>1.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="17" operator="between">
       <formula>0.95</formula>
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:I17">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="6" operator="between">
       <formula>1.04</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="between">
       <formula>-100</formula>
       <formula>0.96</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="between">
       <formula>0.96</formula>
       <formula>1.04</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="5" operator="lessThan">
       <formula>90000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula>IF($C$23="No",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula>"C23=No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>IF($C$25="No",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25741,8 +25974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25758,50 +25991,50 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="491" t="s">
+      <c r="B3" s="483" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="492"/>
+      <c r="C3" s="484"/>
       <c r="D3" s="249" t="s">
         <v>302</v>
       </c>
-      <c r="F3" s="496" t="s">
+      <c r="F3" s="485" t="s">
         <v>370</v>
       </c>
-      <c r="G3" s="497"/>
-      <c r="H3" s="497"/>
-      <c r="I3" s="497"/>
-      <c r="J3" s="497"/>
-      <c r="K3" s="497"/>
-      <c r="L3" s="498"/>
+      <c r="G3" s="486"/>
+      <c r="H3" s="486"/>
+      <c r="I3" s="486"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="486"/>
+      <c r="L3" s="487"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="484" t="s">
+      <c r="B4" s="477" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="485"/>
+      <c r="C4" s="478"/>
       <c r="D4" s="248">
         <v>0</v>
       </c>
-      <c r="F4" s="527"/>
-      <c r="G4" s="528" t="s">
+      <c r="F4" s="358"/>
+      <c r="G4" s="359" t="s">
         <v>310</v>
       </c>
-      <c r="H4" s="529">
+      <c r="H4" s="360">
         <v>6289</v>
       </c>
-      <c r="I4" s="530" t="s">
+      <c r="I4" s="361" t="s">
         <v>312</v>
       </c>
-      <c r="J4" s="531"/>
-      <c r="K4" s="531"/>
-      <c r="L4" s="532"/>
+      <c r="J4" s="362"/>
+      <c r="K4" s="362"/>
+      <c r="L4" s="363"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="484" t="s">
+      <c r="B5" s="477" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="485"/>
+      <c r="C5" s="478"/>
       <c r="D5" s="248">
         <v>0</v>
       </c>
@@ -25826,10 +26059,10 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="484" t="s">
+      <c r="B6" s="477" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="485"/>
+      <c r="C6" s="478"/>
       <c r="D6" s="248">
         <v>0</v>
       </c>
@@ -25854,10 +26087,10 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="484" t="s">
+      <c r="B7" s="477" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="485"/>
+      <c r="C7" s="478"/>
       <c r="D7" s="248">
         <v>0</v>
       </c>
@@ -25865,13 +26098,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="290">
-        <v>16636.578664336193</v>
+        <v>16994.215222631861</v>
       </c>
       <c r="H7" s="290">
         <v>4146.5033051977589</v>
       </c>
       <c r="I7" s="286">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="J7" s="286">
         <v>40</v>
@@ -25880,14 +26113,14 @@
         <v>1140</v>
       </c>
       <c r="L7" s="287">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="484" t="s">
+      <c r="B8" s="477" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="485"/>
+      <c r="C8" s="478"/>
       <c r="D8" s="248">
         <v>0</v>
       </c>
@@ -25914,10 +26147,10 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="484" t="s">
+      <c r="B9" s="477" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="485"/>
+      <c r="C9" s="478"/>
       <c r="D9" s="248">
         <v>0</v>
       </c>
@@ -25944,10 +26177,10 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="484" t="s">
+      <c r="B10" s="477" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="485"/>
+      <c r="C10" s="478"/>
       <c r="D10" s="248">
         <v>0</v>
       </c>
@@ -25974,10 +26207,10 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="484" t="s">
+      <c r="B11" s="477" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="485"/>
+      <c r="C11" s="478"/>
       <c r="D11" s="248">
         <v>0</v>
       </c>
@@ -26004,10 +26237,10 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="484" t="s">
+      <c r="B12" s="477" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="485"/>
+      <c r="C12" s="478"/>
       <c r="D12" s="248">
         <v>1</v>
       </c>
@@ -26022,10 +26255,10 @@
       <c r="L12" s="287"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="484" t="s">
+      <c r="B13" s="477" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="485"/>
+      <c r="C13" s="478"/>
       <c r="D13" s="248">
         <v>0</v>
       </c>
@@ -26040,10 +26273,10 @@
       <c r="L13" s="287"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="484" t="s">
+      <c r="B14" s="477" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="485"/>
+      <c r="C14" s="478"/>
       <c r="D14" s="248">
         <v>0</v>
       </c>
@@ -26058,10 +26291,10 @@
       <c r="L14" s="287"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="484" t="s">
+      <c r="B15" s="477" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="485"/>
+      <c r="C15" s="478"/>
       <c r="D15" s="248">
         <v>0</v>
       </c>
@@ -26076,10 +26309,10 @@
       <c r="L15" s="287"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="484" t="s">
+      <c r="B16" s="477" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="485"/>
+      <c r="C16" s="478"/>
       <c r="D16" s="248">
         <v>0</v>
       </c>
@@ -26094,110 +26327,110 @@
       <c r="L16" s="255"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="484" t="s">
+      <c r="B17" s="477" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="485"/>
+      <c r="C17" s="478"/>
       <c r="D17" s="248">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="484" t="s">
+      <c r="B18" s="477" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="485"/>
+      <c r="C18" s="478"/>
       <c r="D18" s="248">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="484" t="s">
+      <c r="B19" s="477" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="485"/>
+      <c r="C19" s="478"/>
       <c r="D19" s="248">
         <v>0</v>
       </c>
-      <c r="F19" s="488" t="s">
+      <c r="F19" s="495" t="s">
         <v>376</v>
       </c>
-      <c r="G19" s="515"/>
-      <c r="H19" s="515"/>
-      <c r="I19" s="515"/>
-      <c r="J19" s="515"/>
-      <c r="K19" s="489"/>
-      <c r="L19" s="489"/>
-      <c r="M19" s="489"/>
-      <c r="N19" s="489"/>
-      <c r="O19" s="489"/>
-      <c r="P19" s="489"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
-      <c r="S19" s="489"/>
-      <c r="T19" s="489"/>
-      <c r="U19" s="489"/>
-      <c r="V19" s="489"/>
-      <c r="W19" s="489"/>
-      <c r="X19" s="489"/>
-      <c r="Y19" s="489"/>
-      <c r="Z19" s="489"/>
-      <c r="AA19" s="489"/>
-      <c r="AB19" s="490"/>
+      <c r="G19" s="517"/>
+      <c r="H19" s="517"/>
+      <c r="I19" s="517"/>
+      <c r="J19" s="517"/>
+      <c r="K19" s="501"/>
+      <c r="L19" s="501"/>
+      <c r="M19" s="501"/>
+      <c r="N19" s="501"/>
+      <c r="O19" s="501"/>
+      <c r="P19" s="501"/>
+      <c r="Q19" s="501"/>
+      <c r="R19" s="501"/>
+      <c r="S19" s="501"/>
+      <c r="T19" s="501"/>
+      <c r="U19" s="501"/>
+      <c r="V19" s="501"/>
+      <c r="W19" s="501"/>
+      <c r="X19" s="501"/>
+      <c r="Y19" s="501"/>
+      <c r="Z19" s="501"/>
+      <c r="AA19" s="501"/>
+      <c r="AB19" s="496"/>
     </row>
     <row r="20" spans="2:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="484" t="s">
+      <c r="B20" s="477" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="485"/>
+      <c r="C20" s="478"/>
       <c r="D20" s="248">
         <v>0</v>
       </c>
       <c r="F20" s="301"/>
-      <c r="G20" s="523" t="s">
+      <c r="G20" s="529" t="s">
         <v>328</v>
       </c>
-      <c r="H20" s="524"/>
-      <c r="I20" s="525" t="s">
+      <c r="H20" s="530"/>
+      <c r="I20" s="531" t="s">
         <v>315</v>
       </c>
-      <c r="J20" s="524"/>
-      <c r="K20" s="520" t="s">
+      <c r="J20" s="530"/>
+      <c r="K20" s="526" t="s">
         <v>316</v>
       </c>
-      <c r="L20" s="522"/>
-      <c r="M20" s="520" t="s">
+      <c r="L20" s="528"/>
+      <c r="M20" s="526" t="s">
         <v>330</v>
       </c>
-      <c r="N20" s="520"/>
-      <c r="O20" s="521" t="s">
+      <c r="N20" s="526"/>
+      <c r="O20" s="527" t="s">
         <v>333</v>
       </c>
-      <c r="P20" s="522"/>
-      <c r="Q20" s="520" t="s">
+      <c r="P20" s="528"/>
+      <c r="Q20" s="526" t="s">
         <v>351</v>
       </c>
-      <c r="R20" s="520"/>
-      <c r="S20" s="521" t="s">
+      <c r="R20" s="526"/>
+      <c r="S20" s="527" t="s">
         <v>352</v>
       </c>
-      <c r="T20" s="522"/>
-      <c r="U20" s="521" t="s">
+      <c r="T20" s="528"/>
+      <c r="U20" s="527" t="s">
         <v>388</v>
       </c>
-      <c r="V20" s="522"/>
-      <c r="W20" s="520" t="s">
+      <c r="V20" s="528"/>
+      <c r="W20" s="526" t="s">
         <v>332</v>
       </c>
-      <c r="X20" s="520"/>
-      <c r="Y20" s="521" t="s">
+      <c r="X20" s="526"/>
+      <c r="Y20" s="527" t="s">
         <v>349</v>
       </c>
-      <c r="Z20" s="522"/>
-      <c r="AA20" s="520" t="s">
+      <c r="Z20" s="528"/>
+      <c r="AA20" s="526" t="s">
         <v>377</v>
       </c>
-      <c r="AB20" s="522"/>
+      <c r="AB20" s="528"/>
     </row>
     <row r="21" spans="2:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="302"/>
@@ -26269,31 +26502,31 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="514" t="s">
+      <c r="B22" s="516" t="s">
         <v>357</v>
       </c>
-      <c r="C22" s="515"/>
-      <c r="D22" s="516"/>
+      <c r="C22" s="517"/>
+      <c r="D22" s="518"/>
       <c r="F22" s="303">
         <v>1</v>
       </c>
       <c r="G22" s="309">
-        <v>3.2127192756885847</v>
+        <v>3.124390485126705</v>
       </c>
       <c r="H22" s="310">
-        <v>1.1524531107215161</v>
+        <v>1.1207681794486182</v>
       </c>
       <c r="I22" s="311">
-        <v>0.54114862186842905</v>
+        <v>0.54121423114448153</v>
       </c>
       <c r="J22" s="312">
-        <v>-1.8097825624271202E-2</v>
+        <v>-1.8032216348218721E-2</v>
       </c>
       <c r="K22" s="313">
-        <v>1041249.8232808236</v>
+        <v>1063595.2484440436</v>
       </c>
       <c r="L22" s="312">
-        <v>8.9980609521417648E-2</v>
+        <v>9.1911611026768675E-2</v>
       </c>
       <c r="M22" s="313">
         <v>4.8873323761980697E-2</v>
@@ -26302,22 +26535,22 @@
         <v>0.59448389176382965</v>
       </c>
       <c r="O22" s="314">
-        <v>10.45751893465787</v>
+        <v>10.352815654353689</v>
       </c>
       <c r="P22" s="315">
-        <v>1.2448227948742443</v>
+        <v>1.2323593194710305</v>
       </c>
       <c r="Q22" s="313">
-        <v>114.81116546752091</v>
+        <v>113.66164752592238</v>
       </c>
       <c r="R22" s="316">
-        <v>0.55791701977779073</v>
+        <v>0.55233101582472421</v>
       </c>
       <c r="S22" s="314">
-        <v>256.16633162529126</v>
+        <v>253.6015298469012</v>
       </c>
       <c r="T22" s="310">
-        <v>1.2448227985998666</v>
+        <v>1.2323593194713931</v>
       </c>
       <c r="U22" s="314">
         <v>6193.711567662227</v>
@@ -26326,29 +26559,29 @@
         <v>0.59448389176382965</v>
       </c>
       <c r="W22" s="313">
-        <v>678.97797027812385</v>
+        <v>708.13547345300083</v>
       </c>
       <c r="X22" s="318">
-        <v>4.474338216890647E-2</v>
+        <v>4.6664807258899051E-2</v>
       </c>
       <c r="Y22" s="314">
-        <v>12045.182222631047</v>
+        <v>12289.39629556643</v>
       </c>
       <c r="Z22" s="310">
-        <v>0.79375504813585784</v>
+        <v>0.8098483001627198</v>
       </c>
       <c r="AA22" s="319">
-        <v>0.78142978182591405</v>
+        <v>0.75769811985412083</v>
       </c>
       <c r="AB22" s="315">
-        <v>0.78582446069871026</v>
+        <v>0.76249679489451971</v>
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B23" s="510" t="s">
+      <c r="B23" s="519" t="s">
         <v>361</v>
       </c>
-      <c r="C23" s="512" t="s">
+      <c r="C23" s="521" t="s">
         <v>360</v>
       </c>
       <c r="D23" s="272" t="s">
@@ -26425,8 +26658,8 @@
       </c>
     </row>
     <row r="24" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="511"/>
-      <c r="C24" s="513"/>
+      <c r="B24" s="520"/>
+      <c r="C24" s="522"/>
       <c r="D24" s="275">
         <v>0.01</v>
       </c>
@@ -26501,10 +26734,10 @@
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B25" s="510" t="s">
+      <c r="B25" s="519" t="s">
         <v>362</v>
       </c>
-      <c r="C25" s="512" t="s">
+      <c r="C25" s="521" t="s">
         <v>360</v>
       </c>
       <c r="D25" s="272" t="s">
@@ -26581,8 +26814,8 @@
       </c>
     </row>
     <row r="26" spans="2:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="511"/>
-      <c r="C26" s="513"/>
+      <c r="B26" s="520"/>
+      <c r="C26" s="522"/>
       <c r="D26" s="275">
         <v>7</v>
       </c>
@@ -26863,24 +27096,24 @@
       </c>
     </row>
     <row r="33" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="Y33" s="519" t="s">
+      <c r="Y33" s="525" t="s">
         <v>387</v>
       </c>
-      <c r="Z33" s="519"/>
-      <c r="AA33" s="519"/>
-      <c r="AB33" s="519"/>
+      <c r="Z33" s="525"/>
+      <c r="AA33" s="525"/>
+      <c r="AB33" s="525"/>
     </row>
     <row r="34" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="Y34" s="519"/>
-      <c r="Z34" s="519"/>
-      <c r="AA34" s="519"/>
-      <c r="AB34" s="519"/>
+      <c r="Y34" s="525"/>
+      <c r="Z34" s="525"/>
+      <c r="AA34" s="525"/>
+      <c r="AB34" s="525"/>
     </row>
     <row r="35" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="Y35" s="519"/>
-      <c r="Z35" s="519"/>
-      <c r="AA35" s="519"/>
-      <c r="AB35" s="519"/>
+      <c r="Y35" s="525"/>
+      <c r="Z35" s="525"/>
+      <c r="AA35" s="525"/>
+      <c r="AB35" s="525"/>
     </row>
     <row r="36" spans="8:28" x14ac:dyDescent="0.25">
       <c r="H36" s="357"/>
@@ -26932,124 +27165,124 @@
     <mergeCell ref="C23:C24"/>
   </mergeCells>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>IF($C$23="No",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>"C23=No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>IF($C$25="No",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F31">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>AND(N22&gt;0.94,N22&lt;1.04)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>AND(N32&gt;0.94,N32&lt;1.04)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H23:H31">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>AND(AND(P23&gt;0.94,P23&lt;1.04),AND(H23&gt;0.95,H23&lt;1.05))</formula>
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>AND(AND(P23&gt;0.96,P23&lt;1.04),AND(H23&gt;0.95,H23&lt;1.05))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N31">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>AND(V23&gt;0.94,V23&lt;1.04)</formula>
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>AND(V23&gt;0.96,V23&lt;1.04)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H31">
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>AND(AND(N22&gt;0.94,N22&lt;1.04),OR(H22&gt;1.05,H22&lt;0.95))</formula>
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>AND(AND(N22&gt;0.96,N22&lt;1.04),OR(H22&gt;1.05,H22&lt;0.95))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
-      <formula>AND(AND(N22&gt;0.94,N22&lt;1.04),AND(H22&lt;1.05,H22&gt;0.95))</formula>
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>AND(AND(N22&gt;0.96,N22&lt;1.04),AND(H22&lt;1.05,H22&gt;0.95))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N31">
-    <cfRule type="expression" dxfId="21" priority="16">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>AND(N22=N10000,N22=N10001)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>OR(N22&lt;0.94,N22&gt;1.04)</formula>
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>OR(N22&lt;0.96,N22&gt;1.04)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="22">
-      <formula>AND(N22&gt;0.94,N22&lt;1.04)</formula>
+    <cfRule type="expression" dxfId="17" priority="20">
+      <formula>AND(N22&gt;0.96,N22&lt;1.04)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22">
-    <cfRule type="expression" dxfId="18" priority="17">
-      <formula>AND(AND(N22&gt;0.94,N22&lt;1.04),Z22&gt;1.07)</formula>
+    <cfRule type="expression" dxfId="16" priority="15">
+      <formula>AND(AND(N22&gt;0.96,N22&lt;1.04),Z22&gt;1.07)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>AND(AND(N22&gt;0.94,N22&lt;1.04),Z22&lt;1.07)</formula>
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>AND(AND(N22&gt;0.96,N22&lt;1.04),Z22&lt;1.07)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:T31">
-    <cfRule type="expression" dxfId="16" priority="19">
-      <formula>AND(AND(N22&gt;0.94,N22&lt;1.04),OR(T22&gt;1.05,T22&lt;1))</formula>
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>AND(AND(N22&gt;0.96,N22&lt;1.04),OR(T22&gt;1.05,T22&lt;1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20">
-      <formula>AND(AND(N22&gt;0.94,N22&lt;1.04),AND(T22&lt;1.05,T22&gt;1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F31">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>AND(N22&gt;0.94,N22&lt;1.04)</formula>
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>AND(AND(N22&gt;0.96,N22&lt;1.04),AND(T22&lt;1.05,T22&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23:Z31">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>AND(AND(N23&gt;0.94,N23&lt;1.04),Z23&gt;1.07)</formula>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>AND(AND(N23&gt;0.96,N23&lt;1.04),Z23&gt;1.07)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>AND(AND(N23&gt;0.94,N23&lt;1.04),Z23&lt;1.07)</formula>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>AND(AND(N23&gt;0.96,N23&lt;1.04),Z23&lt;1.07)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>AND(AND(P32&gt;0.94,P32&lt;1.04),AND(H32&gt;0.95,H32&lt;1.05))</formula>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>AND(AND(P32&gt;0.96,P32&lt;1.04),AND(H32&gt;0.95,H32&lt;1.05))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>AND(V32&gt;0.94,V32&lt;1.04)</formula>
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>AND(V32&gt;0.96,V32&lt;1.04)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>AND(AND(N32&gt;0.94,N32&lt;1.04),OR(H32&gt;1.05,H32&lt;0.95))</formula>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>AND(AND(N32&gt;0.96,N32&lt;1.04),OR(H32&gt;1.05,H32&lt;0.95))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>AND(AND(N32&gt;0.94,N32&lt;1.04),AND(H32&lt;1.05,H32&gt;0.95))</formula>
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>AND(AND(N32&gt;0.96,N32&lt;1.04),AND(H32&lt;1.05,H32&gt;0.95))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND(N32=N10010,N32=N10011)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>OR(N32&lt;0.94,N32&gt;1.04)</formula>
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>OR(N32&lt;0.96,N32&gt;1.04)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>AND(N32&gt;0.94,N32&lt;1.04)</formula>
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>AND(N32&gt;0.96,N32&lt;1.04)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND(AND(N32&gt;0.94,N32&lt;1.04),OR(T32&gt;1.05,T32&lt;1))</formula>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND(AND(N32&gt;0.96,N32&lt;1.04),OR(T32&gt;1.05,T32&lt;1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>AND(AND(N32&gt;0.94,N32&lt;1.04),AND(T32&lt;1.05,T32&gt;1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(N32&gt;0.94,N32&lt;1.04)</formula>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND(AND(N32&gt;0.96,N32&lt;1.04),AND(T32&lt;1.05,T32&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z32">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(AND(N32&gt;0.94,N32&lt;1.04),Z32&gt;1.07)</formula>
+      <formula>AND(AND(N32&gt;0.96,N32&lt;1.04),Z32&gt;1.07)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(AND(N32&gt;0.94,N32&lt;1.04),Z32&lt;1.07)</formula>
+      <formula>AND(AND(N32&gt;0.96,N32&lt;1.04),Z32&lt;1.07)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -27076,19 +27309,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="526" t="s">
+      <c r="A1" s="532" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="526"/>
-      <c r="C1" s="526"/>
-      <c r="D1" s="526"/>
+      <c r="B1" s="532"/>
+      <c r="C1" s="532"/>
+      <c r="D1" s="532"/>
       <c r="E1" s="270"/>
       <c r="F1" s="270"/>
-      <c r="G1" s="526" t="s">
+      <c r="G1" s="532" t="s">
         <v>341</v>
       </c>
-      <c r="H1" s="526"/>
-      <c r="I1" s="526"/>
+      <c r="H1" s="532"/>
+      <c r="I1" s="532"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="270"/>
